--- a/doc/sfs/sej/기본설계서_REDBULL_서은정_20190924.xlsx
+++ b/doc/sfs/sej/기본설계서_REDBULL_서은정_20190924.xlsx
@@ -180,7 +180,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1049" uniqueCount="401">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1049" uniqueCount="402">
   <si>
     <t>구분</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1308,10 +1308,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>핸드폰 번호('-'포함)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>우편번호</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1364,10 +1360,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>우편번호(5자리)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>null</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1377,10 +1369,6 @@
   </si>
   <si>
     <t>20자 이하 영문 대/소문자, 숫자, 특수문자</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>생년월일('1900-00-00' 형식)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1794,6 +1782,22 @@
   </si>
   <si>
     <t>공지사항 제목</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>*생년월일('1900-00-00' 형식)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>*핸드폰 번호('-'포함)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>*우편번호(5자리)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>*주소</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2946,7 +2950,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="378">
+  <cellXfs count="380">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -3803,6 +3807,12 @@
     <xf numFmtId="0" fontId="13" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="14" borderId="43" xfId="34" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="justify" textRotation="90"/>
     </xf>
@@ -3814,66 +3824,6 @@
     </xf>
     <xf numFmtId="0" fontId="40" fillId="14" borderId="43" xfId="34" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="justify" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
@@ -3925,6 +3875,75 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="26" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="17" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -3934,15 +3953,6 @@
     <xf numFmtId="0" fontId="12" fillId="17" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3952,6 +3962,18 @@
     <xf numFmtId="14" fontId="48" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="45" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
     <xf numFmtId="3" fontId="49" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
@@ -3972,18 +3994,6 @@
     </xf>
     <xf numFmtId="14" fontId="13" fillId="7" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="45" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="35">
@@ -8517,7 +8527,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A1" s="316"/>
+      <c r="A1" s="318"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -8533,7 +8543,7 @@
       <c r="N1" s="1"/>
     </row>
     <row r="2" spans="1:14" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A2" s="317"/>
+      <c r="A2" s="319"/>
       <c r="B2" s="3" t="s">
         <v>10</v>
       </c>
@@ -8551,21 +8561,21 @@
       <c r="N2" s="4"/>
     </row>
     <row r="3" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1">
-      <c r="A3" s="317"/>
+      <c r="A3" s="319"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
     </row>
     <row r="4" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1">
-      <c r="A4" s="317"/>
+      <c r="A4" s="319"/>
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
     <row r="5" spans="1:14" s="10" customFormat="1" ht="15" customHeight="1" thickBot="1">
-      <c r="A5" s="318"/>
+      <c r="A5" s="320"/>
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
@@ -8870,7 +8880,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:45" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A1" s="319" t="s">
+      <c r="A1" s="321" t="s">
         <v>61</v>
       </c>
       <c r="B1" s="1"/>
@@ -8883,7 +8893,7 @@
       <c r="I1" s="1"/>
     </row>
     <row r="2" spans="1:45" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A2" s="317"/>
+      <c r="A2" s="319"/>
       <c r="B2" s="3" t="s">
         <v>62</v>
       </c>
@@ -8896,14 +8906,14 @@
       <c r="I2" s="4"/>
     </row>
     <row r="3" spans="1:45" s="6" customFormat="1" ht="15" customHeight="1">
-      <c r="A3" s="317"/>
+      <c r="A3" s="319"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
     </row>
     <row r="4" spans="1:45" s="6" customFormat="1" ht="15" customHeight="1">
-      <c r="A4" s="317"/>
+      <c r="A4" s="319"/>
       <c r="B4" s="7" t="s">
         <v>63</v>
       </c>
@@ -8912,7 +8922,7 @@
       <c r="E4" s="7"/>
     </row>
     <row r="5" spans="1:45" s="10" customFormat="1" ht="15" customHeight="1" thickBot="1">
-      <c r="A5" s="318"/>
+      <c r="A5" s="320"/>
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
@@ -12673,7 +12683,7 @@
         <v>199</v>
       </c>
       <c r="P57" s="287" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="Q57" s="268"/>
       <c r="R57" s="268"/>
@@ -12827,7 +12837,7 @@
       <c r="J59" s="272"/>
       <c r="K59" s="274"/>
       <c r="L59" s="292" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="M59" s="273"/>
       <c r="N59" s="275"/>
@@ -14479,7 +14489,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="2" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A1" s="316" t="s">
+      <c r="A1" s="318" t="s">
         <v>132</v>
       </c>
       <c r="B1" s="1"/>
@@ -14490,7 +14500,7 @@
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:16" s="2" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A2" s="317"/>
+      <c r="A2" s="319"/>
       <c r="B2" s="3" t="s">
         <v>15</v>
       </c>
@@ -14501,18 +14511,18 @@
       <c r="G2" s="4"/>
     </row>
     <row r="3" spans="1:16" s="6" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A3" s="317"/>
+      <c r="A3" s="319"/>
       <c r="G3" s="81"/>
     </row>
     <row r="4" spans="1:16" s="6" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A4" s="317"/>
+      <c r="A4" s="319"/>
       <c r="B4" s="7" t="s">
         <v>16</v>
       </c>
       <c r="G4" s="81"/>
     </row>
     <row r="5" spans="1:16" s="10" customFormat="1" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A5" s="318"/>
+      <c r="A5" s="320"/>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
@@ -14527,20 +14537,20 @@
       <c r="B6" s="95" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="350" t="s">
-        <v>301</v>
-      </c>
-      <c r="D6" s="351"/>
-      <c r="E6" s="352" t="s">
+      <c r="C6" s="332" t="s">
+        <v>300</v>
+      </c>
+      <c r="D6" s="333"/>
+      <c r="E6" s="334" t="s">
         <v>126</v>
       </c>
-      <c r="F6" s="353"/>
-      <c r="G6" s="354"/>
+      <c r="F6" s="335"/>
+      <c r="G6" s="336"/>
       <c r="H6" s="82" t="s">
         <v>14</v>
       </c>
       <c r="I6" s="139" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="J6" s="138"/>
       <c r="K6" s="82" t="s">
@@ -14674,8 +14684,8 @@
       <c r="B15" s="83"/>
       <c r="C15" s="212"/>
       <c r="D15" s="212"/>
-      <c r="E15" s="355"/>
-      <c r="F15" s="355"/>
+      <c r="E15" s="337"/>
+      <c r="F15" s="337"/>
       <c r="G15" s="212"/>
       <c r="H15" s="212"/>
       <c r="I15" s="212"/>
@@ -14690,8 +14700,8 @@
       <c r="B16" s="83"/>
       <c r="C16" s="149"/>
       <c r="D16" s="212"/>
-      <c r="E16" s="356"/>
-      <c r="F16" s="356"/>
+      <c r="E16" s="338"/>
+      <c r="F16" s="338"/>
       <c r="G16" s="150"/>
       <c r="H16" s="150"/>
       <c r="I16" s="151"/>
@@ -14708,8 +14718,8 @@
       <c r="B17" s="83"/>
       <c r="C17" s="149"/>
       <c r="D17" s="212"/>
-      <c r="E17" s="357"/>
-      <c r="F17" s="357"/>
+      <c r="E17" s="339"/>
+      <c r="F17" s="339"/>
       <c r="G17" s="230"/>
       <c r="H17" s="230"/>
       <c r="I17" s="231"/>
@@ -14889,7 +14899,7 @@
       <c r="C27" s="149"/>
       <c r="D27" s="212"/>
       <c r="E27" s="212" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F27" s="211"/>
       <c r="G27" s="150"/>
@@ -14948,7 +14958,7 @@
       <c r="C30" s="149"/>
       <c r="D30" s="212"/>
       <c r="E30" s="212" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F30" s="211"/>
       <c r="G30" s="150"/>
@@ -14968,7 +14978,7 @@
       <c r="C31" s="149"/>
       <c r="D31" s="235"/>
       <c r="E31" s="237" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="F31" s="211"/>
       <c r="G31" s="150"/>
@@ -15024,7 +15034,7 @@
       <c r="C34" s="149"/>
       <c r="D34" s="212"/>
       <c r="E34" s="236" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F34" s="211"/>
       <c r="G34" s="150"/>
@@ -15080,7 +15090,7 @@
       <c r="C37" s="149"/>
       <c r="D37" s="212"/>
       <c r="E37" s="236" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F37" s="211"/>
       <c r="G37" s="150"/>
@@ -15135,8 +15145,8 @@
       <c r="B40" s="83"/>
       <c r="C40" s="149"/>
       <c r="D40" s="212"/>
-      <c r="E40" s="236" t="s">
-        <v>311</v>
+      <c r="E40" s="317" t="s">
+        <v>398</v>
       </c>
       <c r="F40" s="211"/>
       <c r="G40" s="150"/>
@@ -15191,8 +15201,8 @@
       <c r="B43" s="83"/>
       <c r="C43" s="149"/>
       <c r="D43" s="212"/>
-      <c r="E43" s="236" t="s">
-        <v>293</v>
+      <c r="E43" s="317" t="s">
+        <v>399</v>
       </c>
       <c r="F43" s="238"/>
       <c r="G43" s="150"/>
@@ -15247,8 +15257,8 @@
       <c r="B46" s="83"/>
       <c r="C46" s="149"/>
       <c r="D46" s="212"/>
-      <c r="E46" s="236" t="s">
-        <v>307</v>
+      <c r="E46" s="317" t="s">
+        <v>400</v>
       </c>
       <c r="F46" s="238"/>
       <c r="G46" s="150"/>
@@ -15303,10 +15313,10 @@
       <c r="B49" s="83"/>
       <c r="C49" s="149"/>
       <c r="D49" s="212"/>
-      <c r="E49" s="340" t="s">
-        <v>295</v>
-      </c>
-      <c r="F49" s="341"/>
+      <c r="E49" s="322" t="s">
+        <v>401</v>
+      </c>
+      <c r="F49" s="323"/>
       <c r="G49" s="150"/>
       <c r="H49" s="150"/>
       <c r="I49" s="151"/>
@@ -15323,8 +15333,8 @@
       <c r="B50" s="83"/>
       <c r="C50" s="150"/>
       <c r="D50" s="150"/>
-      <c r="E50" s="342"/>
-      <c r="F50" s="343"/>
+      <c r="E50" s="324"/>
+      <c r="F50" s="325"/>
       <c r="G50" s="244"/>
       <c r="H50" s="227"/>
       <c r="I50" s="151"/>
@@ -15355,7 +15365,7 @@
       <c r="C52" s="146"/>
       <c r="D52" s="16"/>
       <c r="E52" s="241" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F52" s="241"/>
       <c r="G52" s="16"/>
@@ -15435,10 +15445,10 @@
       <c r="F57" s="241"/>
       <c r="G57" s="16"/>
       <c r="H57" s="31"/>
-      <c r="I57" s="346" t="s">
+      <c r="I57" s="328" t="s">
         <v>284</v>
       </c>
-      <c r="J57" s="347"/>
+      <c r="J57" s="329"/>
       <c r="K57" s="16"/>
       <c r="L57" s="16"/>
       <c r="M57" s="144"/>
@@ -15452,8 +15462,8 @@
       <c r="F58" s="241"/>
       <c r="G58" s="16"/>
       <c r="H58" s="31"/>
-      <c r="I58" s="348"/>
-      <c r="J58" s="349"/>
+      <c r="I58" s="330"/>
+      <c r="J58" s="331"/>
       <c r="K58" s="16"/>
       <c r="L58" s="16"/>
       <c r="M58" s="144"/>
@@ -15540,17 +15550,17 @@
       <c r="B64" s="164" t="s">
         <v>43</v>
       </c>
-      <c r="C64" s="344"/>
-      <c r="D64" s="345"/>
-      <c r="E64" s="345"/>
-      <c r="F64" s="345"/>
-      <c r="G64" s="345"/>
-      <c r="H64" s="345"/>
-      <c r="I64" s="345"/>
-      <c r="J64" s="345"/>
-      <c r="K64" s="345"/>
-      <c r="L64" s="345"/>
-      <c r="M64" s="345"/>
+      <c r="C64" s="326"/>
+      <c r="D64" s="327"/>
+      <c r="E64" s="327"/>
+      <c r="F64" s="327"/>
+      <c r="G64" s="327"/>
+      <c r="H64" s="327"/>
+      <c r="I64" s="327"/>
+      <c r="J64" s="327"/>
+      <c r="K64" s="327"/>
+      <c r="L64" s="327"/>
+      <c r="M64" s="327"/>
     </row>
     <row r="65" spans="1:13" ht="16.5" customHeight="1">
       <c r="A65" s="13"/>
@@ -15558,7 +15568,7 @@
         <v>27</v>
       </c>
       <c r="C65" s="201" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D65" s="202"/>
       <c r="E65" s="202"/>
@@ -15577,7 +15587,7 @@
         <v>44</v>
       </c>
       <c r="C66" s="201" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D66" s="202"/>
       <c r="E66" s="202"/>
@@ -15593,10 +15603,10 @@
     <row r="67" spans="1:13" ht="16.5" customHeight="1">
       <c r="A67" s="13"/>
       <c r="B67" s="66" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C67" s="201" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D67" s="202"/>
       <c r="E67" s="202"/>
@@ -15690,15 +15700,15 @@
     </row>
     <row r="74" spans="1:13" s="250" customFormat="1" ht="33.75" customHeight="1">
       <c r="B74" s="168" t="s">
-        <v>312</v>
-      </c>
-      <c r="C74" s="323" t="s">
-        <v>313</v>
-      </c>
-      <c r="D74" s="324"/>
-      <c r="E74" s="324"/>
-      <c r="F74" s="324"/>
-      <c r="G74" s="325"/>
+        <v>309</v>
+      </c>
+      <c r="C74" s="348" t="s">
+        <v>310</v>
+      </c>
+      <c r="D74" s="349"/>
+      <c r="E74" s="349"/>
+      <c r="F74" s="349"/>
+      <c r="G74" s="350"/>
       <c r="H74" s="251" t="s">
         <v>19</v>
       </c>
@@ -15716,15 +15726,15 @@
     </row>
     <row r="75" spans="1:13" s="250" customFormat="1" ht="33.75" customHeight="1">
       <c r="B75" s="168" t="s">
-        <v>305</v>
-      </c>
-      <c r="C75" s="323" t="s">
-        <v>314</v>
-      </c>
-      <c r="D75" s="324"/>
-      <c r="E75" s="324"/>
-      <c r="F75" s="324"/>
-      <c r="G75" s="325"/>
+        <v>304</v>
+      </c>
+      <c r="C75" s="348" t="s">
+        <v>311</v>
+      </c>
+      <c r="D75" s="349"/>
+      <c r="E75" s="349"/>
+      <c r="F75" s="349"/>
+      <c r="G75" s="350"/>
       <c r="H75" s="251" t="s">
         <v>19</v>
       </c>
@@ -15745,13 +15755,13 @@
       <c r="B76" s="66" t="s">
         <v>289</v>
       </c>
-      <c r="C76" s="323" t="s">
-        <v>315</v>
-      </c>
-      <c r="D76" s="324"/>
-      <c r="E76" s="324"/>
-      <c r="F76" s="324"/>
-      <c r="G76" s="325"/>
+      <c r="C76" s="348" t="s">
+        <v>312</v>
+      </c>
+      <c r="D76" s="349"/>
+      <c r="E76" s="349"/>
+      <c r="F76" s="349"/>
+      <c r="G76" s="350"/>
       <c r="H76" s="12" t="s">
         <v>19</v>
       </c>
@@ -15771,13 +15781,13 @@
       <c r="B77" s="168" t="s">
         <v>290</v>
       </c>
-      <c r="C77" s="323" t="s">
-        <v>316</v>
-      </c>
-      <c r="D77" s="324"/>
-      <c r="E77" s="324"/>
-      <c r="F77" s="324"/>
-      <c r="G77" s="325"/>
+      <c r="C77" s="348" t="s">
+        <v>313</v>
+      </c>
+      <c r="D77" s="349"/>
+      <c r="E77" s="349"/>
+      <c r="F77" s="349"/>
+      <c r="G77" s="350"/>
       <c r="H77" s="12" t="s">
         <v>19</v>
       </c>
@@ -15796,15 +15806,15 @@
     <row r="78" spans="1:13" ht="33.75" customHeight="1">
       <c r="A78" s="13"/>
       <c r="B78" s="66" t="s">
-        <v>306</v>
-      </c>
-      <c r="C78" s="323" t="s">
-        <v>317</v>
-      </c>
-      <c r="D78" s="324"/>
-      <c r="E78" s="324"/>
-      <c r="F78" s="324"/>
-      <c r="G78" s="325"/>
+        <v>305</v>
+      </c>
+      <c r="C78" s="348" t="s">
+        <v>314</v>
+      </c>
+      <c r="D78" s="349"/>
+      <c r="E78" s="349"/>
+      <c r="F78" s="349"/>
+      <c r="G78" s="350"/>
       <c r="H78" s="12" t="s">
         <v>19</v>
       </c>
@@ -15825,18 +15835,18 @@
       <c r="B79" s="66" t="s">
         <v>291</v>
       </c>
-      <c r="C79" s="323" t="s">
-        <v>318</v>
-      </c>
-      <c r="D79" s="324"/>
-      <c r="E79" s="324"/>
-      <c r="F79" s="324"/>
-      <c r="G79" s="325"/>
+      <c r="C79" s="348" t="s">
+        <v>315</v>
+      </c>
+      <c r="D79" s="349"/>
+      <c r="E79" s="349"/>
+      <c r="F79" s="349"/>
+      <c r="G79" s="350"/>
       <c r="H79" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="I79" s="209" t="s">
-        <v>45</v>
+      <c r="I79" s="316" t="s">
+        <v>59</v>
       </c>
       <c r="J79" s="12" t="s">
         <v>20</v>
@@ -15852,18 +15862,18 @@
       <c r="B80" s="66" t="s">
         <v>292</v>
       </c>
-      <c r="C80" s="323" t="s">
-        <v>319</v>
-      </c>
-      <c r="D80" s="324"/>
-      <c r="E80" s="324"/>
-      <c r="F80" s="324"/>
-      <c r="G80" s="325"/>
+      <c r="C80" s="348" t="s">
+        <v>316</v>
+      </c>
+      <c r="D80" s="349"/>
+      <c r="E80" s="349"/>
+      <c r="F80" s="349"/>
+      <c r="G80" s="350"/>
       <c r="H80" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="I80" s="209" t="s">
-        <v>45</v>
+      <c r="I80" s="316" t="s">
+        <v>59</v>
       </c>
       <c r="J80" s="12" t="s">
         <v>20</v>
@@ -15877,20 +15887,20 @@
     <row r="81" spans="1:13" ht="33.75" customHeight="1">
       <c r="A81" s="13"/>
       <c r="B81" s="66" t="s">
-        <v>294</v>
-      </c>
-      <c r="C81" s="323" t="s">
-        <v>320</v>
-      </c>
-      <c r="D81" s="324"/>
-      <c r="E81" s="324"/>
-      <c r="F81" s="324"/>
-      <c r="G81" s="325"/>
+        <v>293</v>
+      </c>
+      <c r="C81" s="348" t="s">
+        <v>317</v>
+      </c>
+      <c r="D81" s="349"/>
+      <c r="E81" s="349"/>
+      <c r="F81" s="349"/>
+      <c r="G81" s="350"/>
       <c r="H81" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="I81" s="221" t="s">
-        <v>45</v>
+      <c r="I81" s="316" t="s">
+        <v>59</v>
       </c>
       <c r="J81" s="12" t="s">
         <v>20</v>
@@ -15904,20 +15914,20 @@
     <row r="82" spans="1:13" ht="16.5" customHeight="1">
       <c r="A82" s="13"/>
       <c r="B82" s="66" t="s">
-        <v>295</v>
-      </c>
-      <c r="C82" s="320" t="s">
-        <v>321</v>
-      </c>
-      <c r="D82" s="321"/>
-      <c r="E82" s="321"/>
-      <c r="F82" s="321"/>
-      <c r="G82" s="322"/>
+        <v>294</v>
+      </c>
+      <c r="C82" s="351" t="s">
+        <v>318</v>
+      </c>
+      <c r="D82" s="352"/>
+      <c r="E82" s="352"/>
+      <c r="F82" s="352"/>
+      <c r="G82" s="353"/>
       <c r="H82" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="I82" s="209" t="s">
-        <v>45</v>
+      <c r="I82" s="316" t="s">
+        <v>59</v>
       </c>
       <c r="J82" s="12" t="s">
         <v>20</v>
@@ -15931,15 +15941,15 @@
     <row r="83" spans="1:13" ht="16.5" customHeight="1">
       <c r="A83" s="13"/>
       <c r="B83" s="66" t="s">
-        <v>296</v>
-      </c>
-      <c r="C83" s="320" t="s">
-        <v>322</v>
-      </c>
-      <c r="D83" s="321"/>
-      <c r="E83" s="321"/>
-      <c r="F83" s="321"/>
-      <c r="G83" s="322"/>
+        <v>295</v>
+      </c>
+      <c r="C83" s="351" t="s">
+        <v>319</v>
+      </c>
+      <c r="D83" s="352"/>
+      <c r="E83" s="352"/>
+      <c r="F83" s="352"/>
+      <c r="G83" s="353"/>
       <c r="H83" s="12" t="s">
         <v>19</v>
       </c>
@@ -15950,7 +15960,7 @@
         <v>20</v>
       </c>
       <c r="K83" s="209" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="L83" s="74"/>
       <c r="M83" s="88"/>
@@ -15958,11 +15968,11 @@
     <row r="84" spans="1:13" ht="16.5" customHeight="1">
       <c r="A84" s="13"/>
       <c r="B84" s="66"/>
-      <c r="C84" s="323"/>
-      <c r="D84" s="324"/>
-      <c r="E84" s="324"/>
-      <c r="F84" s="324"/>
-      <c r="G84" s="325"/>
+      <c r="C84" s="348"/>
+      <c r="D84" s="349"/>
+      <c r="E84" s="349"/>
+      <c r="F84" s="349"/>
+      <c r="G84" s="350"/>
       <c r="H84" s="12" t="s">
         <v>19</v>
       </c>
@@ -16020,24 +16030,24 @@
         <v>1</v>
       </c>
       <c r="C88" s="204" t="s">
-        <v>323</v>
-      </c>
-      <c r="D88" s="326" t="s">
-        <v>309</v>
-      </c>
-      <c r="E88" s="331"/>
-      <c r="F88" s="331"/>
-      <c r="G88" s="331"/>
-      <c r="H88" s="331"/>
-      <c r="I88" s="332"/>
-      <c r="J88" s="336" t="s">
-        <v>333</v>
-      </c>
-      <c r="K88" s="337"/>
-      <c r="L88" s="326" t="s">
+        <v>320</v>
+      </c>
+      <c r="D88" s="342" t="s">
+        <v>307</v>
+      </c>
+      <c r="E88" s="344"/>
+      <c r="F88" s="344"/>
+      <c r="G88" s="344"/>
+      <c r="H88" s="344"/>
+      <c r="I88" s="345"/>
+      <c r="J88" s="340" t="s">
         <v>330</v>
       </c>
-      <c r="M88" s="334"/>
+      <c r="K88" s="341"/>
+      <c r="L88" s="342" t="s">
+        <v>327</v>
+      </c>
+      <c r="M88" s="343"/>
     </row>
     <row r="89" spans="1:13" ht="16.5" customHeight="1">
       <c r="A89" s="13"/>
@@ -16045,22 +16055,22 @@
         <v>2</v>
       </c>
       <c r="C89" s="204" t="s">
-        <v>325</v>
-      </c>
-      <c r="D89" s="323" t="s">
-        <v>326</v>
-      </c>
-      <c r="E89" s="324"/>
-      <c r="F89" s="324"/>
-      <c r="G89" s="324"/>
-      <c r="H89" s="324"/>
-      <c r="I89" s="325"/>
+        <v>322</v>
+      </c>
+      <c r="D89" s="348" t="s">
+        <v>323</v>
+      </c>
+      <c r="E89" s="349"/>
+      <c r="F89" s="349"/>
+      <c r="G89" s="349"/>
+      <c r="H89" s="349"/>
+      <c r="I89" s="350"/>
       <c r="J89" s="204" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="K89" s="205"/>
       <c r="L89" s="206" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="M89" s="205"/>
     </row>
@@ -16072,18 +16082,18 @@
       <c r="C90" s="204" t="s">
         <v>283</v>
       </c>
-      <c r="D90" s="326" t="s">
-        <v>327</v>
-      </c>
-      <c r="E90" s="331"/>
-      <c r="F90" s="331"/>
-      <c r="G90" s="331"/>
-      <c r="H90" s="331"/>
-      <c r="I90" s="332"/>
-      <c r="J90" s="338"/>
-      <c r="K90" s="339"/>
+      <c r="D90" s="342" t="s">
+        <v>324</v>
+      </c>
+      <c r="E90" s="344"/>
+      <c r="F90" s="344"/>
+      <c r="G90" s="344"/>
+      <c r="H90" s="344"/>
+      <c r="I90" s="345"/>
+      <c r="J90" s="346"/>
+      <c r="K90" s="347"/>
       <c r="L90" s="204" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="M90" s="210"/>
     </row>
@@ -16093,24 +16103,24 @@
         <v>4</v>
       </c>
       <c r="C91" s="204" t="s">
+        <v>325</v>
+      </c>
+      <c r="D91" s="348" t="s">
+        <v>340</v>
+      </c>
+      <c r="E91" s="349"/>
+      <c r="F91" s="349"/>
+      <c r="G91" s="349"/>
+      <c r="H91" s="349"/>
+      <c r="I91" s="350"/>
+      <c r="J91" s="342" t="s">
+        <v>356</v>
+      </c>
+      <c r="K91" s="343"/>
+      <c r="L91" s="342" t="s">
         <v>328</v>
       </c>
-      <c r="D91" s="323" t="s">
-        <v>343</v>
-      </c>
-      <c r="E91" s="324"/>
-      <c r="F91" s="324"/>
-      <c r="G91" s="324"/>
-      <c r="H91" s="324"/>
-      <c r="I91" s="325"/>
-      <c r="J91" s="326" t="s">
-        <v>359</v>
-      </c>
-      <c r="K91" s="334"/>
-      <c r="L91" s="326" t="s">
-        <v>331</v>
-      </c>
-      <c r="M91" s="335"/>
+      <c r="M91" s="355"/>
     </row>
     <row r="92" spans="1:13" ht="16.5" customHeight="1">
       <c r="A92" s="13"/>
@@ -16120,29 +16130,29 @@
       <c r="C92" s="204" t="s">
         <v>284</v>
       </c>
-      <c r="D92" s="323" t="s">
+      <c r="D92" s="348" t="s">
         <v>285</v>
       </c>
-      <c r="E92" s="324"/>
-      <c r="F92" s="324"/>
-      <c r="G92" s="324"/>
-      <c r="H92" s="324"/>
-      <c r="I92" s="325"/>
-      <c r="J92" s="333"/>
-      <c r="K92" s="334"/>
-      <c r="L92" s="326"/>
-      <c r="M92" s="335"/>
+      <c r="E92" s="349"/>
+      <c r="F92" s="349"/>
+      <c r="G92" s="349"/>
+      <c r="H92" s="349"/>
+      <c r="I92" s="350"/>
+      <c r="J92" s="354"/>
+      <c r="K92" s="343"/>
+      <c r="L92" s="342"/>
+      <c r="M92" s="355"/>
     </row>
     <row r="93" spans="1:13" ht="27" customHeight="1">
       <c r="A93" s="13"/>
       <c r="B93" s="80"/>
       <c r="C93" s="204"/>
-      <c r="D93" s="326"/>
-      <c r="E93" s="327"/>
-      <c r="F93" s="327"/>
-      <c r="G93" s="327"/>
-      <c r="H93" s="327"/>
-      <c r="I93" s="328"/>
+      <c r="D93" s="342"/>
+      <c r="E93" s="359"/>
+      <c r="F93" s="359"/>
+      <c r="G93" s="359"/>
+      <c r="H93" s="359"/>
+      <c r="I93" s="358"/>
       <c r="J93" s="204"/>
       <c r="K93" s="205"/>
       <c r="L93" s="206"/>
@@ -16152,72 +16162,72 @@
       <c r="A94" s="13"/>
       <c r="B94" s="80"/>
       <c r="C94" s="204"/>
-      <c r="D94" s="326"/>
-      <c r="E94" s="329"/>
-      <c r="F94" s="329"/>
-      <c r="G94" s="329"/>
-      <c r="H94" s="329"/>
-      <c r="I94" s="330"/>
+      <c r="D94" s="342"/>
+      <c r="E94" s="357"/>
+      <c r="F94" s="357"/>
+      <c r="G94" s="357"/>
+      <c r="H94" s="357"/>
+      <c r="I94" s="356"/>
       <c r="J94" s="204"/>
       <c r="K94" s="205"/>
-      <c r="L94" s="323"/>
-      <c r="M94" s="325"/>
+      <c r="L94" s="348"/>
+      <c r="M94" s="350"/>
     </row>
     <row r="95" spans="1:13" ht="47.25" customHeight="1">
       <c r="A95" s="13"/>
       <c r="B95" s="80"/>
       <c r="C95" s="204"/>
-      <c r="D95" s="326"/>
-      <c r="E95" s="331"/>
-      <c r="F95" s="331"/>
-      <c r="G95" s="331"/>
-      <c r="H95" s="331"/>
-      <c r="I95" s="332"/>
-      <c r="J95" s="333"/>
-      <c r="K95" s="332"/>
-      <c r="L95" s="333"/>
-      <c r="M95" s="332"/>
+      <c r="D95" s="342"/>
+      <c r="E95" s="344"/>
+      <c r="F95" s="344"/>
+      <c r="G95" s="344"/>
+      <c r="H95" s="344"/>
+      <c r="I95" s="345"/>
+      <c r="J95" s="354"/>
+      <c r="K95" s="345"/>
+      <c r="L95" s="354"/>
+      <c r="M95" s="345"/>
     </row>
     <row r="96" spans="1:13" ht="97.5" customHeight="1">
       <c r="A96" s="13"/>
       <c r="B96" s="80"/>
       <c r="C96" s="204"/>
-      <c r="D96" s="326"/>
-      <c r="E96" s="329"/>
-      <c r="F96" s="329"/>
-      <c r="G96" s="329"/>
-      <c r="H96" s="329"/>
-      <c r="I96" s="330"/>
-      <c r="J96" s="333"/>
-      <c r="K96" s="328"/>
-      <c r="L96" s="326"/>
-      <c r="M96" s="335"/>
+      <c r="D96" s="342"/>
+      <c r="E96" s="357"/>
+      <c r="F96" s="357"/>
+      <c r="G96" s="357"/>
+      <c r="H96" s="357"/>
+      <c r="I96" s="356"/>
+      <c r="J96" s="354"/>
+      <c r="K96" s="358"/>
+      <c r="L96" s="342"/>
+      <c r="M96" s="355"/>
     </row>
     <row r="97" spans="1:15" ht="92.25" customHeight="1">
       <c r="A97" s="13"/>
       <c r="B97" s="80"/>
       <c r="C97" s="204"/>
-      <c r="D97" s="326"/>
-      <c r="E97" s="329"/>
-      <c r="F97" s="329"/>
-      <c r="G97" s="329"/>
-      <c r="H97" s="329"/>
-      <c r="I97" s="330"/>
-      <c r="J97" s="333"/>
-      <c r="K97" s="328"/>
-      <c r="L97" s="333"/>
-      <c r="M97" s="328"/>
+      <c r="D97" s="342"/>
+      <c r="E97" s="357"/>
+      <c r="F97" s="357"/>
+      <c r="G97" s="357"/>
+      <c r="H97" s="357"/>
+      <c r="I97" s="356"/>
+      <c r="J97" s="354"/>
+      <c r="K97" s="358"/>
+      <c r="L97" s="354"/>
+      <c r="M97" s="358"/>
     </row>
     <row r="98" spans="1:15" ht="27" customHeight="1">
       <c r="A98" s="13"/>
       <c r="B98" s="80"/>
       <c r="C98" s="204"/>
-      <c r="D98" s="323"/>
-      <c r="E98" s="324"/>
-      <c r="F98" s="324"/>
-      <c r="G98" s="324"/>
-      <c r="H98" s="324"/>
-      <c r="I98" s="325"/>
+      <c r="D98" s="348"/>
+      <c r="E98" s="349"/>
+      <c r="F98" s="349"/>
+      <c r="G98" s="349"/>
+      <c r="H98" s="349"/>
+      <c r="I98" s="350"/>
       <c r="J98" s="204"/>
       <c r="K98" s="210"/>
       <c r="L98" s="204"/>
@@ -16227,12 +16237,12 @@
       <c r="A99" s="13"/>
       <c r="B99" s="80"/>
       <c r="C99" s="204"/>
-      <c r="D99" s="323"/>
-      <c r="E99" s="324"/>
-      <c r="F99" s="324"/>
-      <c r="G99" s="324"/>
-      <c r="H99" s="324"/>
-      <c r="I99" s="325"/>
+      <c r="D99" s="348"/>
+      <c r="E99" s="349"/>
+      <c r="F99" s="349"/>
+      <c r="G99" s="349"/>
+      <c r="H99" s="349"/>
+      <c r="I99" s="350"/>
       <c r="J99" s="204"/>
       <c r="K99" s="210"/>
       <c r="L99" s="204"/>
@@ -16242,16 +16252,16 @@
       <c r="A100" s="13"/>
       <c r="B100" s="80"/>
       <c r="C100" s="206"/>
-      <c r="D100" s="326"/>
-      <c r="E100" s="327"/>
-      <c r="F100" s="327"/>
-      <c r="G100" s="327"/>
-      <c r="H100" s="327"/>
-      <c r="I100" s="328"/>
-      <c r="J100" s="333"/>
-      <c r="K100" s="334"/>
-      <c r="L100" s="326"/>
-      <c r="M100" s="330"/>
+      <c r="D100" s="342"/>
+      <c r="E100" s="359"/>
+      <c r="F100" s="359"/>
+      <c r="G100" s="359"/>
+      <c r="H100" s="359"/>
+      <c r="I100" s="358"/>
+      <c r="J100" s="354"/>
+      <c r="K100" s="343"/>
+      <c r="L100" s="342"/>
+      <c r="M100" s="356"/>
     </row>
     <row r="101" spans="1:15" s="165" customFormat="1" ht="16.5" customHeight="1"/>
     <row r="102" spans="1:15" ht="16.5" customHeight="1">
@@ -16497,13 +16507,13 @@
     <row r="116" spans="1:15" ht="16.5" customHeight="1">
       <c r="A116" s="13"/>
       <c r="B116" s="66"/>
-      <c r="C116" s="320"/>
-      <c r="D116" s="321"/>
-      <c r="E116" s="321"/>
-      <c r="F116" s="321"/>
-      <c r="G116" s="321"/>
-      <c r="H116" s="321"/>
-      <c r="I116" s="322"/>
+      <c r="C116" s="351"/>
+      <c r="D116" s="352"/>
+      <c r="E116" s="352"/>
+      <c r="F116" s="352"/>
+      <c r="G116" s="352"/>
+      <c r="H116" s="352"/>
+      <c r="I116" s="353"/>
       <c r="J116" s="66"/>
       <c r="K116" s="80"/>
       <c r="L116" s="80"/>
@@ -16514,13 +16524,13 @@
     <row r="117" spans="1:15" ht="16.5" customHeight="1">
       <c r="A117" s="13"/>
       <c r="B117" s="66"/>
-      <c r="C117" s="320"/>
-      <c r="D117" s="321"/>
-      <c r="E117" s="321"/>
-      <c r="F117" s="321"/>
-      <c r="G117" s="321"/>
-      <c r="H117" s="321"/>
-      <c r="I117" s="322"/>
+      <c r="C117" s="351"/>
+      <c r="D117" s="352"/>
+      <c r="E117" s="352"/>
+      <c r="F117" s="352"/>
+      <c r="G117" s="352"/>
+      <c r="H117" s="352"/>
+      <c r="I117" s="353"/>
       <c r="J117" s="66"/>
       <c r="K117" s="80"/>
       <c r="L117" s="80"/>
@@ -16940,43 +16950,6 @@
     </row>
   </sheetData>
   <mergeCells count="52">
-    <mergeCell ref="E49:F49"/>
-    <mergeCell ref="E50:F50"/>
-    <mergeCell ref="C64:M64"/>
-    <mergeCell ref="I57:J58"/>
-    <mergeCell ref="A1:A5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="J88:K88"/>
-    <mergeCell ref="L88:M88"/>
-    <mergeCell ref="D90:I90"/>
-    <mergeCell ref="J90:K90"/>
-    <mergeCell ref="C80:G80"/>
-    <mergeCell ref="C81:G81"/>
-    <mergeCell ref="C82:G82"/>
-    <mergeCell ref="C83:G83"/>
-    <mergeCell ref="L94:M94"/>
-    <mergeCell ref="D95:I95"/>
-    <mergeCell ref="J95:K95"/>
-    <mergeCell ref="L95:M95"/>
-    <mergeCell ref="D91:I91"/>
-    <mergeCell ref="J91:K91"/>
-    <mergeCell ref="L91:M91"/>
-    <mergeCell ref="D92:I92"/>
-    <mergeCell ref="J92:K92"/>
-    <mergeCell ref="L92:M92"/>
-    <mergeCell ref="J100:K100"/>
-    <mergeCell ref="L100:M100"/>
-    <mergeCell ref="C116:I116"/>
-    <mergeCell ref="D96:I96"/>
-    <mergeCell ref="J96:K96"/>
-    <mergeCell ref="L96:M96"/>
-    <mergeCell ref="D97:I97"/>
-    <mergeCell ref="J97:K97"/>
-    <mergeCell ref="L97:M97"/>
     <mergeCell ref="C117:I117"/>
     <mergeCell ref="C77:G77"/>
     <mergeCell ref="C74:G74"/>
@@ -16992,6 +16965,43 @@
     <mergeCell ref="D93:I93"/>
     <mergeCell ref="D94:I94"/>
     <mergeCell ref="D88:I88"/>
+    <mergeCell ref="J100:K100"/>
+    <mergeCell ref="L100:M100"/>
+    <mergeCell ref="C116:I116"/>
+    <mergeCell ref="D96:I96"/>
+    <mergeCell ref="J96:K96"/>
+    <mergeCell ref="L96:M96"/>
+    <mergeCell ref="D97:I97"/>
+    <mergeCell ref="J97:K97"/>
+    <mergeCell ref="L97:M97"/>
+    <mergeCell ref="L94:M94"/>
+    <mergeCell ref="D95:I95"/>
+    <mergeCell ref="J95:K95"/>
+    <mergeCell ref="L95:M95"/>
+    <mergeCell ref="D91:I91"/>
+    <mergeCell ref="J91:K91"/>
+    <mergeCell ref="L91:M91"/>
+    <mergeCell ref="D92:I92"/>
+    <mergeCell ref="J92:K92"/>
+    <mergeCell ref="L92:M92"/>
+    <mergeCell ref="J88:K88"/>
+    <mergeCell ref="L88:M88"/>
+    <mergeCell ref="D90:I90"/>
+    <mergeCell ref="J90:K90"/>
+    <mergeCell ref="C80:G80"/>
+    <mergeCell ref="C81:G81"/>
+    <mergeCell ref="C82:G82"/>
+    <mergeCell ref="C83:G83"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="C64:M64"/>
+    <mergeCell ref="I57:J58"/>
+    <mergeCell ref="A1:A5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E17:F17"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="1">
@@ -17854,7 +17864,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="2" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A1" s="316" t="s">
+      <c r="A1" s="318" t="s">
         <v>132</v>
       </c>
       <c r="B1" s="1"/>
@@ -17865,7 +17875,7 @@
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:16" s="2" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A2" s="317"/>
+      <c r="A2" s="319"/>
       <c r="B2" s="3" t="s">
         <v>15</v>
       </c>
@@ -17876,18 +17886,18 @@
       <c r="G2" s="4"/>
     </row>
     <row r="3" spans="1:16" s="6" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A3" s="317"/>
+      <c r="A3" s="319"/>
       <c r="G3" s="81"/>
     </row>
     <row r="4" spans="1:16" s="6" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A4" s="317"/>
+      <c r="A4" s="319"/>
       <c r="B4" s="7" t="s">
         <v>16</v>
       </c>
       <c r="G4" s="81"/>
     </row>
     <row r="5" spans="1:16" s="10" customFormat="1" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A5" s="318"/>
+      <c r="A5" s="320"/>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
@@ -17902,20 +17912,20 @@
       <c r="B6" s="95" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="350" t="s">
-        <v>344</v>
-      </c>
-      <c r="D6" s="351"/>
-      <c r="E6" s="352" t="s">
-        <v>334</v>
-      </c>
-      <c r="F6" s="353"/>
-      <c r="G6" s="354"/>
+      <c r="C6" s="332" t="s">
+        <v>341</v>
+      </c>
+      <c r="D6" s="333"/>
+      <c r="E6" s="334" t="s">
+        <v>331</v>
+      </c>
+      <c r="F6" s="335"/>
+      <c r="G6" s="336"/>
       <c r="H6" s="82" t="s">
         <v>14</v>
       </c>
       <c r="I6" s="139" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="J6" s="138"/>
       <c r="K6" s="82" t="s">
@@ -17959,10 +17969,10 @@
       <c r="B9" s="83"/>
       <c r="C9" s="146"/>
       <c r="D9" s="16"/>
-      <c r="E9" s="361" t="s">
-        <v>335</v>
-      </c>
-      <c r="F9" s="361"/>
+      <c r="E9" s="360" t="s">
+        <v>332</v>
+      </c>
+      <c r="F9" s="360"/>
       <c r="G9" s="16"/>
       <c r="H9" s="16"/>
       <c r="I9" s="16"/>
@@ -17976,8 +17986,8 @@
       <c r="B10" s="83"/>
       <c r="C10" s="212"/>
       <c r="D10" s="212"/>
-      <c r="E10" s="361"/>
-      <c r="F10" s="361"/>
+      <c r="E10" s="360"/>
+      <c r="F10" s="360"/>
       <c r="G10" s="212"/>
       <c r="H10" s="212"/>
       <c r="I10" s="212"/>
@@ -17992,8 +18002,8 @@
       <c r="B11" s="83"/>
       <c r="C11" s="149"/>
       <c r="D11" s="212"/>
-      <c r="E11" s="356"/>
-      <c r="F11" s="356"/>
+      <c r="E11" s="338"/>
+      <c r="F11" s="338"/>
       <c r="G11" s="150"/>
       <c r="H11" s="150"/>
       <c r="I11" s="151"/>
@@ -18010,8 +18020,8 @@
       <c r="B12" s="83"/>
       <c r="C12" s="149"/>
       <c r="D12" s="212"/>
-      <c r="E12" s="357"/>
-      <c r="F12" s="357"/>
+      <c r="E12" s="339"/>
+      <c r="F12" s="339"/>
       <c r="G12" s="230"/>
       <c r="H12" s="230"/>
       <c r="I12" s="231"/>
@@ -18191,7 +18201,7 @@
       <c r="C22" s="149"/>
       <c r="D22" s="212"/>
       <c r="E22" s="212" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F22" s="211"/>
       <c r="G22" s="150"/>
@@ -18250,7 +18260,7 @@
       <c r="C25" s="149"/>
       <c r="D25" s="212"/>
       <c r="E25" s="212" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F25" s="211"/>
       <c r="G25" s="150"/>
@@ -18270,7 +18280,7 @@
       <c r="C26" s="149"/>
       <c r="D26" s="235"/>
       <c r="E26" s="237" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="F26" s="211"/>
       <c r="G26" s="150"/>
@@ -18326,7 +18336,7 @@
       <c r="C29" s="149"/>
       <c r="D29" s="212"/>
       <c r="E29" s="236" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F29" s="211"/>
       <c r="G29" s="150"/>
@@ -18382,7 +18392,7 @@
       <c r="C32" s="149"/>
       <c r="D32" s="212"/>
       <c r="E32" s="236" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F32" s="211"/>
       <c r="G32" s="150"/>
@@ -18437,8 +18447,8 @@
       <c r="B35" s="83"/>
       <c r="C35" s="149"/>
       <c r="D35" s="212"/>
-      <c r="E35" s="236" t="s">
-        <v>311</v>
+      <c r="E35" s="317" t="s">
+        <v>398</v>
       </c>
       <c r="F35" s="211"/>
       <c r="G35" s="150"/>
@@ -18493,8 +18503,8 @@
       <c r="B38" s="83"/>
       <c r="C38" s="149"/>
       <c r="D38" s="212"/>
-      <c r="E38" s="236" t="s">
-        <v>293</v>
+      <c r="E38" s="317" t="s">
+        <v>399</v>
       </c>
       <c r="F38" s="238"/>
       <c r="G38" s="150"/>
@@ -18549,8 +18559,8 @@
       <c r="B41" s="83"/>
       <c r="C41" s="149"/>
       <c r="D41" s="212"/>
-      <c r="E41" s="236" t="s">
-        <v>307</v>
+      <c r="E41" s="317" t="s">
+        <v>400</v>
       </c>
       <c r="F41" s="238"/>
       <c r="G41" s="150"/>
@@ -18605,10 +18615,10 @@
       <c r="B44" s="83"/>
       <c r="C44" s="149"/>
       <c r="D44" s="212"/>
-      <c r="E44" s="340" t="s">
-        <v>295</v>
-      </c>
-      <c r="F44" s="341"/>
+      <c r="E44" s="322" t="s">
+        <v>401</v>
+      </c>
+      <c r="F44" s="323"/>
       <c r="G44" s="150"/>
       <c r="H44" s="150"/>
       <c r="I44" s="151"/>
@@ -18625,8 +18635,8 @@
       <c r="B45" s="83"/>
       <c r="C45" s="150"/>
       <c r="D45" s="150"/>
-      <c r="E45" s="342"/>
-      <c r="F45" s="343"/>
+      <c r="E45" s="324"/>
+      <c r="F45" s="325"/>
       <c r="G45" s="244"/>
       <c r="H45" s="227"/>
       <c r="I45" s="151"/>
@@ -18657,7 +18667,7 @@
       <c r="C47" s="146"/>
       <c r="D47" s="16"/>
       <c r="E47" s="241" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F47" s="241"/>
       <c r="G47" s="16"/>
@@ -18733,16 +18743,16 @@
       <c r="B52" s="83"/>
       <c r="C52" s="16"/>
       <c r="D52" s="16"/>
-      <c r="E52" s="346" t="s">
-        <v>335</v>
-      </c>
-      <c r="F52" s="362"/>
-      <c r="G52" s="347"/>
+      <c r="E52" s="328" t="s">
+        <v>332</v>
+      </c>
+      <c r="F52" s="361"/>
+      <c r="G52" s="329"/>
       <c r="H52" s="22"/>
-      <c r="I52" s="346" t="s">
+      <c r="I52" s="328" t="s">
         <v>284</v>
       </c>
-      <c r="J52" s="347"/>
+      <c r="J52" s="329"/>
       <c r="K52" s="16"/>
       <c r="L52" s="16"/>
       <c r="M52" s="144"/>
@@ -18752,12 +18762,12 @@
       <c r="B53" s="83"/>
       <c r="C53" s="16"/>
       <c r="D53" s="16"/>
-      <c r="E53" s="348"/>
-      <c r="F53" s="363"/>
-      <c r="G53" s="349"/>
+      <c r="E53" s="330"/>
+      <c r="F53" s="362"/>
+      <c r="G53" s="331"/>
       <c r="H53" s="22"/>
-      <c r="I53" s="348"/>
-      <c r="J53" s="349"/>
+      <c r="I53" s="330"/>
+      <c r="J53" s="331"/>
       <c r="K53" s="16"/>
       <c r="L53" s="16"/>
       <c r="M53" s="144"/>
@@ -18844,17 +18854,17 @@
       <c r="B59" s="164" t="s">
         <v>43</v>
       </c>
-      <c r="C59" s="344"/>
-      <c r="D59" s="345"/>
-      <c r="E59" s="345"/>
-      <c r="F59" s="345"/>
-      <c r="G59" s="345"/>
-      <c r="H59" s="345"/>
-      <c r="I59" s="345"/>
-      <c r="J59" s="345"/>
-      <c r="K59" s="345"/>
-      <c r="L59" s="345"/>
-      <c r="M59" s="345"/>
+      <c r="C59" s="326"/>
+      <c r="D59" s="327"/>
+      <c r="E59" s="327"/>
+      <c r="F59" s="327"/>
+      <c r="G59" s="327"/>
+      <c r="H59" s="327"/>
+      <c r="I59" s="327"/>
+      <c r="J59" s="327"/>
+      <c r="K59" s="327"/>
+      <c r="L59" s="327"/>
+      <c r="M59" s="327"/>
     </row>
     <row r="60" spans="1:15" ht="16.5" customHeight="1">
       <c r="A60" s="13"/>
@@ -18862,7 +18872,7 @@
         <v>27</v>
       </c>
       <c r="C60" s="213" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="D60" s="202"/>
       <c r="E60" s="202"/>
@@ -18878,10 +18888,10 @@
     <row r="61" spans="1:15" ht="16.5" customHeight="1">
       <c r="A61" s="13"/>
       <c r="B61" s="66" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="C61" s="213" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="D61" s="202"/>
       <c r="E61" s="202"/>
@@ -18990,15 +19000,15 @@
     </row>
     <row r="69" spans="1:13" s="250" customFormat="1" ht="16.5" customHeight="1">
       <c r="B69" s="168" t="s">
-        <v>312</v>
-      </c>
-      <c r="C69" s="323" t="s">
-        <v>313</v>
-      </c>
-      <c r="D69" s="324"/>
-      <c r="E69" s="324"/>
-      <c r="F69" s="324"/>
-      <c r="G69" s="325"/>
+        <v>309</v>
+      </c>
+      <c r="C69" s="348" t="s">
+        <v>310</v>
+      </c>
+      <c r="D69" s="349"/>
+      <c r="E69" s="349"/>
+      <c r="F69" s="349"/>
+      <c r="G69" s="350"/>
       <c r="H69" s="251" t="s">
         <v>19</v>
       </c>
@@ -19016,20 +19026,20 @@
     </row>
     <row r="70" spans="1:13" s="250" customFormat="1" ht="16.5" customHeight="1">
       <c r="B70" s="256" t="s">
-        <v>305</v>
-      </c>
-      <c r="C70" s="358" t="s">
-        <v>341</v>
-      </c>
-      <c r="D70" s="359"/>
-      <c r="E70" s="359"/>
-      <c r="F70" s="359"/>
-      <c r="G70" s="360"/>
+        <v>304</v>
+      </c>
+      <c r="C70" s="363" t="s">
+        <v>338</v>
+      </c>
+      <c r="D70" s="364"/>
+      <c r="E70" s="364"/>
+      <c r="F70" s="364"/>
+      <c r="G70" s="365"/>
       <c r="H70" s="257" t="s">
         <v>19</v>
       </c>
       <c r="I70" s="258" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="J70" s="257" t="s">
         <v>20</v>
@@ -19045,13 +19055,13 @@
       <c r="B71" s="66" t="s">
         <v>289</v>
       </c>
-      <c r="C71" s="323" t="s">
-        <v>315</v>
-      </c>
-      <c r="D71" s="324"/>
-      <c r="E71" s="324"/>
-      <c r="F71" s="324"/>
-      <c r="G71" s="325"/>
+      <c r="C71" s="348" t="s">
+        <v>312</v>
+      </c>
+      <c r="D71" s="349"/>
+      <c r="E71" s="349"/>
+      <c r="F71" s="349"/>
+      <c r="G71" s="350"/>
       <c r="H71" s="12" t="s">
         <v>19</v>
       </c>
@@ -19071,13 +19081,13 @@
       <c r="B72" s="168" t="s">
         <v>290</v>
       </c>
-      <c r="C72" s="323" t="s">
-        <v>316</v>
-      </c>
-      <c r="D72" s="324"/>
-      <c r="E72" s="324"/>
-      <c r="F72" s="324"/>
-      <c r="G72" s="325"/>
+      <c r="C72" s="348" t="s">
+        <v>313</v>
+      </c>
+      <c r="D72" s="349"/>
+      <c r="E72" s="349"/>
+      <c r="F72" s="349"/>
+      <c r="G72" s="350"/>
       <c r="H72" s="12" t="s">
         <v>19</v>
       </c>
@@ -19096,15 +19106,15 @@
     <row r="73" spans="1:13" ht="33.75" customHeight="1">
       <c r="A73" s="13"/>
       <c r="B73" s="66" t="s">
-        <v>306</v>
-      </c>
-      <c r="C73" s="323" t="s">
-        <v>317</v>
-      </c>
-      <c r="D73" s="324"/>
-      <c r="E73" s="324"/>
-      <c r="F73" s="324"/>
-      <c r="G73" s="325"/>
+        <v>305</v>
+      </c>
+      <c r="C73" s="348" t="s">
+        <v>314</v>
+      </c>
+      <c r="D73" s="349"/>
+      <c r="E73" s="349"/>
+      <c r="F73" s="349"/>
+      <c r="G73" s="350"/>
       <c r="H73" s="12" t="s">
         <v>19</v>
       </c>
@@ -19125,18 +19135,18 @@
       <c r="B74" s="66" t="s">
         <v>291</v>
       </c>
-      <c r="C74" s="323" t="s">
-        <v>318</v>
-      </c>
-      <c r="D74" s="324"/>
-      <c r="E74" s="324"/>
-      <c r="F74" s="324"/>
-      <c r="G74" s="325"/>
+      <c r="C74" s="348" t="s">
+        <v>315</v>
+      </c>
+      <c r="D74" s="349"/>
+      <c r="E74" s="349"/>
+      <c r="F74" s="349"/>
+      <c r="G74" s="350"/>
       <c r="H74" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="I74" s="209" t="s">
-        <v>45</v>
+      <c r="I74" s="316" t="s">
+        <v>59</v>
       </c>
       <c r="J74" s="12" t="s">
         <v>20</v>
@@ -19152,18 +19162,18 @@
       <c r="B75" s="66" t="s">
         <v>292</v>
       </c>
-      <c r="C75" s="323" t="s">
-        <v>319</v>
-      </c>
-      <c r="D75" s="324"/>
-      <c r="E75" s="324"/>
-      <c r="F75" s="324"/>
-      <c r="G75" s="325"/>
+      <c r="C75" s="348" t="s">
+        <v>316</v>
+      </c>
+      <c r="D75" s="349"/>
+      <c r="E75" s="349"/>
+      <c r="F75" s="349"/>
+      <c r="G75" s="350"/>
       <c r="H75" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="I75" s="209" t="s">
-        <v>45</v>
+      <c r="I75" s="316" t="s">
+        <v>59</v>
       </c>
       <c r="J75" s="12" t="s">
         <v>20</v>
@@ -19177,20 +19187,20 @@
     <row r="76" spans="1:13" ht="33.75" customHeight="1">
       <c r="A76" s="13"/>
       <c r="B76" s="66" t="s">
-        <v>294</v>
-      </c>
-      <c r="C76" s="323" t="s">
-        <v>320</v>
-      </c>
-      <c r="D76" s="324"/>
-      <c r="E76" s="324"/>
-      <c r="F76" s="324"/>
-      <c r="G76" s="325"/>
+        <v>293</v>
+      </c>
+      <c r="C76" s="348" t="s">
+        <v>317</v>
+      </c>
+      <c r="D76" s="349"/>
+      <c r="E76" s="349"/>
+      <c r="F76" s="349"/>
+      <c r="G76" s="350"/>
       <c r="H76" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="I76" s="221" t="s">
-        <v>45</v>
+      <c r="I76" s="316" t="s">
+        <v>59</v>
       </c>
       <c r="J76" s="12" t="s">
         <v>20</v>
@@ -19204,20 +19214,20 @@
     <row r="77" spans="1:13" ht="16.5" customHeight="1">
       <c r="A77" s="13"/>
       <c r="B77" s="66" t="s">
-        <v>295</v>
-      </c>
-      <c r="C77" s="320" t="s">
-        <v>321</v>
-      </c>
-      <c r="D77" s="321"/>
-      <c r="E77" s="321"/>
-      <c r="F77" s="321"/>
-      <c r="G77" s="322"/>
+        <v>294</v>
+      </c>
+      <c r="C77" s="351" t="s">
+        <v>318</v>
+      </c>
+      <c r="D77" s="352"/>
+      <c r="E77" s="352"/>
+      <c r="F77" s="352"/>
+      <c r="G77" s="353"/>
       <c r="H77" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="I77" s="209" t="s">
-        <v>45</v>
+      <c r="I77" s="316" t="s">
+        <v>59</v>
       </c>
       <c r="J77" s="12" t="s">
         <v>20</v>
@@ -19231,15 +19241,15 @@
     <row r="78" spans="1:13" ht="16.5" customHeight="1">
       <c r="A78" s="13"/>
       <c r="B78" s="66" t="s">
-        <v>296</v>
-      </c>
-      <c r="C78" s="320" t="s">
-        <v>322</v>
-      </c>
-      <c r="D78" s="321"/>
-      <c r="E78" s="321"/>
-      <c r="F78" s="321"/>
-      <c r="G78" s="322"/>
+        <v>295</v>
+      </c>
+      <c r="C78" s="351" t="s">
+        <v>319</v>
+      </c>
+      <c r="D78" s="352"/>
+      <c r="E78" s="352"/>
+      <c r="F78" s="352"/>
+      <c r="G78" s="353"/>
       <c r="H78" s="12" t="s">
         <v>19</v>
       </c>
@@ -19250,7 +19260,7 @@
         <v>20</v>
       </c>
       <c r="K78" s="209" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="L78" s="74"/>
       <c r="M78" s="88"/>
@@ -19258,11 +19268,11 @@
     <row r="79" spans="1:13" ht="16.5" customHeight="1">
       <c r="A79" s="13"/>
       <c r="B79" s="66"/>
-      <c r="C79" s="323"/>
-      <c r="D79" s="324"/>
-      <c r="E79" s="324"/>
-      <c r="F79" s="324"/>
-      <c r="G79" s="325"/>
+      <c r="C79" s="348"/>
+      <c r="D79" s="349"/>
+      <c r="E79" s="349"/>
+      <c r="F79" s="349"/>
+      <c r="G79" s="350"/>
       <c r="H79" s="12" t="s">
         <v>19</v>
       </c>
@@ -19320,22 +19330,22 @@
         <v>1</v>
       </c>
       <c r="C83" s="204" t="s">
-        <v>325</v>
-      </c>
-      <c r="D83" s="323" t="s">
-        <v>326</v>
-      </c>
-      <c r="E83" s="324"/>
-      <c r="F83" s="324"/>
-      <c r="G83" s="324"/>
-      <c r="H83" s="324"/>
-      <c r="I83" s="325"/>
+        <v>322</v>
+      </c>
+      <c r="D83" s="348" t="s">
+        <v>323</v>
+      </c>
+      <c r="E83" s="349"/>
+      <c r="F83" s="349"/>
+      <c r="G83" s="349"/>
+      <c r="H83" s="349"/>
+      <c r="I83" s="350"/>
       <c r="J83" s="204" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="K83" s="205"/>
       <c r="L83" s="206" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="M83" s="205"/>
     </row>
@@ -19345,24 +19355,24 @@
         <v>2</v>
       </c>
       <c r="C84" s="216" t="s">
-        <v>338</v>
-      </c>
-      <c r="D84" s="323" t="s">
+        <v>335</v>
+      </c>
+      <c r="D84" s="348" t="s">
+        <v>339</v>
+      </c>
+      <c r="E84" s="349"/>
+      <c r="F84" s="349"/>
+      <c r="G84" s="349"/>
+      <c r="H84" s="349"/>
+      <c r="I84" s="350"/>
+      <c r="J84" s="342" t="s">
+        <v>357</v>
+      </c>
+      <c r="K84" s="343"/>
+      <c r="L84" s="342" t="s">
         <v>342</v>
       </c>
-      <c r="E84" s="324"/>
-      <c r="F84" s="324"/>
-      <c r="G84" s="324"/>
-      <c r="H84" s="324"/>
-      <c r="I84" s="325"/>
-      <c r="J84" s="326" t="s">
-        <v>360</v>
-      </c>
-      <c r="K84" s="334"/>
-      <c r="L84" s="326" t="s">
-        <v>345</v>
-      </c>
-      <c r="M84" s="335"/>
+      <c r="M84" s="355"/>
     </row>
     <row r="85" spans="1:15" ht="16.5" customHeight="1">
       <c r="A85" s="13"/>
@@ -19372,29 +19382,29 @@
       <c r="C85" s="204" t="s">
         <v>284</v>
       </c>
-      <c r="D85" s="323" t="s">
-        <v>339</v>
-      </c>
-      <c r="E85" s="324"/>
-      <c r="F85" s="324"/>
-      <c r="G85" s="324"/>
-      <c r="H85" s="324"/>
-      <c r="I85" s="325"/>
-      <c r="J85" s="333"/>
-      <c r="K85" s="334"/>
-      <c r="L85" s="326"/>
-      <c r="M85" s="335"/>
+      <c r="D85" s="348" t="s">
+        <v>336</v>
+      </c>
+      <c r="E85" s="349"/>
+      <c r="F85" s="349"/>
+      <c r="G85" s="349"/>
+      <c r="H85" s="349"/>
+      <c r="I85" s="350"/>
+      <c r="J85" s="354"/>
+      <c r="K85" s="343"/>
+      <c r="L85" s="342"/>
+      <c r="M85" s="355"/>
     </row>
     <row r="86" spans="1:15" ht="27" customHeight="1">
       <c r="A86" s="13"/>
       <c r="B86" s="80"/>
       <c r="C86" s="204"/>
-      <c r="D86" s="326"/>
-      <c r="E86" s="327"/>
-      <c r="F86" s="327"/>
-      <c r="G86" s="327"/>
-      <c r="H86" s="327"/>
-      <c r="I86" s="328"/>
+      <c r="D86" s="342"/>
+      <c r="E86" s="359"/>
+      <c r="F86" s="359"/>
+      <c r="G86" s="359"/>
+      <c r="H86" s="359"/>
+      <c r="I86" s="358"/>
       <c r="J86" s="204"/>
       <c r="K86" s="205"/>
       <c r="L86" s="206"/>
@@ -19404,72 +19414,72 @@
       <c r="A87" s="13"/>
       <c r="B87" s="80"/>
       <c r="C87" s="204"/>
-      <c r="D87" s="326"/>
-      <c r="E87" s="329"/>
-      <c r="F87" s="329"/>
-      <c r="G87" s="329"/>
-      <c r="H87" s="329"/>
-      <c r="I87" s="330"/>
+      <c r="D87" s="342"/>
+      <c r="E87" s="357"/>
+      <c r="F87" s="357"/>
+      <c r="G87" s="357"/>
+      <c r="H87" s="357"/>
+      <c r="I87" s="356"/>
       <c r="J87" s="204"/>
       <c r="K87" s="205"/>
-      <c r="L87" s="323"/>
-      <c r="M87" s="325"/>
+      <c r="L87" s="348"/>
+      <c r="M87" s="350"/>
     </row>
     <row r="88" spans="1:15" ht="47.25" customHeight="1">
       <c r="A88" s="13"/>
       <c r="B88" s="80"/>
       <c r="C88" s="204"/>
-      <c r="D88" s="326"/>
-      <c r="E88" s="331"/>
-      <c r="F88" s="331"/>
-      <c r="G88" s="331"/>
-      <c r="H88" s="331"/>
-      <c r="I88" s="332"/>
-      <c r="J88" s="333"/>
-      <c r="K88" s="332"/>
-      <c r="L88" s="333"/>
-      <c r="M88" s="332"/>
+      <c r="D88" s="342"/>
+      <c r="E88" s="344"/>
+      <c r="F88" s="344"/>
+      <c r="G88" s="344"/>
+      <c r="H88" s="344"/>
+      <c r="I88" s="345"/>
+      <c r="J88" s="354"/>
+      <c r="K88" s="345"/>
+      <c r="L88" s="354"/>
+      <c r="M88" s="345"/>
     </row>
     <row r="89" spans="1:15" ht="97.5" customHeight="1">
       <c r="A89" s="13"/>
       <c r="B89" s="80"/>
       <c r="C89" s="204"/>
-      <c r="D89" s="326"/>
-      <c r="E89" s="329"/>
-      <c r="F89" s="329"/>
-      <c r="G89" s="329"/>
-      <c r="H89" s="329"/>
-      <c r="I89" s="330"/>
-      <c r="J89" s="333"/>
-      <c r="K89" s="328"/>
-      <c r="L89" s="326"/>
-      <c r="M89" s="335"/>
+      <c r="D89" s="342"/>
+      <c r="E89" s="357"/>
+      <c r="F89" s="357"/>
+      <c r="G89" s="357"/>
+      <c r="H89" s="357"/>
+      <c r="I89" s="356"/>
+      <c r="J89" s="354"/>
+      <c r="K89" s="358"/>
+      <c r="L89" s="342"/>
+      <c r="M89" s="355"/>
     </row>
     <row r="90" spans="1:15" ht="92.25" customHeight="1">
       <c r="A90" s="13"/>
       <c r="B90" s="80"/>
       <c r="C90" s="204"/>
-      <c r="D90" s="326"/>
-      <c r="E90" s="329"/>
-      <c r="F90" s="329"/>
-      <c r="G90" s="329"/>
-      <c r="H90" s="329"/>
-      <c r="I90" s="330"/>
-      <c r="J90" s="333"/>
-      <c r="K90" s="328"/>
-      <c r="L90" s="333"/>
-      <c r="M90" s="328"/>
+      <c r="D90" s="342"/>
+      <c r="E90" s="357"/>
+      <c r="F90" s="357"/>
+      <c r="G90" s="357"/>
+      <c r="H90" s="357"/>
+      <c r="I90" s="356"/>
+      <c r="J90" s="354"/>
+      <c r="K90" s="358"/>
+      <c r="L90" s="354"/>
+      <c r="M90" s="358"/>
     </row>
     <row r="91" spans="1:15" ht="27" customHeight="1">
       <c r="A91" s="13"/>
       <c r="B91" s="80"/>
       <c r="C91" s="204"/>
-      <c r="D91" s="323"/>
-      <c r="E91" s="324"/>
-      <c r="F91" s="324"/>
-      <c r="G91" s="324"/>
-      <c r="H91" s="324"/>
-      <c r="I91" s="325"/>
+      <c r="D91" s="348"/>
+      <c r="E91" s="349"/>
+      <c r="F91" s="349"/>
+      <c r="G91" s="349"/>
+      <c r="H91" s="349"/>
+      <c r="I91" s="350"/>
       <c r="J91" s="204"/>
       <c r="K91" s="210"/>
       <c r="L91" s="204"/>
@@ -19479,12 +19489,12 @@
       <c r="A92" s="13"/>
       <c r="B92" s="80"/>
       <c r="C92" s="204"/>
-      <c r="D92" s="323"/>
-      <c r="E92" s="324"/>
-      <c r="F92" s="324"/>
-      <c r="G92" s="324"/>
-      <c r="H92" s="324"/>
-      <c r="I92" s="325"/>
+      <c r="D92" s="348"/>
+      <c r="E92" s="349"/>
+      <c r="F92" s="349"/>
+      <c r="G92" s="349"/>
+      <c r="H92" s="349"/>
+      <c r="I92" s="350"/>
       <c r="J92" s="204"/>
       <c r="K92" s="210"/>
       <c r="L92" s="204"/>
@@ -19494,16 +19504,16 @@
       <c r="A93" s="13"/>
       <c r="B93" s="80"/>
       <c r="C93" s="206"/>
-      <c r="D93" s="326"/>
-      <c r="E93" s="327"/>
-      <c r="F93" s="327"/>
-      <c r="G93" s="327"/>
-      <c r="H93" s="327"/>
-      <c r="I93" s="328"/>
-      <c r="J93" s="333"/>
-      <c r="K93" s="334"/>
-      <c r="L93" s="326"/>
-      <c r="M93" s="330"/>
+      <c r="D93" s="342"/>
+      <c r="E93" s="359"/>
+      <c r="F93" s="359"/>
+      <c r="G93" s="359"/>
+      <c r="H93" s="359"/>
+      <c r="I93" s="358"/>
+      <c r="J93" s="354"/>
+      <c r="K93" s="343"/>
+      <c r="L93" s="342"/>
+      <c r="M93" s="356"/>
     </row>
     <row r="94" spans="1:15" s="165" customFormat="1" ht="16.5" customHeight="1"/>
     <row r="95" spans="1:15" ht="16.5" customHeight="1">
@@ -19749,13 +19759,13 @@
     <row r="109" spans="1:15" ht="16.5" customHeight="1">
       <c r="A109" s="13"/>
       <c r="B109" s="66"/>
-      <c r="C109" s="320"/>
-      <c r="D109" s="321"/>
-      <c r="E109" s="321"/>
-      <c r="F109" s="321"/>
-      <c r="G109" s="321"/>
-      <c r="H109" s="321"/>
-      <c r="I109" s="322"/>
+      <c r="C109" s="351"/>
+      <c r="D109" s="352"/>
+      <c r="E109" s="352"/>
+      <c r="F109" s="352"/>
+      <c r="G109" s="352"/>
+      <c r="H109" s="352"/>
+      <c r="I109" s="353"/>
       <c r="J109" s="66"/>
       <c r="K109" s="80"/>
       <c r="L109" s="80"/>
@@ -19766,13 +19776,13 @@
     <row r="110" spans="1:15" ht="16.5" customHeight="1">
       <c r="A110" s="13"/>
       <c r="B110" s="66"/>
-      <c r="C110" s="320"/>
-      <c r="D110" s="321"/>
-      <c r="E110" s="321"/>
-      <c r="F110" s="321"/>
-      <c r="G110" s="321"/>
-      <c r="H110" s="321"/>
-      <c r="I110" s="322"/>
+      <c r="C110" s="351"/>
+      <c r="D110" s="352"/>
+      <c r="E110" s="352"/>
+      <c r="F110" s="352"/>
+      <c r="G110" s="352"/>
+      <c r="H110" s="352"/>
+      <c r="I110" s="353"/>
       <c r="J110" s="66"/>
       <c r="K110" s="80"/>
       <c r="L110" s="80"/>
@@ -20192,13 +20202,35 @@
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E9:F10"/>
-    <mergeCell ref="E52:G53"/>
-    <mergeCell ref="A1:A5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="C109:I109"/>
+    <mergeCell ref="C110:I110"/>
+    <mergeCell ref="D90:I90"/>
+    <mergeCell ref="J90:K90"/>
+    <mergeCell ref="L90:M90"/>
+    <mergeCell ref="D91:I91"/>
+    <mergeCell ref="D92:I92"/>
+    <mergeCell ref="D93:I93"/>
+    <mergeCell ref="J93:K93"/>
+    <mergeCell ref="L93:M93"/>
+    <mergeCell ref="D88:I88"/>
+    <mergeCell ref="J88:K88"/>
+    <mergeCell ref="L88:M88"/>
+    <mergeCell ref="D89:I89"/>
+    <mergeCell ref="J89:K89"/>
+    <mergeCell ref="L89:M89"/>
+    <mergeCell ref="D85:I85"/>
+    <mergeCell ref="J85:K85"/>
+    <mergeCell ref="L85:M85"/>
+    <mergeCell ref="D86:I86"/>
+    <mergeCell ref="D87:I87"/>
+    <mergeCell ref="L87:M87"/>
+    <mergeCell ref="L84:M84"/>
+    <mergeCell ref="C77:G77"/>
+    <mergeCell ref="C78:G78"/>
+    <mergeCell ref="C79:G79"/>
+    <mergeCell ref="D83:I83"/>
+    <mergeCell ref="D84:I84"/>
+    <mergeCell ref="J84:K84"/>
     <mergeCell ref="C76:G76"/>
     <mergeCell ref="E44:F44"/>
     <mergeCell ref="E45:F45"/>
@@ -20211,35 +20243,13 @@
     <mergeCell ref="C73:G73"/>
     <mergeCell ref="C74:G74"/>
     <mergeCell ref="C75:G75"/>
-    <mergeCell ref="L84:M84"/>
-    <mergeCell ref="C77:G77"/>
-    <mergeCell ref="C78:G78"/>
-    <mergeCell ref="C79:G79"/>
-    <mergeCell ref="D83:I83"/>
-    <mergeCell ref="D84:I84"/>
-    <mergeCell ref="J84:K84"/>
-    <mergeCell ref="D85:I85"/>
-    <mergeCell ref="J85:K85"/>
-    <mergeCell ref="L85:M85"/>
-    <mergeCell ref="D86:I86"/>
-    <mergeCell ref="D87:I87"/>
-    <mergeCell ref="L87:M87"/>
-    <mergeCell ref="D88:I88"/>
-    <mergeCell ref="J88:K88"/>
-    <mergeCell ref="L88:M88"/>
-    <mergeCell ref="D89:I89"/>
-    <mergeCell ref="J89:K89"/>
-    <mergeCell ref="L89:M89"/>
-    <mergeCell ref="C109:I109"/>
-    <mergeCell ref="C110:I110"/>
-    <mergeCell ref="D90:I90"/>
-    <mergeCell ref="J90:K90"/>
-    <mergeCell ref="L90:M90"/>
-    <mergeCell ref="D91:I91"/>
-    <mergeCell ref="D92:I92"/>
-    <mergeCell ref="D93:I93"/>
-    <mergeCell ref="J93:K93"/>
-    <mergeCell ref="L93:M93"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E9:F10"/>
+    <mergeCell ref="E52:G53"/>
+    <mergeCell ref="A1:A5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="E11:F11"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="1">
@@ -21102,7 +21112,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="2" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A1" s="316" t="s">
+      <c r="A1" s="318" t="s">
         <v>4</v>
       </c>
       <c r="B1" s="1"/>
@@ -21113,7 +21123,7 @@
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:16" s="2" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A2" s="317"/>
+      <c r="A2" s="319"/>
       <c r="B2" s="3" t="s">
         <v>15</v>
       </c>
@@ -21124,18 +21134,18 @@
       <c r="G2" s="4"/>
     </row>
     <row r="3" spans="1:16" s="6" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A3" s="317"/>
+      <c r="A3" s="319"/>
       <c r="G3" s="81"/>
     </row>
     <row r="4" spans="1:16" s="6" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A4" s="317"/>
+      <c r="A4" s="319"/>
       <c r="B4" s="7" t="s">
         <v>16</v>
       </c>
       <c r="G4" s="81"/>
     </row>
     <row r="5" spans="1:16" s="10" customFormat="1" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A5" s="318"/>
+      <c r="A5" s="320"/>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
@@ -21150,20 +21160,20 @@
       <c r="B6" s="95" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="350" t="s">
-        <v>347</v>
-      </c>
-      <c r="D6" s="351"/>
-      <c r="E6" s="352" t="s">
+      <c r="C6" s="332" t="s">
+        <v>344</v>
+      </c>
+      <c r="D6" s="333"/>
+      <c r="E6" s="334" t="s">
         <v>123</v>
       </c>
-      <c r="F6" s="353"/>
-      <c r="G6" s="354"/>
+      <c r="F6" s="335"/>
+      <c r="G6" s="336"/>
       <c r="H6" s="82" t="s">
         <v>1</v>
       </c>
       <c r="I6" s="139" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="J6" s="138"/>
       <c r="K6" s="82" t="s">
@@ -21255,10 +21265,10 @@
       <c r="D12" s="16"/>
       <c r="E12" s="16"/>
       <c r="F12" s="16"/>
-      <c r="G12" s="364" t="s">
-        <v>348</v>
-      </c>
-      <c r="H12" s="364"/>
+      <c r="G12" s="366" t="s">
+        <v>345</v>
+      </c>
+      <c r="H12" s="366"/>
       <c r="I12" s="16"/>
       <c r="J12" s="16"/>
       <c r="K12" s="16"/>
@@ -21272,8 +21282,8 @@
       <c r="D13" s="16"/>
       <c r="E13" s="16"/>
       <c r="F13" s="16"/>
-      <c r="G13" s="364"/>
-      <c r="H13" s="364"/>
+      <c r="G13" s="366"/>
+      <c r="H13" s="366"/>
       <c r="I13" s="16"/>
       <c r="J13" s="16"/>
       <c r="K13" s="16"/>
@@ -21286,8 +21296,8 @@
       <c r="D14" s="16"/>
       <c r="E14" s="16"/>
       <c r="F14" s="16"/>
-      <c r="G14" s="364"/>
-      <c r="H14" s="364"/>
+      <c r="G14" s="366"/>
+      <c r="H14" s="366"/>
       <c r="I14" s="16"/>
       <c r="J14" s="16"/>
       <c r="K14" s="31"/>
@@ -21299,8 +21309,8 @@
       <c r="B15" s="83"/>
       <c r="C15" s="225"/>
       <c r="D15" s="225"/>
-      <c r="E15" s="355"/>
-      <c r="F15" s="355"/>
+      <c r="E15" s="337"/>
+      <c r="F15" s="337"/>
       <c r="G15" s="225"/>
       <c r="H15" s="225"/>
       <c r="I15" s="225"/>
@@ -21315,8 +21325,8 @@
       <c r="B16" s="83"/>
       <c r="C16" s="149"/>
       <c r="D16" s="225"/>
-      <c r="E16" s="356"/>
-      <c r="F16" s="356"/>
+      <c r="E16" s="338"/>
+      <c r="F16" s="338"/>
       <c r="G16" s="150"/>
       <c r="H16" s="150"/>
       <c r="I16" s="151"/>
@@ -21333,8 +21343,8 @@
       <c r="B17" s="83"/>
       <c r="C17" s="149"/>
       <c r="D17" s="225"/>
-      <c r="E17" s="357"/>
-      <c r="F17" s="357"/>
+      <c r="E17" s="339"/>
+      <c r="F17" s="339"/>
       <c r="G17" s="230"/>
       <c r="H17" s="230"/>
       <c r="I17" s="231"/>
@@ -21550,14 +21560,14 @@
       <c r="C29" s="149"/>
       <c r="D29" s="225"/>
       <c r="E29" s="224"/>
-      <c r="F29" s="365" t="s">
-        <v>349</v>
-      </c>
-      <c r="G29" s="365"/>
-      <c r="H29" s="366" t="s">
+      <c r="F29" s="367" t="s">
+        <v>346</v>
+      </c>
+      <c r="G29" s="367"/>
+      <c r="H29" s="368" t="s">
         <v>126</v>
       </c>
-      <c r="I29" s="366"/>
+      <c r="I29" s="368"/>
       <c r="J29" s="152"/>
       <c r="K29" s="151"/>
       <c r="L29" s="151"/>
@@ -21723,17 +21733,17 @@
       <c r="B39" s="164" t="s">
         <v>43</v>
       </c>
-      <c r="C39" s="344"/>
-      <c r="D39" s="345"/>
-      <c r="E39" s="345"/>
-      <c r="F39" s="345"/>
-      <c r="G39" s="345"/>
-      <c r="H39" s="345"/>
-      <c r="I39" s="345"/>
-      <c r="J39" s="345"/>
-      <c r="K39" s="345"/>
-      <c r="L39" s="345"/>
-      <c r="M39" s="345"/>
+      <c r="C39" s="326"/>
+      <c r="D39" s="327"/>
+      <c r="E39" s="327"/>
+      <c r="F39" s="327"/>
+      <c r="G39" s="327"/>
+      <c r="H39" s="327"/>
+      <c r="I39" s="327"/>
+      <c r="J39" s="327"/>
+      <c r="K39" s="327"/>
+      <c r="L39" s="327"/>
+      <c r="M39" s="327"/>
     </row>
     <row r="40" spans="1:16" ht="16.5" customHeight="1">
       <c r="A40" s="13"/>
@@ -21741,7 +21751,7 @@
         <v>27</v>
       </c>
       <c r="C40" s="213" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D40" s="214"/>
       <c r="E40" s="214"/>
@@ -21760,7 +21770,7 @@
         <v>123</v>
       </c>
       <c r="C41" s="213" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="D41" s="214"/>
       <c r="E41" s="214"/>
@@ -21871,13 +21881,13 @@
       <c r="B49" s="168" t="s">
         <v>133</v>
       </c>
-      <c r="C49" s="323" t="s">
-        <v>367</v>
-      </c>
-      <c r="D49" s="324"/>
-      <c r="E49" s="324"/>
-      <c r="F49" s="324"/>
-      <c r="G49" s="325"/>
+      <c r="C49" s="348" t="s">
+        <v>364</v>
+      </c>
+      <c r="D49" s="349"/>
+      <c r="E49" s="349"/>
+      <c r="F49" s="349"/>
+      <c r="G49" s="350"/>
       <c r="H49" s="251" t="s">
         <v>19</v>
       </c>
@@ -21898,13 +21908,13 @@
       <c r="B50" s="66" t="s">
         <v>289</v>
       </c>
-      <c r="C50" s="323" t="s">
-        <v>351</v>
-      </c>
-      <c r="D50" s="324"/>
-      <c r="E50" s="324"/>
-      <c r="F50" s="324"/>
-      <c r="G50" s="325"/>
+      <c r="C50" s="348" t="s">
+        <v>348</v>
+      </c>
+      <c r="D50" s="349"/>
+      <c r="E50" s="349"/>
+      <c r="F50" s="349"/>
+      <c r="G50" s="350"/>
       <c r="H50" s="12" t="s">
         <v>19</v>
       </c>
@@ -21922,11 +21932,11 @@
     </row>
     <row r="51" spans="1:13" s="250" customFormat="1" ht="16.5" customHeight="1">
       <c r="B51" s="168"/>
-      <c r="C51" s="323"/>
-      <c r="D51" s="324"/>
-      <c r="E51" s="324"/>
-      <c r="F51" s="324"/>
-      <c r="G51" s="325"/>
+      <c r="C51" s="348"/>
+      <c r="D51" s="349"/>
+      <c r="E51" s="349"/>
+      <c r="F51" s="349"/>
+      <c r="G51" s="350"/>
       <c r="H51" s="12" t="s">
         <v>19</v>
       </c>
@@ -21941,11 +21951,11 @@
     <row r="52" spans="1:13" ht="16.5" customHeight="1">
       <c r="A52" s="13"/>
       <c r="B52" s="66"/>
-      <c r="C52" s="323"/>
-      <c r="D52" s="324"/>
-      <c r="E52" s="324"/>
-      <c r="F52" s="324"/>
-      <c r="G52" s="325"/>
+      <c r="C52" s="348"/>
+      <c r="D52" s="349"/>
+      <c r="E52" s="349"/>
+      <c r="F52" s="349"/>
+      <c r="G52" s="350"/>
       <c r="H52" s="12" t="s">
         <v>19</v>
       </c>
@@ -21960,11 +21970,11 @@
     <row r="53" spans="1:13" ht="16.5" customHeight="1">
       <c r="A53" s="13"/>
       <c r="B53" s="66"/>
-      <c r="C53" s="323"/>
-      <c r="D53" s="324"/>
-      <c r="E53" s="324"/>
-      <c r="F53" s="324"/>
-      <c r="G53" s="325"/>
+      <c r="C53" s="348"/>
+      <c r="D53" s="349"/>
+      <c r="E53" s="349"/>
+      <c r="F53" s="349"/>
+      <c r="G53" s="350"/>
       <c r="H53" s="12" t="s">
         <v>19</v>
       </c>
@@ -21979,11 +21989,11 @@
     <row r="54" spans="1:13" ht="16.5" customHeight="1">
       <c r="A54" s="13"/>
       <c r="B54" s="66"/>
-      <c r="C54" s="323"/>
-      <c r="D54" s="324"/>
-      <c r="E54" s="324"/>
-      <c r="F54" s="324"/>
-      <c r="G54" s="325"/>
+      <c r="C54" s="348"/>
+      <c r="D54" s="349"/>
+      <c r="E54" s="349"/>
+      <c r="F54" s="349"/>
+      <c r="G54" s="350"/>
       <c r="H54" s="12" t="s">
         <v>19</v>
       </c>
@@ -22043,22 +22053,22 @@
       <c r="C58" s="216" t="s">
         <v>123</v>
       </c>
-      <c r="D58" s="326" t="s">
-        <v>352</v>
-      </c>
-      <c r="E58" s="331"/>
-      <c r="F58" s="331"/>
-      <c r="G58" s="331"/>
-      <c r="H58" s="331"/>
-      <c r="I58" s="332"/>
-      <c r="J58" s="333" t="s">
-        <v>353</v>
-      </c>
-      <c r="K58" s="337"/>
-      <c r="L58" s="326" t="s">
-        <v>358</v>
-      </c>
-      <c r="M58" s="334"/>
+      <c r="D58" s="342" t="s">
+        <v>349</v>
+      </c>
+      <c r="E58" s="344"/>
+      <c r="F58" s="344"/>
+      <c r="G58" s="344"/>
+      <c r="H58" s="344"/>
+      <c r="I58" s="345"/>
+      <c r="J58" s="354" t="s">
+        <v>350</v>
+      </c>
+      <c r="K58" s="341"/>
+      <c r="L58" s="342" t="s">
+        <v>355</v>
+      </c>
+      <c r="M58" s="343"/>
     </row>
     <row r="59" spans="1:13" ht="36.75" customHeight="1">
       <c r="A59" s="13"/>
@@ -22066,16 +22076,16 @@
         <v>2</v>
       </c>
       <c r="C59" s="219" t="s">
-        <v>354</v>
-      </c>
-      <c r="D59" s="323" t="s">
-        <v>364</v>
-      </c>
-      <c r="E59" s="324"/>
-      <c r="F59" s="324"/>
-      <c r="G59" s="324"/>
-      <c r="H59" s="324"/>
-      <c r="I59" s="325"/>
+        <v>351</v>
+      </c>
+      <c r="D59" s="348" t="s">
+        <v>361</v>
+      </c>
+      <c r="E59" s="349"/>
+      <c r="F59" s="349"/>
+      <c r="G59" s="349"/>
+      <c r="H59" s="349"/>
+      <c r="I59" s="350"/>
       <c r="J59" s="216"/>
       <c r="K59" s="254"/>
       <c r="L59" s="219"/>
@@ -22087,16 +22097,16 @@
         <v>3</v>
       </c>
       <c r="C60" s="219" t="s">
-        <v>328</v>
-      </c>
-      <c r="D60" s="323" t="s">
-        <v>355</v>
-      </c>
-      <c r="E60" s="324"/>
-      <c r="F60" s="324"/>
-      <c r="G60" s="324"/>
-      <c r="H60" s="324"/>
-      <c r="I60" s="325"/>
+        <v>325</v>
+      </c>
+      <c r="D60" s="348" t="s">
+        <v>352</v>
+      </c>
+      <c r="E60" s="349"/>
+      <c r="F60" s="349"/>
+      <c r="G60" s="349"/>
+      <c r="H60" s="349"/>
+      <c r="I60" s="350"/>
       <c r="J60" s="216"/>
       <c r="K60" s="254"/>
       <c r="L60" s="219"/>
@@ -22108,31 +22118,31 @@
         <v>4</v>
       </c>
       <c r="C61" s="216" t="s">
-        <v>356</v>
-      </c>
-      <c r="D61" s="326" t="s">
-        <v>357</v>
-      </c>
-      <c r="E61" s="331"/>
-      <c r="F61" s="331"/>
-      <c r="G61" s="331"/>
-      <c r="H61" s="331"/>
-      <c r="I61" s="332"/>
-      <c r="J61" s="336"/>
-      <c r="K61" s="337"/>
-      <c r="L61" s="326"/>
-      <c r="M61" s="334"/>
+        <v>353</v>
+      </c>
+      <c r="D61" s="342" t="s">
+        <v>354</v>
+      </c>
+      <c r="E61" s="344"/>
+      <c r="F61" s="344"/>
+      <c r="G61" s="344"/>
+      <c r="H61" s="344"/>
+      <c r="I61" s="345"/>
+      <c r="J61" s="340"/>
+      <c r="K61" s="341"/>
+      <c r="L61" s="342"/>
+      <c r="M61" s="343"/>
     </row>
     <row r="62" spans="1:13" ht="16.5" customHeight="1">
       <c r="A62" s="13"/>
       <c r="B62" s="80"/>
       <c r="C62" s="216"/>
-      <c r="D62" s="326"/>
-      <c r="E62" s="327"/>
-      <c r="F62" s="327"/>
-      <c r="G62" s="327"/>
-      <c r="H62" s="327"/>
-      <c r="I62" s="328"/>
+      <c r="D62" s="342"/>
+      <c r="E62" s="359"/>
+      <c r="F62" s="359"/>
+      <c r="G62" s="359"/>
+      <c r="H62" s="359"/>
+      <c r="I62" s="358"/>
       <c r="J62" s="216"/>
       <c r="K62" s="218"/>
       <c r="L62" s="219"/>
@@ -22142,72 +22152,72 @@
       <c r="A63" s="13"/>
       <c r="B63" s="80"/>
       <c r="C63" s="216"/>
-      <c r="D63" s="326"/>
-      <c r="E63" s="329"/>
-      <c r="F63" s="329"/>
-      <c r="G63" s="329"/>
-      <c r="H63" s="329"/>
-      <c r="I63" s="330"/>
+      <c r="D63" s="342"/>
+      <c r="E63" s="357"/>
+      <c r="F63" s="357"/>
+      <c r="G63" s="357"/>
+      <c r="H63" s="357"/>
+      <c r="I63" s="356"/>
       <c r="J63" s="216"/>
       <c r="K63" s="218"/>
-      <c r="L63" s="323"/>
-      <c r="M63" s="325"/>
+      <c r="L63" s="348"/>
+      <c r="M63" s="350"/>
     </row>
     <row r="64" spans="1:13" ht="16.5" customHeight="1">
       <c r="A64" s="13"/>
       <c r="B64" s="80"/>
       <c r="C64" s="216"/>
-      <c r="D64" s="326"/>
-      <c r="E64" s="331"/>
-      <c r="F64" s="331"/>
-      <c r="G64" s="331"/>
-      <c r="H64" s="331"/>
-      <c r="I64" s="332"/>
-      <c r="J64" s="333"/>
-      <c r="K64" s="332"/>
-      <c r="L64" s="333"/>
-      <c r="M64" s="332"/>
+      <c r="D64" s="342"/>
+      <c r="E64" s="344"/>
+      <c r="F64" s="344"/>
+      <c r="G64" s="344"/>
+      <c r="H64" s="344"/>
+      <c r="I64" s="345"/>
+      <c r="J64" s="354"/>
+      <c r="K64" s="345"/>
+      <c r="L64" s="354"/>
+      <c r="M64" s="345"/>
     </row>
     <row r="65" spans="1:15" ht="16.5" customHeight="1">
       <c r="A65" s="13"/>
       <c r="B65" s="80"/>
       <c r="C65" s="216"/>
-      <c r="D65" s="326"/>
-      <c r="E65" s="329"/>
-      <c r="F65" s="329"/>
-      <c r="G65" s="329"/>
-      <c r="H65" s="329"/>
-      <c r="I65" s="330"/>
-      <c r="J65" s="333"/>
-      <c r="K65" s="328"/>
-      <c r="L65" s="326"/>
-      <c r="M65" s="335"/>
+      <c r="D65" s="342"/>
+      <c r="E65" s="357"/>
+      <c r="F65" s="357"/>
+      <c r="G65" s="357"/>
+      <c r="H65" s="357"/>
+      <c r="I65" s="356"/>
+      <c r="J65" s="354"/>
+      <c r="K65" s="358"/>
+      <c r="L65" s="342"/>
+      <c r="M65" s="355"/>
     </row>
     <row r="66" spans="1:15" ht="16.5" customHeight="1">
       <c r="A66" s="13"/>
       <c r="B66" s="80"/>
       <c r="C66" s="216"/>
-      <c r="D66" s="326"/>
-      <c r="E66" s="329"/>
-      <c r="F66" s="329"/>
-      <c r="G66" s="329"/>
-      <c r="H66" s="329"/>
-      <c r="I66" s="330"/>
-      <c r="J66" s="333"/>
-      <c r="K66" s="328"/>
-      <c r="L66" s="333"/>
-      <c r="M66" s="328"/>
+      <c r="D66" s="342"/>
+      <c r="E66" s="357"/>
+      <c r="F66" s="357"/>
+      <c r="G66" s="357"/>
+      <c r="H66" s="357"/>
+      <c r="I66" s="356"/>
+      <c r="J66" s="354"/>
+      <c r="K66" s="358"/>
+      <c r="L66" s="354"/>
+      <c r="M66" s="358"/>
     </row>
     <row r="67" spans="1:15" ht="16.5" customHeight="1">
       <c r="A67" s="13"/>
       <c r="B67" s="80"/>
       <c r="C67" s="216"/>
-      <c r="D67" s="323"/>
-      <c r="E67" s="324"/>
-      <c r="F67" s="324"/>
-      <c r="G67" s="324"/>
-      <c r="H67" s="324"/>
-      <c r="I67" s="325"/>
+      <c r="D67" s="348"/>
+      <c r="E67" s="349"/>
+      <c r="F67" s="349"/>
+      <c r="G67" s="349"/>
+      <c r="H67" s="349"/>
+      <c r="I67" s="350"/>
       <c r="J67" s="216"/>
       <c r="K67" s="217"/>
       <c r="L67" s="216"/>
@@ -22217,12 +22227,12 @@
       <c r="A68" s="13"/>
       <c r="B68" s="80"/>
       <c r="C68" s="216"/>
-      <c r="D68" s="323"/>
-      <c r="E68" s="324"/>
-      <c r="F68" s="324"/>
-      <c r="G68" s="324"/>
-      <c r="H68" s="324"/>
-      <c r="I68" s="325"/>
+      <c r="D68" s="348"/>
+      <c r="E68" s="349"/>
+      <c r="F68" s="349"/>
+      <c r="G68" s="349"/>
+      <c r="H68" s="349"/>
+      <c r="I68" s="350"/>
       <c r="J68" s="216"/>
       <c r="K68" s="217"/>
       <c r="L68" s="216"/>
@@ -22232,16 +22242,16 @@
       <c r="A69" s="13"/>
       <c r="B69" s="80"/>
       <c r="C69" s="219"/>
-      <c r="D69" s="326"/>
-      <c r="E69" s="327"/>
-      <c r="F69" s="327"/>
-      <c r="G69" s="327"/>
-      <c r="H69" s="327"/>
-      <c r="I69" s="328"/>
-      <c r="J69" s="333"/>
-      <c r="K69" s="334"/>
-      <c r="L69" s="326"/>
-      <c r="M69" s="330"/>
+      <c r="D69" s="342"/>
+      <c r="E69" s="359"/>
+      <c r="F69" s="359"/>
+      <c r="G69" s="359"/>
+      <c r="H69" s="359"/>
+      <c r="I69" s="358"/>
+      <c r="J69" s="354"/>
+      <c r="K69" s="343"/>
+      <c r="L69" s="342"/>
+      <c r="M69" s="356"/>
     </row>
     <row r="70" spans="1:15" s="165" customFormat="1" ht="16.5" customHeight="1"/>
     <row r="71" spans="1:15" ht="16.5" customHeight="1">
@@ -22487,13 +22497,13 @@
     <row r="85" spans="1:15" ht="16.5" customHeight="1">
       <c r="A85" s="13"/>
       <c r="B85" s="66"/>
-      <c r="C85" s="320"/>
-      <c r="D85" s="321"/>
-      <c r="E85" s="321"/>
-      <c r="F85" s="321"/>
-      <c r="G85" s="321"/>
-      <c r="H85" s="321"/>
-      <c r="I85" s="322"/>
+      <c r="C85" s="351"/>
+      <c r="D85" s="352"/>
+      <c r="E85" s="352"/>
+      <c r="F85" s="352"/>
+      <c r="G85" s="352"/>
+      <c r="H85" s="352"/>
+      <c r="I85" s="353"/>
       <c r="J85" s="66"/>
       <c r="K85" s="80"/>
       <c r="L85" s="80"/>
@@ -22504,13 +22514,13 @@
     <row r="86" spans="1:15" ht="16.5" customHeight="1">
       <c r="A86" s="13"/>
       <c r="B86" s="66"/>
-      <c r="C86" s="320"/>
-      <c r="D86" s="321"/>
-      <c r="E86" s="321"/>
-      <c r="F86" s="321"/>
-      <c r="G86" s="321"/>
-      <c r="H86" s="321"/>
-      <c r="I86" s="322"/>
+      <c r="C86" s="351"/>
+      <c r="D86" s="352"/>
+      <c r="E86" s="352"/>
+      <c r="F86" s="352"/>
+      <c r="G86" s="352"/>
+      <c r="H86" s="352"/>
+      <c r="I86" s="353"/>
       <c r="J86" s="66"/>
       <c r="K86" s="80"/>
       <c r="L86" s="80"/>
@@ -22930,6 +22940,33 @@
     </row>
   </sheetData>
   <mergeCells count="43">
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="A1:A5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="L63:M63"/>
+    <mergeCell ref="D61:I61"/>
+    <mergeCell ref="L61:M61"/>
+    <mergeCell ref="J61:K61"/>
+    <mergeCell ref="C54:G54"/>
+    <mergeCell ref="D58:I58"/>
+    <mergeCell ref="J58:K58"/>
+    <mergeCell ref="L58:M58"/>
+    <mergeCell ref="D60:I60"/>
+    <mergeCell ref="J64:K64"/>
+    <mergeCell ref="L64:M64"/>
+    <mergeCell ref="D65:I65"/>
+    <mergeCell ref="J65:K65"/>
+    <mergeCell ref="L65:M65"/>
+    <mergeCell ref="J66:K66"/>
+    <mergeCell ref="L66:M66"/>
+    <mergeCell ref="D67:I67"/>
+    <mergeCell ref="D68:I68"/>
+    <mergeCell ref="D69:I69"/>
+    <mergeCell ref="J69:K69"/>
+    <mergeCell ref="L69:M69"/>
     <mergeCell ref="C85:I85"/>
     <mergeCell ref="C86:I86"/>
     <mergeCell ref="G12:H14"/>
@@ -22946,33 +22983,6 @@
     <mergeCell ref="C51:G51"/>
     <mergeCell ref="C39:M39"/>
     <mergeCell ref="C49:G49"/>
-    <mergeCell ref="J66:K66"/>
-    <mergeCell ref="L66:M66"/>
-    <mergeCell ref="D67:I67"/>
-    <mergeCell ref="D68:I68"/>
-    <mergeCell ref="D69:I69"/>
-    <mergeCell ref="J69:K69"/>
-    <mergeCell ref="L69:M69"/>
-    <mergeCell ref="J64:K64"/>
-    <mergeCell ref="L64:M64"/>
-    <mergeCell ref="D65:I65"/>
-    <mergeCell ref="J65:K65"/>
-    <mergeCell ref="L65:M65"/>
-    <mergeCell ref="L63:M63"/>
-    <mergeCell ref="D61:I61"/>
-    <mergeCell ref="L61:M61"/>
-    <mergeCell ref="J61:K61"/>
-    <mergeCell ref="C54:G54"/>
-    <mergeCell ref="D58:I58"/>
-    <mergeCell ref="J58:K58"/>
-    <mergeCell ref="L58:M58"/>
-    <mergeCell ref="D60:I60"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="A1:A5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E16:F16"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="1">
@@ -23835,7 +23845,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="2" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A1" s="316" t="s">
+      <c r="A1" s="318" t="s">
         <v>4</v>
       </c>
       <c r="B1" s="1"/>
@@ -23846,7 +23856,7 @@
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:16" s="2" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A2" s="317"/>
+      <c r="A2" s="319"/>
       <c r="B2" s="3" t="s">
         <v>15</v>
       </c>
@@ -23857,18 +23867,18 @@
       <c r="G2" s="4"/>
     </row>
     <row r="3" spans="1:16" s="6" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A3" s="317"/>
+      <c r="A3" s="319"/>
       <c r="G3" s="81"/>
     </row>
     <row r="4" spans="1:16" s="6" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A4" s="317"/>
+      <c r="A4" s="319"/>
       <c r="B4" s="7" t="s">
         <v>16</v>
       </c>
       <c r="G4" s="81"/>
     </row>
     <row r="5" spans="1:16" s="10" customFormat="1" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A5" s="318"/>
+      <c r="A5" s="320"/>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
@@ -23883,20 +23893,20 @@
       <c r="B6" s="95" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="350" t="s">
-        <v>361</v>
-      </c>
-      <c r="D6" s="351"/>
-      <c r="E6" s="352" t="s">
-        <v>362</v>
-      </c>
-      <c r="F6" s="353"/>
-      <c r="G6" s="354"/>
+      <c r="C6" s="332" t="s">
+        <v>358</v>
+      </c>
+      <c r="D6" s="333"/>
+      <c r="E6" s="334" t="s">
+        <v>359</v>
+      </c>
+      <c r="F6" s="335"/>
+      <c r="G6" s="336"/>
       <c r="H6" s="82" t="s">
         <v>1</v>
       </c>
       <c r="I6" s="139" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="J6" s="138"/>
       <c r="K6" s="82" t="s">
@@ -23988,10 +23998,10 @@
       <c r="D12" s="16"/>
       <c r="E12" s="16"/>
       <c r="F12" s="16"/>
-      <c r="G12" s="364" t="s">
-        <v>348</v>
-      </c>
-      <c r="H12" s="364"/>
+      <c r="G12" s="366" t="s">
+        <v>345</v>
+      </c>
+      <c r="H12" s="366"/>
       <c r="I12" s="16"/>
       <c r="J12" s="16"/>
       <c r="K12" s="16"/>
@@ -24005,8 +24015,8 @@
       <c r="D13" s="16"/>
       <c r="E13" s="16"/>
       <c r="F13" s="16"/>
-      <c r="G13" s="364"/>
-      <c r="H13" s="364"/>
+      <c r="G13" s="366"/>
+      <c r="H13" s="366"/>
       <c r="I13" s="16"/>
       <c r="J13" s="16"/>
       <c r="K13" s="16"/>
@@ -24019,8 +24029,8 @@
       <c r="D14" s="16"/>
       <c r="E14" s="16"/>
       <c r="F14" s="16"/>
-      <c r="G14" s="364"/>
-      <c r="H14" s="364"/>
+      <c r="G14" s="366"/>
+      <c r="H14" s="366"/>
       <c r="I14" s="16"/>
       <c r="J14" s="16"/>
       <c r="K14" s="31"/>
@@ -24032,8 +24042,8 @@
       <c r="B15" s="83"/>
       <c r="C15" s="225"/>
       <c r="D15" s="225"/>
-      <c r="E15" s="355"/>
-      <c r="F15" s="355"/>
+      <c r="E15" s="337"/>
+      <c r="F15" s="337"/>
       <c r="G15" s="225"/>
       <c r="H15" s="225"/>
       <c r="I15" s="225"/>
@@ -24048,8 +24058,8 @@
       <c r="B16" s="83"/>
       <c r="C16" s="149"/>
       <c r="D16" s="225"/>
-      <c r="E16" s="356"/>
-      <c r="F16" s="356"/>
+      <c r="E16" s="338"/>
+      <c r="F16" s="338"/>
       <c r="G16" s="150"/>
       <c r="H16" s="150"/>
       <c r="I16" s="151"/>
@@ -24066,8 +24076,8 @@
       <c r="B17" s="83"/>
       <c r="C17" s="149"/>
       <c r="D17" s="225"/>
-      <c r="E17" s="357"/>
-      <c r="F17" s="357"/>
+      <c r="E17" s="339"/>
+      <c r="F17" s="339"/>
       <c r="G17" s="230"/>
       <c r="H17" s="230"/>
       <c r="I17" s="231"/>
@@ -24362,17 +24372,17 @@
       <c r="B34" s="164" t="s">
         <v>43</v>
       </c>
-      <c r="C34" s="344"/>
-      <c r="D34" s="345"/>
-      <c r="E34" s="345"/>
-      <c r="F34" s="345"/>
-      <c r="G34" s="345"/>
-      <c r="H34" s="345"/>
-      <c r="I34" s="345"/>
-      <c r="J34" s="345"/>
-      <c r="K34" s="345"/>
-      <c r="L34" s="345"/>
-      <c r="M34" s="345"/>
+      <c r="C34" s="326"/>
+      <c r="D34" s="327"/>
+      <c r="E34" s="327"/>
+      <c r="F34" s="327"/>
+      <c r="G34" s="327"/>
+      <c r="H34" s="327"/>
+      <c r="I34" s="327"/>
+      <c r="J34" s="327"/>
+      <c r="K34" s="327"/>
+      <c r="L34" s="327"/>
+      <c r="M34" s="327"/>
     </row>
     <row r="35" spans="1:13" ht="16.5" customHeight="1">
       <c r="A35" s="13"/>
@@ -24380,7 +24390,7 @@
         <v>27</v>
       </c>
       <c r="C35" s="213" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D35" s="214"/>
       <c r="E35" s="214"/>
@@ -24399,7 +24409,7 @@
         <v>44</v>
       </c>
       <c r="C36" s="213" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="D36" s="214"/>
       <c r="E36" s="214"/>
@@ -24510,13 +24520,13 @@
       <c r="B44" s="168" t="s">
         <v>133</v>
       </c>
-      <c r="C44" s="323" t="s">
-        <v>350</v>
-      </c>
-      <c r="D44" s="324"/>
-      <c r="E44" s="324"/>
-      <c r="F44" s="324"/>
-      <c r="G44" s="325"/>
+      <c r="C44" s="348" t="s">
+        <v>347</v>
+      </c>
+      <c r="D44" s="349"/>
+      <c r="E44" s="349"/>
+      <c r="F44" s="349"/>
+      <c r="G44" s="350"/>
       <c r="H44" s="251" t="s">
         <v>19</v>
       </c>
@@ -24535,11 +24545,11 @@
     <row r="45" spans="1:13" ht="16.5" customHeight="1">
       <c r="A45" s="13"/>
       <c r="B45" s="66"/>
-      <c r="C45" s="323"/>
-      <c r="D45" s="324"/>
-      <c r="E45" s="324"/>
-      <c r="F45" s="324"/>
-      <c r="G45" s="325"/>
+      <c r="C45" s="348"/>
+      <c r="D45" s="349"/>
+      <c r="E45" s="349"/>
+      <c r="F45" s="349"/>
+      <c r="G45" s="350"/>
       <c r="H45" s="12" t="s">
         <v>19</v>
       </c>
@@ -24553,11 +24563,11 @@
     </row>
     <row r="46" spans="1:13" s="250" customFormat="1" ht="16.5" customHeight="1">
       <c r="B46" s="168"/>
-      <c r="C46" s="323"/>
-      <c r="D46" s="324"/>
-      <c r="E46" s="324"/>
-      <c r="F46" s="324"/>
-      <c r="G46" s="325"/>
+      <c r="C46" s="348"/>
+      <c r="D46" s="349"/>
+      <c r="E46" s="349"/>
+      <c r="F46" s="349"/>
+      <c r="G46" s="350"/>
       <c r="H46" s="12" t="s">
         <v>19</v>
       </c>
@@ -24572,11 +24582,11 @@
     <row r="47" spans="1:13" ht="16.5" customHeight="1">
       <c r="A47" s="13"/>
       <c r="B47" s="66"/>
-      <c r="C47" s="323"/>
-      <c r="D47" s="324"/>
-      <c r="E47" s="324"/>
-      <c r="F47" s="324"/>
-      <c r="G47" s="325"/>
+      <c r="C47" s="348"/>
+      <c r="D47" s="349"/>
+      <c r="E47" s="349"/>
+      <c r="F47" s="349"/>
+      <c r="G47" s="350"/>
       <c r="H47" s="12" t="s">
         <v>19</v>
       </c>
@@ -24591,11 +24601,11 @@
     <row r="48" spans="1:13" ht="16.5" customHeight="1">
       <c r="A48" s="13"/>
       <c r="B48" s="66"/>
-      <c r="C48" s="323"/>
-      <c r="D48" s="324"/>
-      <c r="E48" s="324"/>
-      <c r="F48" s="324"/>
-      <c r="G48" s="325"/>
+      <c r="C48" s="348"/>
+      <c r="D48" s="349"/>
+      <c r="E48" s="349"/>
+      <c r="F48" s="349"/>
+      <c r="G48" s="350"/>
       <c r="H48" s="12" t="s">
         <v>19</v>
       </c>
@@ -24610,11 +24620,11 @@
     <row r="49" spans="1:13" ht="16.5" customHeight="1">
       <c r="A49" s="13"/>
       <c r="B49" s="66"/>
-      <c r="C49" s="323"/>
-      <c r="D49" s="324"/>
-      <c r="E49" s="324"/>
-      <c r="F49" s="324"/>
-      <c r="G49" s="325"/>
+      <c r="C49" s="348"/>
+      <c r="D49" s="349"/>
+      <c r="E49" s="349"/>
+      <c r="F49" s="349"/>
+      <c r="G49" s="350"/>
       <c r="H49" s="12" t="s">
         <v>19</v>
       </c>
@@ -24672,35 +24682,35 @@
         <v>1</v>
       </c>
       <c r="C53" s="216" t="s">
+        <v>362</v>
+      </c>
+      <c r="D53" s="342" t="s">
+        <v>366</v>
+      </c>
+      <c r="E53" s="344"/>
+      <c r="F53" s="344"/>
+      <c r="G53" s="344"/>
+      <c r="H53" s="344"/>
+      <c r="I53" s="345"/>
+      <c r="J53" s="354" t="s">
+        <v>363</v>
+      </c>
+      <c r="K53" s="341"/>
+      <c r="L53" s="342" t="s">
         <v>365</v>
       </c>
-      <c r="D53" s="326" t="s">
-        <v>369</v>
-      </c>
-      <c r="E53" s="331"/>
-      <c r="F53" s="331"/>
-      <c r="G53" s="331"/>
-      <c r="H53" s="331"/>
-      <c r="I53" s="332"/>
-      <c r="J53" s="333" t="s">
-        <v>366</v>
-      </c>
-      <c r="K53" s="337"/>
-      <c r="L53" s="326" t="s">
-        <v>368</v>
-      </c>
-      <c r="M53" s="334"/>
+      <c r="M53" s="343"/>
     </row>
     <row r="54" spans="1:13" ht="16.5" customHeight="1">
       <c r="A54" s="13"/>
       <c r="B54" s="80"/>
       <c r="C54" s="219"/>
-      <c r="D54" s="323"/>
-      <c r="E54" s="324"/>
-      <c r="F54" s="324"/>
-      <c r="G54" s="324"/>
-      <c r="H54" s="324"/>
-      <c r="I54" s="325"/>
+      <c r="D54" s="348"/>
+      <c r="E54" s="349"/>
+      <c r="F54" s="349"/>
+      <c r="G54" s="349"/>
+      <c r="H54" s="349"/>
+      <c r="I54" s="350"/>
       <c r="J54" s="216"/>
       <c r="K54" s="254"/>
       <c r="L54" s="219"/>
@@ -24710,12 +24720,12 @@
       <c r="A55" s="13"/>
       <c r="B55" s="80"/>
       <c r="C55" s="219"/>
-      <c r="D55" s="323"/>
-      <c r="E55" s="324"/>
-      <c r="F55" s="324"/>
-      <c r="G55" s="324"/>
-      <c r="H55" s="324"/>
-      <c r="I55" s="325"/>
+      <c r="D55" s="348"/>
+      <c r="E55" s="349"/>
+      <c r="F55" s="349"/>
+      <c r="G55" s="349"/>
+      <c r="H55" s="349"/>
+      <c r="I55" s="350"/>
       <c r="J55" s="216"/>
       <c r="K55" s="254"/>
       <c r="L55" s="219"/>
@@ -24725,27 +24735,27 @@
       <c r="A56" s="13"/>
       <c r="B56" s="80"/>
       <c r="C56" s="216"/>
-      <c r="D56" s="326"/>
-      <c r="E56" s="331"/>
-      <c r="F56" s="331"/>
-      <c r="G56" s="331"/>
-      <c r="H56" s="331"/>
-      <c r="I56" s="332"/>
-      <c r="J56" s="336"/>
-      <c r="K56" s="337"/>
-      <c r="L56" s="326"/>
-      <c r="M56" s="334"/>
+      <c r="D56" s="342"/>
+      <c r="E56" s="344"/>
+      <c r="F56" s="344"/>
+      <c r="G56" s="344"/>
+      <c r="H56" s="344"/>
+      <c r="I56" s="345"/>
+      <c r="J56" s="340"/>
+      <c r="K56" s="341"/>
+      <c r="L56" s="342"/>
+      <c r="M56" s="343"/>
     </row>
     <row r="57" spans="1:13" ht="16.5" customHeight="1">
       <c r="A57" s="13"/>
       <c r="B57" s="80"/>
       <c r="C57" s="216"/>
-      <c r="D57" s="326"/>
-      <c r="E57" s="327"/>
-      <c r="F57" s="327"/>
-      <c r="G57" s="327"/>
-      <c r="H57" s="327"/>
-      <c r="I57" s="328"/>
+      <c r="D57" s="342"/>
+      <c r="E57" s="359"/>
+      <c r="F57" s="359"/>
+      <c r="G57" s="359"/>
+      <c r="H57" s="359"/>
+      <c r="I57" s="358"/>
       <c r="J57" s="216"/>
       <c r="K57" s="218"/>
       <c r="L57" s="219"/>
@@ -24755,72 +24765,72 @@
       <c r="A58" s="13"/>
       <c r="B58" s="80"/>
       <c r="C58" s="216"/>
-      <c r="D58" s="326"/>
-      <c r="E58" s="329"/>
-      <c r="F58" s="329"/>
-      <c r="G58" s="329"/>
-      <c r="H58" s="329"/>
-      <c r="I58" s="330"/>
+      <c r="D58" s="342"/>
+      <c r="E58" s="357"/>
+      <c r="F58" s="357"/>
+      <c r="G58" s="357"/>
+      <c r="H58" s="357"/>
+      <c r="I58" s="356"/>
       <c r="J58" s="216"/>
       <c r="K58" s="218"/>
-      <c r="L58" s="323"/>
-      <c r="M58" s="325"/>
+      <c r="L58" s="348"/>
+      <c r="M58" s="350"/>
     </row>
     <row r="59" spans="1:13" ht="16.5" customHeight="1">
       <c r="A59" s="13"/>
       <c r="B59" s="80"/>
       <c r="C59" s="216"/>
-      <c r="D59" s="326"/>
-      <c r="E59" s="331"/>
-      <c r="F59" s="331"/>
-      <c r="G59" s="331"/>
-      <c r="H59" s="331"/>
-      <c r="I59" s="332"/>
-      <c r="J59" s="333"/>
-      <c r="K59" s="332"/>
-      <c r="L59" s="333"/>
-      <c r="M59" s="332"/>
+      <c r="D59" s="342"/>
+      <c r="E59" s="344"/>
+      <c r="F59" s="344"/>
+      <c r="G59" s="344"/>
+      <c r="H59" s="344"/>
+      <c r="I59" s="345"/>
+      <c r="J59" s="354"/>
+      <c r="K59" s="345"/>
+      <c r="L59" s="354"/>
+      <c r="M59" s="345"/>
     </row>
     <row r="60" spans="1:13" ht="16.5" customHeight="1">
       <c r="A60" s="13"/>
       <c r="B60" s="80"/>
       <c r="C60" s="216"/>
-      <c r="D60" s="326"/>
-      <c r="E60" s="329"/>
-      <c r="F60" s="329"/>
-      <c r="G60" s="329"/>
-      <c r="H60" s="329"/>
-      <c r="I60" s="330"/>
-      <c r="J60" s="333"/>
-      <c r="K60" s="328"/>
-      <c r="L60" s="326"/>
-      <c r="M60" s="335"/>
+      <c r="D60" s="342"/>
+      <c r="E60" s="357"/>
+      <c r="F60" s="357"/>
+      <c r="G60" s="357"/>
+      <c r="H60" s="357"/>
+      <c r="I60" s="356"/>
+      <c r="J60" s="354"/>
+      <c r="K60" s="358"/>
+      <c r="L60" s="342"/>
+      <c r="M60" s="355"/>
     </row>
     <row r="61" spans="1:13" ht="16.5" customHeight="1">
       <c r="A61" s="13"/>
       <c r="B61" s="80"/>
       <c r="C61" s="216"/>
-      <c r="D61" s="326"/>
-      <c r="E61" s="329"/>
-      <c r="F61" s="329"/>
-      <c r="G61" s="329"/>
-      <c r="H61" s="329"/>
-      <c r="I61" s="330"/>
-      <c r="J61" s="333"/>
-      <c r="K61" s="328"/>
-      <c r="L61" s="333"/>
-      <c r="M61" s="328"/>
+      <c r="D61" s="342"/>
+      <c r="E61" s="357"/>
+      <c r="F61" s="357"/>
+      <c r="G61" s="357"/>
+      <c r="H61" s="357"/>
+      <c r="I61" s="356"/>
+      <c r="J61" s="354"/>
+      <c r="K61" s="358"/>
+      <c r="L61" s="354"/>
+      <c r="M61" s="358"/>
     </row>
     <row r="62" spans="1:13" ht="16.5" customHeight="1">
       <c r="A62" s="13"/>
       <c r="B62" s="80"/>
       <c r="C62" s="216"/>
-      <c r="D62" s="323"/>
-      <c r="E62" s="324"/>
-      <c r="F62" s="324"/>
-      <c r="G62" s="324"/>
-      <c r="H62" s="324"/>
-      <c r="I62" s="325"/>
+      <c r="D62" s="348"/>
+      <c r="E62" s="349"/>
+      <c r="F62" s="349"/>
+      <c r="G62" s="349"/>
+      <c r="H62" s="349"/>
+      <c r="I62" s="350"/>
       <c r="J62" s="216"/>
       <c r="K62" s="217"/>
       <c r="L62" s="216"/>
@@ -24830,12 +24840,12 @@
       <c r="A63" s="13"/>
       <c r="B63" s="80"/>
       <c r="C63" s="216"/>
-      <c r="D63" s="323"/>
-      <c r="E63" s="324"/>
-      <c r="F63" s="324"/>
-      <c r="G63" s="324"/>
-      <c r="H63" s="324"/>
-      <c r="I63" s="325"/>
+      <c r="D63" s="348"/>
+      <c r="E63" s="349"/>
+      <c r="F63" s="349"/>
+      <c r="G63" s="349"/>
+      <c r="H63" s="349"/>
+      <c r="I63" s="350"/>
       <c r="J63" s="216"/>
       <c r="K63" s="217"/>
       <c r="L63" s="216"/>
@@ -24845,16 +24855,16 @@
       <c r="A64" s="13"/>
       <c r="B64" s="80"/>
       <c r="C64" s="219"/>
-      <c r="D64" s="326"/>
-      <c r="E64" s="327"/>
-      <c r="F64" s="327"/>
-      <c r="G64" s="327"/>
-      <c r="H64" s="327"/>
-      <c r="I64" s="328"/>
-      <c r="J64" s="333"/>
-      <c r="K64" s="334"/>
-      <c r="L64" s="326"/>
-      <c r="M64" s="330"/>
+      <c r="D64" s="342"/>
+      <c r="E64" s="359"/>
+      <c r="F64" s="359"/>
+      <c r="G64" s="359"/>
+      <c r="H64" s="359"/>
+      <c r="I64" s="358"/>
+      <c r="J64" s="354"/>
+      <c r="K64" s="343"/>
+      <c r="L64" s="342"/>
+      <c r="M64" s="356"/>
     </row>
     <row r="65" spans="1:15" s="165" customFormat="1" ht="16.5" customHeight="1"/>
     <row r="66" spans="1:15" ht="16.5" customHeight="1">
@@ -25100,13 +25110,13 @@
     <row r="80" spans="1:15" ht="16.5" customHeight="1">
       <c r="A80" s="13"/>
       <c r="B80" s="66"/>
-      <c r="C80" s="320"/>
-      <c r="D80" s="321"/>
-      <c r="E80" s="321"/>
-      <c r="F80" s="321"/>
-      <c r="G80" s="321"/>
-      <c r="H80" s="321"/>
-      <c r="I80" s="322"/>
+      <c r="C80" s="351"/>
+      <c r="D80" s="352"/>
+      <c r="E80" s="352"/>
+      <c r="F80" s="352"/>
+      <c r="G80" s="352"/>
+      <c r="H80" s="352"/>
+      <c r="I80" s="353"/>
       <c r="J80" s="66"/>
       <c r="K80" s="80"/>
       <c r="L80" s="80"/>
@@ -25117,13 +25127,13 @@
     <row r="81" spans="1:15" ht="16.5" customHeight="1">
       <c r="A81" s="13"/>
       <c r="B81" s="66"/>
-      <c r="C81" s="320"/>
-      <c r="D81" s="321"/>
-      <c r="E81" s="321"/>
-      <c r="F81" s="321"/>
-      <c r="G81" s="321"/>
-      <c r="H81" s="321"/>
-      <c r="I81" s="322"/>
+      <c r="C81" s="351"/>
+      <c r="D81" s="352"/>
+      <c r="E81" s="352"/>
+      <c r="F81" s="352"/>
+      <c r="G81" s="352"/>
+      <c r="H81" s="352"/>
+      <c r="I81" s="353"/>
       <c r="J81" s="66"/>
       <c r="K81" s="80"/>
       <c r="L81" s="80"/>
@@ -25543,37 +25553,6 @@
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="C81:I81"/>
-    <mergeCell ref="D62:I62"/>
-    <mergeCell ref="D63:I63"/>
-    <mergeCell ref="D64:I64"/>
-    <mergeCell ref="J64:K64"/>
-    <mergeCell ref="L64:M64"/>
-    <mergeCell ref="C80:I80"/>
-    <mergeCell ref="D60:I60"/>
-    <mergeCell ref="J60:K60"/>
-    <mergeCell ref="L60:M60"/>
-    <mergeCell ref="D61:I61"/>
-    <mergeCell ref="J61:K61"/>
-    <mergeCell ref="L61:M61"/>
-    <mergeCell ref="D57:I57"/>
-    <mergeCell ref="D58:I58"/>
-    <mergeCell ref="L58:M58"/>
-    <mergeCell ref="D59:I59"/>
-    <mergeCell ref="J59:K59"/>
-    <mergeCell ref="L59:M59"/>
-    <mergeCell ref="L53:M53"/>
-    <mergeCell ref="D54:I54"/>
-    <mergeCell ref="D55:I55"/>
-    <mergeCell ref="D56:I56"/>
-    <mergeCell ref="J56:K56"/>
-    <mergeCell ref="L56:M56"/>
-    <mergeCell ref="J53:K53"/>
-    <mergeCell ref="C46:G46"/>
-    <mergeCell ref="C47:G47"/>
-    <mergeCell ref="C48:G48"/>
-    <mergeCell ref="C49:G49"/>
-    <mergeCell ref="D53:I53"/>
     <mergeCell ref="E17:F17"/>
     <mergeCell ref="C34:M34"/>
     <mergeCell ref="C44:G44"/>
@@ -25584,6 +25563,37 @@
     <mergeCell ref="G12:H14"/>
     <mergeCell ref="E15:F15"/>
     <mergeCell ref="E16:F16"/>
+    <mergeCell ref="C46:G46"/>
+    <mergeCell ref="C47:G47"/>
+    <mergeCell ref="C48:G48"/>
+    <mergeCell ref="C49:G49"/>
+    <mergeCell ref="D53:I53"/>
+    <mergeCell ref="L53:M53"/>
+    <mergeCell ref="D54:I54"/>
+    <mergeCell ref="D55:I55"/>
+    <mergeCell ref="D56:I56"/>
+    <mergeCell ref="J56:K56"/>
+    <mergeCell ref="L56:M56"/>
+    <mergeCell ref="J53:K53"/>
+    <mergeCell ref="D57:I57"/>
+    <mergeCell ref="D58:I58"/>
+    <mergeCell ref="L58:M58"/>
+    <mergeCell ref="D59:I59"/>
+    <mergeCell ref="J59:K59"/>
+    <mergeCell ref="L59:M59"/>
+    <mergeCell ref="L64:M64"/>
+    <mergeCell ref="C80:I80"/>
+    <mergeCell ref="D60:I60"/>
+    <mergeCell ref="J60:K60"/>
+    <mergeCell ref="L60:M60"/>
+    <mergeCell ref="D61:I61"/>
+    <mergeCell ref="J61:K61"/>
+    <mergeCell ref="L61:M61"/>
+    <mergeCell ref="C81:I81"/>
+    <mergeCell ref="D62:I62"/>
+    <mergeCell ref="D63:I63"/>
+    <mergeCell ref="D64:I64"/>
+    <mergeCell ref="J64:K64"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="1">
@@ -26446,7 +26456,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="2" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A1" s="316" t="s">
+      <c r="A1" s="318" t="s">
         <v>4</v>
       </c>
       <c r="B1" s="1"/>
@@ -26457,7 +26467,7 @@
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:16" s="2" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A2" s="317"/>
+      <c r="A2" s="319"/>
       <c r="B2" s="3" t="s">
         <v>15</v>
       </c>
@@ -26468,18 +26478,18 @@
       <c r="G2" s="4"/>
     </row>
     <row r="3" spans="1:16" s="6" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A3" s="317"/>
+      <c r="A3" s="319"/>
       <c r="G3" s="81"/>
     </row>
     <row r="4" spans="1:16" s="6" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A4" s="317"/>
+      <c r="A4" s="319"/>
       <c r="B4" s="7" t="s">
         <v>16</v>
       </c>
       <c r="G4" s="81"/>
     </row>
     <row r="5" spans="1:16" s="10" customFormat="1" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A5" s="318"/>
+      <c r="A5" s="320"/>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
@@ -26494,20 +26504,20 @@
       <c r="B6" s="95" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="369" t="s">
-        <v>370</v>
-      </c>
-      <c r="D6" s="370"/>
-      <c r="E6" s="371" t="s">
+      <c r="C6" s="375" t="s">
+        <v>367</v>
+      </c>
+      <c r="D6" s="376"/>
+      <c r="E6" s="377" t="s">
         <v>251</v>
       </c>
-      <c r="F6" s="372"/>
-      <c r="G6" s="373"/>
+      <c r="F6" s="378"/>
+      <c r="G6" s="379"/>
       <c r="H6" s="82" t="s">
         <v>1</v>
       </c>
       <c r="I6" s="139" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="J6" s="138"/>
       <c r="K6" s="82" t="s">
@@ -26550,16 +26560,16 @@
     <row r="9" spans="1:16" ht="15" customHeight="1">
       <c r="A9" s="13"/>
       <c r="B9" s="71"/>
-      <c r="C9" s="374" t="s">
-        <v>371</v>
-      </c>
-      <c r="D9" s="375" t="s">
-        <v>376</v>
-      </c>
-      <c r="E9" s="374" t="s">
-        <v>377</v>
-      </c>
-      <c r="F9" s="374"/>
+      <c r="C9" s="369" t="s">
+        <v>368</v>
+      </c>
+      <c r="D9" s="370" t="s">
+        <v>373</v>
+      </c>
+      <c r="E9" s="369" t="s">
+        <v>374</v>
+      </c>
+      <c r="F9" s="369"/>
       <c r="G9" s="16"/>
       <c r="H9" s="16"/>
       <c r="I9" s="16"/>
@@ -26571,10 +26581,10 @@
     <row r="10" spans="1:16" ht="15" customHeight="1">
       <c r="A10" s="13"/>
       <c r="B10" s="71"/>
-      <c r="C10" s="374"/>
-      <c r="D10" s="375"/>
-      <c r="E10" s="374"/>
-      <c r="F10" s="374"/>
+      <c r="C10" s="369"/>
+      <c r="D10" s="370"/>
+      <c r="E10" s="369"/>
+      <c r="F10" s="369"/>
       <c r="G10" s="16"/>
       <c r="H10" s="16"/>
       <c r="I10" s="16"/>
@@ -26698,23 +26708,23 @@
       <c r="A18" s="13"/>
       <c r="B18" s="83"/>
       <c r="C18" s="194" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="D18" s="225"/>
-      <c r="E18" s="376" t="s">
-        <v>372</v>
-      </c>
-      <c r="F18" s="376"/>
+      <c r="E18" s="371" t="s">
+        <v>369</v>
+      </c>
+      <c r="F18" s="371"/>
       <c r="G18" s="150"/>
       <c r="H18" s="150"/>
       <c r="I18" s="301" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="J18" s="152"/>
-      <c r="K18" s="367" t="s">
-        <v>375</v>
-      </c>
-      <c r="L18" s="368"/>
+      <c r="K18" s="373" t="s">
+        <v>372</v>
+      </c>
+      <c r="L18" s="374"/>
       <c r="M18" s="137"/>
       <c r="N18" s="153"/>
       <c r="O18" s="223"/>
@@ -26732,10 +26742,10 @@
       <c r="I19" s="301"/>
       <c r="J19" s="152"/>
       <c r="K19" s="307" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="L19" s="308" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="M19" s="137"/>
       <c r="N19" s="153"/>
@@ -26907,8 +26917,8 @@
     <row r="29" spans="1:16" ht="15" customHeight="1">
       <c r="A29" s="13"/>
       <c r="B29" s="83"/>
-      <c r="C29" s="377"/>
-      <c r="D29" s="377"/>
+      <c r="C29" s="372"/>
+      <c r="D29" s="372"/>
       <c r="E29" s="224"/>
       <c r="F29" s="224"/>
       <c r="G29" s="150"/>
@@ -27684,10 +27694,10 @@
       <c r="C72" s="149"/>
       <c r="D72" s="225"/>
       <c r="E72" s="224"/>
-      <c r="F72" s="365"/>
-      <c r="G72" s="365"/>
-      <c r="H72" s="366"/>
-      <c r="I72" s="366"/>
+      <c r="F72" s="367"/>
+      <c r="G72" s="367"/>
+      <c r="H72" s="368"/>
+      <c r="I72" s="368"/>
       <c r="J72" s="152"/>
       <c r="K72" s="151"/>
       <c r="L72" s="151"/>
@@ -27925,17 +27935,17 @@
       <c r="B86" s="164" t="s">
         <v>43</v>
       </c>
-      <c r="C86" s="344"/>
-      <c r="D86" s="345"/>
-      <c r="E86" s="345"/>
-      <c r="F86" s="345"/>
-      <c r="G86" s="345"/>
-      <c r="H86" s="345"/>
-      <c r="I86" s="345"/>
-      <c r="J86" s="345"/>
-      <c r="K86" s="345"/>
-      <c r="L86" s="345"/>
-      <c r="M86" s="345"/>
+      <c r="C86" s="326"/>
+      <c r="D86" s="327"/>
+      <c r="E86" s="327"/>
+      <c r="F86" s="327"/>
+      <c r="G86" s="327"/>
+      <c r="H86" s="327"/>
+      <c r="I86" s="327"/>
+      <c r="J86" s="327"/>
+      <c r="K86" s="327"/>
+      <c r="L86" s="327"/>
+      <c r="M86" s="327"/>
     </row>
     <row r="87" spans="1:16" ht="16.5" customHeight="1">
       <c r="A87" s="13"/>
@@ -27943,7 +27953,7 @@
         <v>27</v>
       </c>
       <c r="C87" s="213" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D87" s="214"/>
       <c r="E87" s="214"/>
@@ -28067,11 +28077,11 @@
     </row>
     <row r="96" spans="1:16" s="250" customFormat="1" ht="16.5" customHeight="1">
       <c r="B96" s="168"/>
-      <c r="C96" s="323"/>
-      <c r="D96" s="324"/>
-      <c r="E96" s="324"/>
-      <c r="F96" s="324"/>
-      <c r="G96" s="325"/>
+      <c r="C96" s="348"/>
+      <c r="D96" s="349"/>
+      <c r="E96" s="349"/>
+      <c r="F96" s="349"/>
+      <c r="G96" s="350"/>
       <c r="H96" s="251" t="s">
         <v>19</v>
       </c>
@@ -28086,11 +28096,11 @@
     <row r="97" spans="1:13" ht="16.5" customHeight="1">
       <c r="A97" s="13"/>
       <c r="B97" s="66"/>
-      <c r="C97" s="323"/>
-      <c r="D97" s="324"/>
-      <c r="E97" s="324"/>
-      <c r="F97" s="324"/>
-      <c r="G97" s="325"/>
+      <c r="C97" s="348"/>
+      <c r="D97" s="349"/>
+      <c r="E97" s="349"/>
+      <c r="F97" s="349"/>
+      <c r="G97" s="350"/>
       <c r="H97" s="12" t="s">
         <v>19</v>
       </c>
@@ -28104,11 +28114,11 @@
     </row>
     <row r="98" spans="1:13" s="250" customFormat="1" ht="16.5" customHeight="1">
       <c r="B98" s="168"/>
-      <c r="C98" s="323"/>
-      <c r="D98" s="324"/>
-      <c r="E98" s="324"/>
-      <c r="F98" s="324"/>
-      <c r="G98" s="325"/>
+      <c r="C98" s="348"/>
+      <c r="D98" s="349"/>
+      <c r="E98" s="349"/>
+      <c r="F98" s="349"/>
+      <c r="G98" s="350"/>
       <c r="H98" s="12" t="s">
         <v>19</v>
       </c>
@@ -28123,11 +28133,11 @@
     <row r="99" spans="1:13" ht="16.5" customHeight="1">
       <c r="A99" s="13"/>
       <c r="B99" s="66"/>
-      <c r="C99" s="323"/>
-      <c r="D99" s="324"/>
-      <c r="E99" s="324"/>
-      <c r="F99" s="324"/>
-      <c r="G99" s="325"/>
+      <c r="C99" s="348"/>
+      <c r="D99" s="349"/>
+      <c r="E99" s="349"/>
+      <c r="F99" s="349"/>
+      <c r="G99" s="350"/>
       <c r="H99" s="12" t="s">
         <v>19</v>
       </c>
@@ -28142,11 +28152,11 @@
     <row r="100" spans="1:13" ht="16.5" customHeight="1">
       <c r="A100" s="13"/>
       <c r="B100" s="66"/>
-      <c r="C100" s="323"/>
-      <c r="D100" s="324"/>
-      <c r="E100" s="324"/>
-      <c r="F100" s="324"/>
-      <c r="G100" s="325"/>
+      <c r="C100" s="348"/>
+      <c r="D100" s="349"/>
+      <c r="E100" s="349"/>
+      <c r="F100" s="349"/>
+      <c r="G100" s="350"/>
       <c r="H100" s="12" t="s">
         <v>19</v>
       </c>
@@ -28161,11 +28171,11 @@
     <row r="101" spans="1:13" ht="16.5" customHeight="1">
       <c r="A101" s="13"/>
       <c r="B101" s="66"/>
-      <c r="C101" s="323"/>
-      <c r="D101" s="324"/>
-      <c r="E101" s="324"/>
-      <c r="F101" s="324"/>
-      <c r="G101" s="325"/>
+      <c r="C101" s="348"/>
+      <c r="D101" s="349"/>
+      <c r="E101" s="349"/>
+      <c r="F101" s="349"/>
+      <c r="G101" s="350"/>
       <c r="H101" s="12" t="s">
         <v>19</v>
       </c>
@@ -28223,20 +28233,20 @@
         <v>1</v>
       </c>
       <c r="C105" s="216" t="s">
-        <v>378</v>
-      </c>
-      <c r="D105" s="326" t="s">
-        <v>379</v>
-      </c>
-      <c r="E105" s="331"/>
-      <c r="F105" s="331"/>
-      <c r="G105" s="331"/>
-      <c r="H105" s="331"/>
-      <c r="I105" s="332"/>
-      <c r="J105" s="333"/>
-      <c r="K105" s="337"/>
-      <c r="L105" s="326"/>
-      <c r="M105" s="334"/>
+        <v>375</v>
+      </c>
+      <c r="D105" s="342" t="s">
+        <v>376</v>
+      </c>
+      <c r="E105" s="344"/>
+      <c r="F105" s="344"/>
+      <c r="G105" s="344"/>
+      <c r="H105" s="344"/>
+      <c r="I105" s="345"/>
+      <c r="J105" s="354"/>
+      <c r="K105" s="341"/>
+      <c r="L105" s="342"/>
+      <c r="M105" s="343"/>
     </row>
     <row r="106" spans="1:13" ht="16.5" customHeight="1">
       <c r="A106" s="13"/>
@@ -28244,16 +28254,16 @@
         <v>2</v>
       </c>
       <c r="C106" s="216" t="s">
-        <v>380</v>
-      </c>
-      <c r="D106" s="323" t="s">
-        <v>381</v>
-      </c>
-      <c r="E106" s="324"/>
-      <c r="F106" s="324"/>
-      <c r="G106" s="324"/>
-      <c r="H106" s="324"/>
-      <c r="I106" s="325"/>
+        <v>377</v>
+      </c>
+      <c r="D106" s="348" t="s">
+        <v>378</v>
+      </c>
+      <c r="E106" s="349"/>
+      <c r="F106" s="349"/>
+      <c r="G106" s="349"/>
+      <c r="H106" s="349"/>
+      <c r="I106" s="350"/>
       <c r="J106" s="216"/>
       <c r="K106" s="254"/>
       <c r="L106" s="219"/>
@@ -28265,16 +28275,16 @@
         <v>3</v>
       </c>
       <c r="C107" s="216" t="s">
-        <v>382</v>
-      </c>
-      <c r="D107" s="323" t="s">
-        <v>384</v>
-      </c>
-      <c r="E107" s="324"/>
-      <c r="F107" s="324"/>
-      <c r="G107" s="324"/>
-      <c r="H107" s="324"/>
-      <c r="I107" s="325"/>
+        <v>379</v>
+      </c>
+      <c r="D107" s="348" t="s">
+        <v>381</v>
+      </c>
+      <c r="E107" s="349"/>
+      <c r="F107" s="349"/>
+      <c r="G107" s="349"/>
+      <c r="H107" s="349"/>
+      <c r="I107" s="350"/>
       <c r="J107" s="216"/>
       <c r="K107" s="254"/>
       <c r="L107" s="219"/>
@@ -28286,16 +28296,16 @@
         <v>4</v>
       </c>
       <c r="C108" s="216" t="s">
-        <v>383</v>
-      </c>
-      <c r="D108" s="323" t="s">
-        <v>385</v>
-      </c>
-      <c r="E108" s="324"/>
-      <c r="F108" s="324"/>
-      <c r="G108" s="324"/>
-      <c r="H108" s="324"/>
-      <c r="I108" s="325"/>
+        <v>380</v>
+      </c>
+      <c r="D108" s="348" t="s">
+        <v>382</v>
+      </c>
+      <c r="E108" s="349"/>
+      <c r="F108" s="349"/>
+      <c r="G108" s="349"/>
+      <c r="H108" s="349"/>
+      <c r="I108" s="350"/>
       <c r="J108" s="216"/>
       <c r="K108" s="254"/>
       <c r="L108" s="219"/>
@@ -28307,16 +28317,16 @@
         <v>5</v>
       </c>
       <c r="C109" s="216" t="s">
-        <v>386</v>
-      </c>
-      <c r="D109" s="323" t="s">
-        <v>387</v>
-      </c>
-      <c r="E109" s="324"/>
-      <c r="F109" s="324"/>
-      <c r="G109" s="324"/>
-      <c r="H109" s="324"/>
-      <c r="I109" s="325"/>
+        <v>383</v>
+      </c>
+      <c r="D109" s="348" t="s">
+        <v>384</v>
+      </c>
+      <c r="E109" s="349"/>
+      <c r="F109" s="349"/>
+      <c r="G109" s="349"/>
+      <c r="H109" s="349"/>
+      <c r="I109" s="350"/>
       <c r="J109" s="216"/>
       <c r="K109" s="254"/>
       <c r="L109" s="219"/>
@@ -28328,16 +28338,16 @@
         <v>6</v>
       </c>
       <c r="C110" s="216" t="s">
-        <v>388</v>
-      </c>
-      <c r="D110" s="323" t="s">
-        <v>389</v>
-      </c>
-      <c r="E110" s="324"/>
-      <c r="F110" s="324"/>
-      <c r="G110" s="324"/>
-      <c r="H110" s="324"/>
-      <c r="I110" s="325"/>
+        <v>385</v>
+      </c>
+      <c r="D110" s="348" t="s">
+        <v>386</v>
+      </c>
+      <c r="E110" s="349"/>
+      <c r="F110" s="349"/>
+      <c r="G110" s="349"/>
+      <c r="H110" s="349"/>
+      <c r="I110" s="350"/>
       <c r="J110" s="216"/>
       <c r="K110" s="254"/>
       <c r="L110" s="219"/>
@@ -28349,24 +28359,24 @@
         <v>7</v>
       </c>
       <c r="C111" s="216" t="s">
-        <v>390</v>
-      </c>
-      <c r="D111" s="323" t="s">
-        <v>391</v>
-      </c>
-      <c r="E111" s="324"/>
-      <c r="F111" s="324"/>
-      <c r="G111" s="324"/>
-      <c r="H111" s="324"/>
-      <c r="I111" s="325"/>
-      <c r="J111" s="320" t="s">
+        <v>387</v>
+      </c>
+      <c r="D111" s="348" t="s">
+        <v>388</v>
+      </c>
+      <c r="E111" s="349"/>
+      <c r="F111" s="349"/>
+      <c r="G111" s="349"/>
+      <c r="H111" s="349"/>
+      <c r="I111" s="350"/>
+      <c r="J111" s="351" t="s">
         <v>134</v>
       </c>
-      <c r="K111" s="322"/>
-      <c r="L111" s="323" t="s">
-        <v>395</v>
-      </c>
-      <c r="M111" s="325"/>
+      <c r="K111" s="353"/>
+      <c r="L111" s="348" t="s">
+        <v>392</v>
+      </c>
+      <c r="M111" s="350"/>
     </row>
     <row r="112" spans="1:13" ht="16.5" customHeight="1">
       <c r="A112" s="13"/>
@@ -28374,16 +28384,16 @@
         <v>8</v>
       </c>
       <c r="C112" s="216" t="s">
-        <v>392</v>
-      </c>
-      <c r="D112" s="323" t="s">
-        <v>393</v>
-      </c>
-      <c r="E112" s="324"/>
-      <c r="F112" s="324"/>
-      <c r="G112" s="324"/>
-      <c r="H112" s="324"/>
-      <c r="I112" s="325"/>
+        <v>389</v>
+      </c>
+      <c r="D112" s="348" t="s">
+        <v>390</v>
+      </c>
+      <c r="E112" s="349"/>
+      <c r="F112" s="349"/>
+      <c r="G112" s="349"/>
+      <c r="H112" s="349"/>
+      <c r="I112" s="350"/>
       <c r="J112" s="216"/>
       <c r="K112" s="254"/>
       <c r="L112" s="219"/>
@@ -28393,12 +28403,12 @@
       <c r="A113" s="13"/>
       <c r="B113" s="80"/>
       <c r="C113" s="216"/>
-      <c r="D113" s="323"/>
-      <c r="E113" s="324"/>
-      <c r="F113" s="324"/>
-      <c r="G113" s="324"/>
-      <c r="H113" s="324"/>
-      <c r="I113" s="325"/>
+      <c r="D113" s="348"/>
+      <c r="E113" s="349"/>
+      <c r="F113" s="349"/>
+      <c r="G113" s="349"/>
+      <c r="H113" s="349"/>
+      <c r="I113" s="350"/>
       <c r="J113" s="216"/>
       <c r="K113" s="254"/>
       <c r="L113" s="219"/>
@@ -28408,12 +28418,12 @@
       <c r="A114" s="13"/>
       <c r="B114" s="80"/>
       <c r="C114" s="216"/>
-      <c r="D114" s="323"/>
-      <c r="E114" s="324"/>
-      <c r="F114" s="324"/>
-      <c r="G114" s="324"/>
-      <c r="H114" s="324"/>
-      <c r="I114" s="325"/>
+      <c r="D114" s="348"/>
+      <c r="E114" s="349"/>
+      <c r="F114" s="349"/>
+      <c r="G114" s="349"/>
+      <c r="H114" s="349"/>
+      <c r="I114" s="350"/>
       <c r="J114" s="216"/>
       <c r="K114" s="217"/>
       <c r="L114" s="216"/>
@@ -28423,16 +28433,16 @@
       <c r="A115" s="13"/>
       <c r="B115" s="80"/>
       <c r="C115" s="219"/>
-      <c r="D115" s="326"/>
-      <c r="E115" s="327"/>
-      <c r="F115" s="327"/>
-      <c r="G115" s="327"/>
-      <c r="H115" s="327"/>
-      <c r="I115" s="328"/>
-      <c r="J115" s="333"/>
-      <c r="K115" s="334"/>
-      <c r="L115" s="326"/>
-      <c r="M115" s="330"/>
+      <c r="D115" s="342"/>
+      <c r="E115" s="359"/>
+      <c r="F115" s="359"/>
+      <c r="G115" s="359"/>
+      <c r="H115" s="359"/>
+      <c r="I115" s="358"/>
+      <c r="J115" s="354"/>
+      <c r="K115" s="343"/>
+      <c r="L115" s="342"/>
+      <c r="M115" s="356"/>
     </row>
     <row r="116" spans="1:15" s="165" customFormat="1" ht="16.5" customHeight="1"/>
     <row r="117" spans="1:15" ht="16.5" customHeight="1">
@@ -28472,19 +28482,19 @@
     <row r="119" spans="1:15" ht="16.5" customHeight="1">
       <c r="A119" s="13"/>
       <c r="B119" s="66" t="s">
-        <v>396</v>
-      </c>
-      <c r="C119" s="323"/>
-      <c r="D119" s="321"/>
-      <c r="E119" s="321"/>
-      <c r="F119" s="321"/>
-      <c r="G119" s="321"/>
-      <c r="H119" s="321"/>
-      <c r="I119" s="322"/>
+        <v>393</v>
+      </c>
+      <c r="C119" s="348"/>
+      <c r="D119" s="352"/>
+      <c r="E119" s="352"/>
+      <c r="F119" s="352"/>
+      <c r="G119" s="352"/>
+      <c r="H119" s="352"/>
+      <c r="I119" s="353"/>
       <c r="J119" s="66"/>
       <c r="K119" s="80"/>
       <c r="L119" s="80" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="M119" s="66"/>
       <c r="N119" s="116"/>
@@ -28495,7 +28505,7 @@
         <v>13</v>
       </c>
       <c r="B120" s="66" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="C120" s="216"/>
       <c r="D120" s="221"/>
@@ -28507,7 +28517,7 @@
       <c r="J120" s="66"/>
       <c r="K120" s="80"/>
       <c r="L120" s="80" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="M120" s="66"/>
       <c r="N120" s="116"/>
@@ -28516,7 +28526,7 @@
     <row r="121" spans="1:15" ht="16.5" customHeight="1">
       <c r="A121" s="13"/>
       <c r="B121" s="66" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="C121" s="216"/>
       <c r="D121" s="221"/>
@@ -28528,7 +28538,7 @@
       <c r="J121" s="66"/>
       <c r="K121" s="80"/>
       <c r="L121" s="80" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="M121" s="66"/>
       <c r="N121" s="116"/>
@@ -28537,7 +28547,7 @@
     <row r="122" spans="1:15" ht="16.5" customHeight="1">
       <c r="A122" s="13"/>
       <c r="B122" s="66" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="C122" s="216"/>
       <c r="D122" s="221"/>
@@ -28549,7 +28559,7 @@
       <c r="J122" s="66"/>
       <c r="K122" s="80"/>
       <c r="L122" s="80" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="M122" s="66"/>
       <c r="N122" s="116"/>
@@ -28558,7 +28568,7 @@
     <row r="123" spans="1:15" ht="16.5" customHeight="1">
       <c r="A123" s="13"/>
       <c r="B123" s="66" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="C123" s="216"/>
       <c r="D123" s="221"/>
@@ -28570,7 +28580,7 @@
       <c r="J123" s="66"/>
       <c r="K123" s="80"/>
       <c r="L123" s="80" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="M123" s="66"/>
       <c r="N123" s="116"/>
@@ -28698,13 +28708,13 @@
     <row r="131" spans="1:15" ht="16.5" customHeight="1">
       <c r="A131" s="13"/>
       <c r="B131" s="66"/>
-      <c r="C131" s="320"/>
-      <c r="D131" s="321"/>
-      <c r="E131" s="321"/>
-      <c r="F131" s="321"/>
-      <c r="G131" s="321"/>
-      <c r="H131" s="321"/>
-      <c r="I131" s="322"/>
+      <c r="C131" s="351"/>
+      <c r="D131" s="352"/>
+      <c r="E131" s="352"/>
+      <c r="F131" s="352"/>
+      <c r="G131" s="352"/>
+      <c r="H131" s="352"/>
+      <c r="I131" s="353"/>
       <c r="J131" s="66"/>
       <c r="K131" s="80"/>
       <c r="L131" s="80"/>
@@ -28715,13 +28725,13 @@
     <row r="132" spans="1:15" ht="16.5" customHeight="1">
       <c r="A132" s="13"/>
       <c r="B132" s="66"/>
-      <c r="C132" s="320"/>
-      <c r="D132" s="321"/>
-      <c r="E132" s="321"/>
-      <c r="F132" s="321"/>
-      <c r="G132" s="321"/>
-      <c r="H132" s="321"/>
-      <c r="I132" s="322"/>
+      <c r="C132" s="351"/>
+      <c r="D132" s="352"/>
+      <c r="E132" s="352"/>
+      <c r="F132" s="352"/>
+      <c r="G132" s="352"/>
+      <c r="H132" s="352"/>
+      <c r="I132" s="353"/>
       <c r="J132" s="66"/>
       <c r="K132" s="80"/>
       <c r="L132" s="80"/>
@@ -29141,15 +29151,19 @@
     </row>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="L111:M111"/>
-    <mergeCell ref="J111:K111"/>
-    <mergeCell ref="C119:I119"/>
-    <mergeCell ref="D110:I110"/>
-    <mergeCell ref="D111:I111"/>
-    <mergeCell ref="D112:I112"/>
-    <mergeCell ref="D113:I113"/>
-    <mergeCell ref="J115:K115"/>
-    <mergeCell ref="L115:M115"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="A1:A5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="L105:M105"/>
+    <mergeCell ref="J105:K105"/>
+    <mergeCell ref="D108:I108"/>
+    <mergeCell ref="D109:I109"/>
+    <mergeCell ref="C98:G98"/>
+    <mergeCell ref="C99:G99"/>
+    <mergeCell ref="C100:G100"/>
+    <mergeCell ref="C101:G101"/>
+    <mergeCell ref="D105:I105"/>
     <mergeCell ref="C132:I132"/>
     <mergeCell ref="C9:C10"/>
     <mergeCell ref="D9:D10"/>
@@ -29166,19 +29180,15 @@
     <mergeCell ref="C86:M86"/>
     <mergeCell ref="C96:G96"/>
     <mergeCell ref="C97:G97"/>
-    <mergeCell ref="D108:I108"/>
-    <mergeCell ref="D109:I109"/>
-    <mergeCell ref="C98:G98"/>
-    <mergeCell ref="C99:G99"/>
-    <mergeCell ref="C100:G100"/>
-    <mergeCell ref="C101:G101"/>
-    <mergeCell ref="D105:I105"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="A1:A5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="L105:M105"/>
-    <mergeCell ref="J105:K105"/>
+    <mergeCell ref="L111:M111"/>
+    <mergeCell ref="J111:K111"/>
+    <mergeCell ref="C119:I119"/>
+    <mergeCell ref="D110:I110"/>
+    <mergeCell ref="D111:I111"/>
+    <mergeCell ref="D112:I112"/>
+    <mergeCell ref="D113:I113"/>
+    <mergeCell ref="J115:K115"/>
+    <mergeCell ref="L115:M115"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="1">

--- a/doc/sfs/sej/기본설계서_REDBULL_서은정_20190924.xlsx
+++ b/doc/sfs/sej/기본설계서_REDBULL_서은정_20190924.xlsx
@@ -180,7 +180,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1049" uniqueCount="402">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1050" uniqueCount="403">
   <si>
     <t>구분</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1798,6 +1798,10 @@
   </si>
   <si>
     <t>*주소</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>User에 통합해서 작성</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2153,7 +2157,7 @@
       <charset val="129"/>
     </font>
   </fonts>
-  <fills count="19">
+  <fills count="20">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2262,8 +2266,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="53">
+  <borders count="55">
     <border>
       <left/>
       <right/>
@@ -2893,6 +2903,28 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -2950,7 +2982,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="380">
+  <cellXfs count="400">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -3714,15 +3746,6 @@
     <xf numFmtId="14" fontId="12" fillId="18" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="12" fillId="18" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="12" fillId="18" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="12" fillId="18" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="12" fillId="18" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3737,15 +3760,6 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="18" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="12" fillId="18" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="12" fillId="18" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="18" borderId="7" xfId="34" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
@@ -3825,6 +3839,66 @@
     <xf numFmtId="0" fontId="40" fillId="14" borderId="43" xfId="34" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="justify" textRotation="90"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
@@ -3875,65 +3949,14 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="26" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3944,15 +3967,6 @@
     <xf numFmtId="0" fontId="12" fillId="16" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3962,6 +3976,27 @@
     <xf numFmtId="14" fontId="48" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
+    <xf numFmtId="3" fontId="49" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="49" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="7" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="7" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="7" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3974,26 +4009,83 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="3" fontId="49" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="49" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="13" fillId="7" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="13" fillId="7" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="13" fillId="7" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="12" fillId="19" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="43" fillId="19" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="43" fillId="19" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="43" fillId="19" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="43" fillId="19" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="43" fillId="19" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="43" fillId="19" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="43" fillId="19" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="43" fillId="19" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="43" fillId="19" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="35">
@@ -8527,7 +8619,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A1" s="318"/>
+      <c r="A1" s="312"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -8543,7 +8635,7 @@
       <c r="N1" s="1"/>
     </row>
     <row r="2" spans="1:14" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A2" s="319"/>
+      <c r="A2" s="313"/>
       <c r="B2" s="3" t="s">
         <v>10</v>
       </c>
@@ -8561,21 +8653,21 @@
       <c r="N2" s="4"/>
     </row>
     <row r="3" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1">
-      <c r="A3" s="319"/>
+      <c r="A3" s="313"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
     </row>
     <row r="4" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1">
-      <c r="A4" s="319"/>
+      <c r="A4" s="313"/>
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
     <row r="5" spans="1:14" s="10" customFormat="1" ht="15" customHeight="1" thickBot="1">
-      <c r="A5" s="320"/>
+      <c r="A5" s="314"/>
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
@@ -8845,8 +8937,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:AS76"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A25" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A16" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1"/>
@@ -8880,7 +8972,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:45" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A1" s="321" t="s">
+      <c r="A1" s="315" t="s">
         <v>61</v>
       </c>
       <c r="B1" s="1"/>
@@ -8893,7 +8985,7 @@
       <c r="I1" s="1"/>
     </row>
     <row r="2" spans="1:45" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A2" s="319"/>
+      <c r="A2" s="313"/>
       <c r="B2" s="3" t="s">
         <v>62</v>
       </c>
@@ -8906,14 +8998,14 @@
       <c r="I2" s="4"/>
     </row>
     <row r="3" spans="1:45" s="6" customFormat="1" ht="15" customHeight="1">
-      <c r="A3" s="319"/>
+      <c r="A3" s="313"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
     </row>
     <row r="4" spans="1:45" s="6" customFormat="1" ht="15" customHeight="1">
-      <c r="A4" s="319"/>
+      <c r="A4" s="313"/>
       <c r="B4" s="7" t="s">
         <v>63</v>
       </c>
@@ -8922,7 +9014,7 @@
       <c r="E4" s="7"/>
     </row>
     <row r="5" spans="1:45" s="10" customFormat="1" ht="15" customHeight="1" thickBot="1">
-      <c r="A5" s="320"/>
+      <c r="A5" s="314"/>
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
@@ -10639,7 +10731,7 @@
       <c r="AR28" s="53"/>
       <c r="AS28" s="53"/>
     </row>
-    <row r="29" spans="1:45" s="286" customFormat="1" ht="15" customHeight="1">
+    <row r="29" spans="1:45" s="283" customFormat="1" ht="15" customHeight="1">
       <c r="A29" s="267"/>
       <c r="B29" s="268"/>
       <c r="C29" s="269"/>
@@ -10653,7 +10745,7 @@
       <c r="I29" s="274"/>
       <c r="J29" s="272"/>
       <c r="K29" s="274"/>
-      <c r="L29" s="288" t="s">
+      <c r="L29" s="285" t="s">
         <v>250</v>
       </c>
       <c r="M29" s="273"/>
@@ -10711,20 +10803,36 @@
       <c r="AG29" s="280">
         <v>43735</v>
       </c>
-      <c r="AH29" s="289"/>
-      <c r="AI29" s="289"/>
-      <c r="AJ29" s="289"/>
-      <c r="AK29" s="289"/>
-      <c r="AL29" s="289"/>
-      <c r="AM29" s="290"/>
-      <c r="AN29" s="280"/>
-      <c r="AO29" s="284"/>
-      <c r="AP29" s="285"/>
-      <c r="AQ29" s="285"/>
-      <c r="AR29" s="285"/>
-      <c r="AS29" s="285"/>
-    </row>
-    <row r="30" spans="1:45" s="286" customFormat="1" ht="15" customHeight="1">
+      <c r="AH29" s="280">
+        <v>43707</v>
+      </c>
+      <c r="AI29" s="280">
+        <v>43767</v>
+      </c>
+      <c r="AJ29" s="280">
+        <v>43733</v>
+      </c>
+      <c r="AK29" s="280">
+        <v>43734</v>
+      </c>
+      <c r="AL29" s="280">
+        <v>43735</v>
+      </c>
+      <c r="AM29" s="280">
+        <v>43735</v>
+      </c>
+      <c r="AN29" s="280">
+        <v>43735</v>
+      </c>
+      <c r="AO29" s="280">
+        <v>43735</v>
+      </c>
+      <c r="AP29" s="282"/>
+      <c r="AQ29" s="282"/>
+      <c r="AR29" s="282"/>
+      <c r="AS29" s="282"/>
+    </row>
+    <row r="30" spans="1:45" s="283" customFormat="1" ht="15" customHeight="1">
       <c r="A30" s="267"/>
       <c r="B30" s="268"/>
       <c r="C30" s="269"/>
@@ -10738,7 +10846,7 @@
       <c r="I30" s="274"/>
       <c r="J30" s="272"/>
       <c r="K30" s="274"/>
-      <c r="L30" s="288" t="s">
+      <c r="L30" s="285" t="s">
         <v>250</v>
       </c>
       <c r="M30" s="273"/>
@@ -10792,20 +10900,36 @@
       <c r="AG30" s="280">
         <v>43735</v>
       </c>
-      <c r="AH30" s="289"/>
-      <c r="AI30" s="289"/>
-      <c r="AJ30" s="289"/>
-      <c r="AK30" s="289"/>
-      <c r="AL30" s="289"/>
-      <c r="AM30" s="290"/>
-      <c r="AN30" s="280"/>
-      <c r="AO30" s="284"/>
-      <c r="AP30" s="285"/>
-      <c r="AQ30" s="285"/>
-      <c r="AR30" s="285"/>
-      <c r="AS30" s="285"/>
-    </row>
-    <row r="31" spans="1:45" s="286" customFormat="1" ht="15" customHeight="1">
+      <c r="AH30" s="280">
+        <v>43707</v>
+      </c>
+      <c r="AI30" s="280">
+        <v>43767</v>
+      </c>
+      <c r="AJ30" s="280">
+        <v>43733</v>
+      </c>
+      <c r="AK30" s="280">
+        <v>43734</v>
+      </c>
+      <c r="AL30" s="280">
+        <v>43735</v>
+      </c>
+      <c r="AM30" s="280">
+        <v>43735</v>
+      </c>
+      <c r="AN30" s="280">
+        <v>43735</v>
+      </c>
+      <c r="AO30" s="280">
+        <v>43735</v>
+      </c>
+      <c r="AP30" s="282"/>
+      <c r="AQ30" s="282"/>
+      <c r="AR30" s="282"/>
+      <c r="AS30" s="282"/>
+    </row>
+    <row r="31" spans="1:45" s="283" customFormat="1" ht="15" customHeight="1">
       <c r="A31" s="267"/>
       <c r="B31" s="268"/>
       <c r="C31" s="269"/>
@@ -10819,7 +10943,7 @@
       <c r="I31" s="274"/>
       <c r="J31" s="272"/>
       <c r="K31" s="274"/>
-      <c r="L31" s="288" t="s">
+      <c r="L31" s="285" t="s">
         <v>250</v>
       </c>
       <c r="M31" s="273"/>
@@ -10871,263 +10995,281 @@
       <c r="AG31" s="280">
         <v>43735</v>
       </c>
-      <c r="AH31" s="289"/>
-      <c r="AI31" s="289"/>
-      <c r="AJ31" s="289"/>
-      <c r="AK31" s="289"/>
-      <c r="AL31" s="289"/>
-      <c r="AM31" s="290"/>
-      <c r="AN31" s="280"/>
-      <c r="AO31" s="284"/>
-      <c r="AP31" s="285"/>
-      <c r="AQ31" s="285"/>
-      <c r="AR31" s="285"/>
-      <c r="AS31" s="285"/>
-    </row>
-    <row r="32" spans="1:45" s="286" customFormat="1" ht="15" customHeight="1">
-      <c r="A32" s="267"/>
-      <c r="B32" s="268"/>
-      <c r="C32" s="269"/>
-      <c r="D32" s="270"/>
-      <c r="E32" s="269"/>
-      <c r="F32" s="271" t="s">
+      <c r="AH31" s="280">
+        <v>43707</v>
+      </c>
+      <c r="AI31" s="280">
+        <v>43767</v>
+      </c>
+      <c r="AJ31" s="280">
+        <v>43733</v>
+      </c>
+      <c r="AK31" s="280">
+        <v>43734</v>
+      </c>
+      <c r="AL31" s="280">
+        <v>43735</v>
+      </c>
+      <c r="AM31" s="280">
+        <v>43735</v>
+      </c>
+      <c r="AN31" s="280">
+        <v>43735</v>
+      </c>
+      <c r="AO31" s="280">
+        <v>43735</v>
+      </c>
+      <c r="AP31" s="282"/>
+      <c r="AQ31" s="282"/>
+      <c r="AR31" s="282"/>
+      <c r="AS31" s="282"/>
+    </row>
+    <row r="32" spans="1:45" s="390" customFormat="1" ht="15" customHeight="1">
+      <c r="A32" s="374"/>
+      <c r="B32" s="375"/>
+      <c r="C32" s="376"/>
+      <c r="D32" s="377"/>
+      <c r="E32" s="376"/>
+      <c r="F32" s="378" t="s">
         <v>249</v>
       </c>
-      <c r="G32" s="272"/>
-      <c r="H32" s="273"/>
-      <c r="I32" s="274"/>
-      <c r="J32" s="272"/>
-      <c r="K32" s="274"/>
-      <c r="L32" s="291" t="s">
+      <c r="G32" s="379"/>
+      <c r="H32" s="380"/>
+      <c r="I32" s="381"/>
+      <c r="J32" s="379"/>
+      <c r="K32" s="381"/>
+      <c r="L32" s="382" t="s">
         <v>233</v>
       </c>
-      <c r="M32" s="273"/>
-      <c r="N32" s="275"/>
-      <c r="O32" s="272" t="s">
+      <c r="M32" s="380"/>
+      <c r="N32" s="383"/>
+      <c r="O32" s="379" t="s">
         <v>179</v>
       </c>
-      <c r="P32" s="272" t="s">
+      <c r="P32" s="379" t="s">
         <v>234</v>
       </c>
-      <c r="Q32" s="268" t="s">
+      <c r="Q32" s="375" t="s">
         <v>235</v>
       </c>
-      <c r="R32" s="268" t="s">
+      <c r="R32" s="375" t="s">
         <v>236</v>
       </c>
-      <c r="S32" s="276" t="s">
+      <c r="S32" s="384" t="s">
         <v>233</v>
       </c>
-      <c r="T32" s="277"/>
-      <c r="U32" s="279" t="s">
+      <c r="T32" s="385"/>
+      <c r="U32" s="386" t="s">
         <v>228</v>
       </c>
-      <c r="V32" s="278"/>
-      <c r="W32" s="278" t="s">
+      <c r="V32" s="387"/>
+      <c r="W32" s="387" t="s">
         <v>229</v>
       </c>
-      <c r="X32" s="278" t="s">
+      <c r="X32" s="387" t="s">
         <v>229</v>
       </c>
-      <c r="Y32" s="279" t="s">
+      <c r="Y32" s="386" t="s">
         <v>229</v>
       </c>
-      <c r="Z32" s="280">
+      <c r="Z32" s="388">
         <v>43707</v>
       </c>
-      <c r="AA32" s="280">
+      <c r="AA32" s="388">
         <v>43767</v>
       </c>
-      <c r="AB32" s="280">
+      <c r="AB32" s="388">
         <v>43738</v>
       </c>
-      <c r="AC32" s="280">
+      <c r="AC32" s="388">
         <v>43740</v>
       </c>
-      <c r="AD32" s="280">
+      <c r="AD32" s="388">
         <v>43740</v>
       </c>
-      <c r="AE32" s="280">
+      <c r="AE32" s="388">
         <v>43740</v>
       </c>
-      <c r="AF32" s="280">
+      <c r="AF32" s="388">
         <v>43740</v>
       </c>
-      <c r="AG32" s="280">
+      <c r="AG32" s="388">
         <v>43740</v>
       </c>
-      <c r="AH32" s="289"/>
-      <c r="AI32" s="289"/>
-      <c r="AJ32" s="289"/>
-      <c r="AK32" s="289"/>
-      <c r="AL32" s="289"/>
-      <c r="AM32" s="290"/>
-      <c r="AN32" s="280"/>
-      <c r="AO32" s="284"/>
-      <c r="AP32" s="285"/>
-      <c r="AQ32" s="285"/>
-      <c r="AR32" s="285"/>
-      <c r="AS32" s="285"/>
-    </row>
-    <row r="33" spans="1:45" s="286" customFormat="1" ht="15" customHeight="1">
-      <c r="A33" s="267"/>
-      <c r="B33" s="268"/>
-      <c r="C33" s="269"/>
-      <c r="D33" s="270"/>
-      <c r="E33" s="269"/>
-      <c r="F33" s="271" t="s">
+      <c r="AH32" s="391" t="s">
+        <v>402</v>
+      </c>
+      <c r="AI32" s="392"/>
+      <c r="AJ32" s="392"/>
+      <c r="AK32" s="392"/>
+      <c r="AL32" s="392"/>
+      <c r="AM32" s="392"/>
+      <c r="AN32" s="392"/>
+      <c r="AO32" s="393"/>
+      <c r="AP32" s="389"/>
+      <c r="AQ32" s="389"/>
+      <c r="AR32" s="389"/>
+      <c r="AS32" s="389"/>
+    </row>
+    <row r="33" spans="1:45" s="390" customFormat="1" ht="15" customHeight="1">
+      <c r="A33" s="374"/>
+      <c r="B33" s="375"/>
+      <c r="C33" s="376"/>
+      <c r="D33" s="377"/>
+      <c r="E33" s="376"/>
+      <c r="F33" s="378" t="s">
         <v>249</v>
       </c>
-      <c r="G33" s="272"/>
-      <c r="H33" s="273"/>
-      <c r="I33" s="274"/>
-      <c r="J33" s="272"/>
-      <c r="K33" s="274"/>
-      <c r="L33" s="291" t="s">
+      <c r="G33" s="379"/>
+      <c r="H33" s="380"/>
+      <c r="I33" s="381"/>
+      <c r="J33" s="379"/>
+      <c r="K33" s="381"/>
+      <c r="L33" s="382" t="s">
         <v>233</v>
       </c>
-      <c r="M33" s="273"/>
-      <c r="N33" s="275"/>
-      <c r="O33" s="272" t="s">
+      <c r="M33" s="380"/>
+      <c r="N33" s="383"/>
+      <c r="O33" s="379" t="s">
         <v>179</v>
       </c>
-      <c r="P33" s="272"/>
-      <c r="Q33" s="268" t="s">
+      <c r="P33" s="379"/>
+      <c r="Q33" s="375" t="s">
         <v>237</v>
       </c>
-      <c r="R33" s="268" t="s">
+      <c r="R33" s="375" t="s">
         <v>238</v>
       </c>
-      <c r="S33" s="276"/>
-      <c r="T33" s="277"/>
-      <c r="U33" s="279" t="s">
+      <c r="S33" s="384"/>
+      <c r="T33" s="385"/>
+      <c r="U33" s="386" t="s">
         <v>228</v>
       </c>
-      <c r="V33" s="278"/>
-      <c r="W33" s="278" t="s">
+      <c r="V33" s="387"/>
+      <c r="W33" s="387" t="s">
         <v>229</v>
       </c>
-      <c r="X33" s="278" t="s">
+      <c r="X33" s="387" t="s">
         <v>229</v>
       </c>
-      <c r="Y33" s="279" t="s">
+      <c r="Y33" s="386" t="s">
         <v>229</v>
       </c>
-      <c r="Z33" s="280">
+      <c r="Z33" s="388">
         <v>43707</v>
       </c>
-      <c r="AA33" s="280">
+      <c r="AA33" s="388">
         <v>43767</v>
       </c>
-      <c r="AB33" s="280">
+      <c r="AB33" s="388">
         <v>43738</v>
       </c>
-      <c r="AC33" s="280">
+      <c r="AC33" s="388">
         <v>43740</v>
       </c>
-      <c r="AD33" s="280">
+      <c r="AD33" s="388">
         <v>43740</v>
       </c>
-      <c r="AE33" s="280">
+      <c r="AE33" s="388">
         <v>43740</v>
       </c>
-      <c r="AF33" s="280">
+      <c r="AF33" s="388">
         <v>43740</v>
       </c>
-      <c r="AG33" s="280">
+      <c r="AG33" s="388">
         <v>43740</v>
       </c>
-      <c r="AH33" s="289"/>
-      <c r="AI33" s="289"/>
-      <c r="AJ33" s="289"/>
-      <c r="AK33" s="289"/>
-      <c r="AL33" s="289"/>
-      <c r="AM33" s="290"/>
-      <c r="AN33" s="280"/>
-      <c r="AO33" s="284"/>
-      <c r="AP33" s="285"/>
-      <c r="AQ33" s="285"/>
-      <c r="AR33" s="285"/>
-      <c r="AS33" s="285"/>
-    </row>
-    <row r="34" spans="1:45" s="286" customFormat="1" ht="15" customHeight="1">
-      <c r="A34" s="267"/>
-      <c r="B34" s="268"/>
-      <c r="C34" s="269"/>
-      <c r="D34" s="270"/>
-      <c r="E34" s="269"/>
-      <c r="F34" s="271" t="s">
+      <c r="AH33" s="394"/>
+      <c r="AI33" s="395"/>
+      <c r="AJ33" s="395"/>
+      <c r="AK33" s="395"/>
+      <c r="AL33" s="395"/>
+      <c r="AM33" s="395"/>
+      <c r="AN33" s="395"/>
+      <c r="AO33" s="396"/>
+      <c r="AP33" s="389"/>
+      <c r="AQ33" s="389"/>
+      <c r="AR33" s="389"/>
+      <c r="AS33" s="389"/>
+    </row>
+    <row r="34" spans="1:45" s="390" customFormat="1" ht="15" customHeight="1">
+      <c r="A34" s="374"/>
+      <c r="B34" s="375"/>
+      <c r="C34" s="376"/>
+      <c r="D34" s="377"/>
+      <c r="E34" s="376"/>
+      <c r="F34" s="378" t="s">
         <v>249</v>
       </c>
-      <c r="G34" s="272"/>
-      <c r="H34" s="273"/>
-      <c r="I34" s="274"/>
-      <c r="J34" s="272"/>
-      <c r="K34" s="274"/>
-      <c r="L34" s="291" t="s">
+      <c r="G34" s="379"/>
+      <c r="H34" s="380"/>
+      <c r="I34" s="381"/>
+      <c r="J34" s="379"/>
+      <c r="K34" s="381"/>
+      <c r="L34" s="382" t="s">
         <v>233</v>
       </c>
-      <c r="M34" s="273"/>
-      <c r="N34" s="275"/>
-      <c r="O34" s="272" t="s">
+      <c r="M34" s="380"/>
+      <c r="N34" s="383"/>
+      <c r="O34" s="379" t="s">
         <v>179</v>
       </c>
-      <c r="P34" s="272"/>
-      <c r="Q34" s="268" t="s">
+      <c r="P34" s="379"/>
+      <c r="Q34" s="375" t="s">
         <v>239</v>
       </c>
-      <c r="R34" s="268"/>
-      <c r="S34" s="276"/>
-      <c r="T34" s="277"/>
-      <c r="U34" s="279" t="s">
+      <c r="R34" s="375"/>
+      <c r="S34" s="384"/>
+      <c r="T34" s="385"/>
+      <c r="U34" s="386" t="s">
         <v>228</v>
       </c>
-      <c r="V34" s="278"/>
-      <c r="W34" s="278" t="s">
+      <c r="V34" s="387"/>
+      <c r="W34" s="387" t="s">
         <v>229</v>
       </c>
-      <c r="X34" s="278" t="s">
+      <c r="X34" s="387" t="s">
         <v>229</v>
       </c>
-      <c r="Y34" s="279" t="s">
+      <c r="Y34" s="386" t="s">
         <v>229</v>
       </c>
-      <c r="Z34" s="280">
+      <c r="Z34" s="388">
         <v>43707</v>
       </c>
-      <c r="AA34" s="280">
+      <c r="AA34" s="388">
         <v>43767</v>
       </c>
-      <c r="AB34" s="280">
+      <c r="AB34" s="388">
         <v>43738</v>
       </c>
-      <c r="AC34" s="280">
+      <c r="AC34" s="388">
         <v>43740</v>
       </c>
-      <c r="AD34" s="280">
+      <c r="AD34" s="388">
         <v>43740</v>
       </c>
-      <c r="AE34" s="280">
+      <c r="AE34" s="388">
         <v>43740</v>
       </c>
-      <c r="AF34" s="280">
+      <c r="AF34" s="388">
         <v>43740</v>
       </c>
-      <c r="AG34" s="280">
+      <c r="AG34" s="388">
         <v>43740</v>
       </c>
-      <c r="AH34" s="289"/>
-      <c r="AI34" s="289"/>
-      <c r="AJ34" s="289"/>
-      <c r="AK34" s="289"/>
-      <c r="AL34" s="289"/>
-      <c r="AM34" s="290"/>
-      <c r="AN34" s="280"/>
-      <c r="AO34" s="284"/>
-      <c r="AP34" s="285"/>
-      <c r="AQ34" s="285"/>
-      <c r="AR34" s="285"/>
-      <c r="AS34" s="285"/>
+      <c r="AH34" s="397"/>
+      <c r="AI34" s="398"/>
+      <c r="AJ34" s="398"/>
+      <c r="AK34" s="398"/>
+      <c r="AL34" s="398"/>
+      <c r="AM34" s="398"/>
+      <c r="AN34" s="398"/>
+      <c r="AO34" s="399"/>
+      <c r="AP34" s="389"/>
+      <c r="AQ34" s="389"/>
+      <c r="AR34" s="389"/>
+      <c r="AS34" s="389"/>
     </row>
     <row r="35" spans="1:45" s="57" customFormat="1" ht="15" customHeight="1">
       <c r="A35" s="32"/>
@@ -12579,7 +12721,7 @@
       <c r="AR55" s="53"/>
       <c r="AS55" s="53"/>
     </row>
-    <row r="56" spans="1:45" s="286" customFormat="1" ht="15" customHeight="1">
+    <row r="56" spans="1:45" s="283" customFormat="1" ht="15" customHeight="1">
       <c r="A56" s="267"/>
       <c r="B56" s="268"/>
       <c r="C56" s="269"/>
@@ -12593,7 +12735,7 @@
       <c r="I56" s="274"/>
       <c r="J56" s="272"/>
       <c r="K56" s="274"/>
-      <c r="L56" s="292" t="s">
+      <c r="L56" s="286" t="s">
         <v>240</v>
       </c>
       <c r="M56" s="273"/>
@@ -12647,20 +12789,26 @@
       <c r="AG56" s="280">
         <v>43746</v>
       </c>
-      <c r="AH56" s="280"/>
-      <c r="AI56" s="281"/>
-      <c r="AJ56" s="282"/>
-      <c r="AK56" s="281"/>
-      <c r="AL56" s="282"/>
-      <c r="AM56" s="283"/>
+      <c r="AH56" s="280">
+        <v>43707</v>
+      </c>
+      <c r="AI56" s="280">
+        <v>43767</v>
+      </c>
+      <c r="AJ56" s="280">
+        <v>43745</v>
+      </c>
+      <c r="AK56" s="280"/>
+      <c r="AL56" s="280"/>
+      <c r="AM56" s="280"/>
       <c r="AN56" s="280"/>
-      <c r="AO56" s="284"/>
-      <c r="AP56" s="285"/>
-      <c r="AQ56" s="285"/>
-      <c r="AR56" s="285"/>
-      <c r="AS56" s="285"/>
-    </row>
-    <row r="57" spans="1:45" s="286" customFormat="1" ht="15" customHeight="1">
+      <c r="AO56" s="281"/>
+      <c r="AP56" s="282"/>
+      <c r="AQ56" s="282"/>
+      <c r="AR56" s="282"/>
+      <c r="AS56" s="282"/>
+    </row>
+    <row r="57" spans="1:45" s="283" customFormat="1" ht="15" customHeight="1">
       <c r="A57" s="267"/>
       <c r="B57" s="268"/>
       <c r="C57" s="269"/>
@@ -12674,7 +12822,7 @@
       <c r="I57" s="274"/>
       <c r="J57" s="272"/>
       <c r="K57" s="274"/>
-      <c r="L57" s="292" t="s">
+      <c r="L57" s="286" t="s">
         <v>242</v>
       </c>
       <c r="M57" s="273"/>
@@ -12682,7 +12830,7 @@
       <c r="O57" s="272" t="s">
         <v>199</v>
       </c>
-      <c r="P57" s="287" t="s">
+      <c r="P57" s="284" t="s">
         <v>337</v>
       </c>
       <c r="Q57" s="268"/>
@@ -12728,20 +12876,26 @@
       <c r="AG57" s="280">
         <v>43746</v>
       </c>
-      <c r="AH57" s="280"/>
-      <c r="AI57" s="281"/>
-      <c r="AJ57" s="282"/>
-      <c r="AK57" s="281"/>
-      <c r="AL57" s="282"/>
-      <c r="AM57" s="283"/>
+      <c r="AH57" s="280">
+        <v>43707</v>
+      </c>
+      <c r="AI57" s="280">
+        <v>43767</v>
+      </c>
+      <c r="AJ57" s="280">
+        <v>43752</v>
+      </c>
+      <c r="AK57" s="280"/>
+      <c r="AL57" s="280"/>
+      <c r="AM57" s="280"/>
       <c r="AN57" s="280"/>
-      <c r="AO57" s="284"/>
-      <c r="AP57" s="285"/>
-      <c r="AQ57" s="285"/>
-      <c r="AR57" s="285"/>
-      <c r="AS57" s="285"/>
-    </row>
-    <row r="58" spans="1:45" s="286" customFormat="1" ht="15" customHeight="1">
+      <c r="AO57" s="281"/>
+      <c r="AP57" s="282"/>
+      <c r="AQ57" s="282"/>
+      <c r="AR57" s="282"/>
+      <c r="AS57" s="282"/>
+    </row>
+    <row r="58" spans="1:45" s="283" customFormat="1" ht="15" customHeight="1">
       <c r="A58" s="267"/>
       <c r="B58" s="268"/>
       <c r="C58" s="269"/>
@@ -12755,7 +12909,7 @@
       <c r="I58" s="274"/>
       <c r="J58" s="272"/>
       <c r="K58" s="274"/>
-      <c r="L58" s="292" t="s">
+      <c r="L58" s="286" t="s">
         <v>243</v>
       </c>
       <c r="M58" s="273"/>
@@ -12809,20 +12963,26 @@
       <c r="AG58" s="280">
         <v>43749</v>
       </c>
-      <c r="AH58" s="280"/>
-      <c r="AI58" s="281"/>
-      <c r="AJ58" s="282"/>
-      <c r="AK58" s="281"/>
-      <c r="AL58" s="282"/>
-      <c r="AM58" s="283"/>
+      <c r="AH58" s="280">
+        <v>43707</v>
+      </c>
+      <c r="AI58" s="280">
+        <v>43767</v>
+      </c>
+      <c r="AJ58" s="280">
+        <v>43745</v>
+      </c>
+      <c r="AK58" s="280"/>
+      <c r="AL58" s="280"/>
+      <c r="AM58" s="280"/>
       <c r="AN58" s="280"/>
-      <c r="AO58" s="284"/>
-      <c r="AP58" s="285"/>
-      <c r="AQ58" s="285"/>
-      <c r="AR58" s="285"/>
-      <c r="AS58" s="285"/>
-    </row>
-    <row r="59" spans="1:45" s="286" customFormat="1" ht="15" customHeight="1">
+      <c r="AO58" s="281"/>
+      <c r="AP58" s="282"/>
+      <c r="AQ58" s="282"/>
+      <c r="AR58" s="282"/>
+      <c r="AS58" s="282"/>
+    </row>
+    <row r="59" spans="1:45" s="283" customFormat="1" ht="15" customHeight="1">
       <c r="A59" s="267"/>
       <c r="B59" s="268"/>
       <c r="C59" s="269"/>
@@ -12836,7 +12996,7 @@
       <c r="I59" s="274"/>
       <c r="J59" s="272"/>
       <c r="K59" s="274"/>
-      <c r="L59" s="292" t="s">
+      <c r="L59" s="286" t="s">
         <v>360</v>
       </c>
       <c r="M59" s="273"/>
@@ -12890,20 +13050,24 @@
       <c r="AG59" s="280">
         <v>43753</v>
       </c>
-      <c r="AH59" s="280"/>
-      <c r="AI59" s="281"/>
-      <c r="AJ59" s="282"/>
-      <c r="AK59" s="281"/>
-      <c r="AL59" s="282"/>
-      <c r="AM59" s="283"/>
+      <c r="AH59" s="280">
+        <v>43707</v>
+      </c>
+      <c r="AI59" s="280">
+        <v>43767</v>
+      </c>
+      <c r="AJ59" s="280"/>
+      <c r="AK59" s="280"/>
+      <c r="AL59" s="280"/>
+      <c r="AM59" s="280"/>
       <c r="AN59" s="280"/>
-      <c r="AO59" s="284"/>
-      <c r="AP59" s="285"/>
-      <c r="AQ59" s="285"/>
-      <c r="AR59" s="285"/>
-      <c r="AS59" s="285"/>
-    </row>
-    <row r="60" spans="1:45" s="286" customFormat="1" ht="15" customHeight="1">
+      <c r="AO59" s="281"/>
+      <c r="AP59" s="282"/>
+      <c r="AQ59" s="282"/>
+      <c r="AR59" s="282"/>
+      <c r="AS59" s="282"/>
+    </row>
+    <row r="60" spans="1:45" s="283" customFormat="1" ht="15" customHeight="1">
       <c r="A60" s="267"/>
       <c r="B60" s="268"/>
       <c r="C60" s="269"/>
@@ -12917,7 +13081,7 @@
       <c r="I60" s="274"/>
       <c r="J60" s="272"/>
       <c r="K60" s="274"/>
-      <c r="L60" s="292" t="s">
+      <c r="L60" s="286" t="s">
         <v>247</v>
       </c>
       <c r="M60" s="273"/>
@@ -12971,18 +13135,24 @@
       <c r="AG60" s="280">
         <v>43763</v>
       </c>
-      <c r="AH60" s="280"/>
-      <c r="AI60" s="281"/>
-      <c r="AJ60" s="282"/>
-      <c r="AK60" s="281"/>
-      <c r="AL60" s="282"/>
-      <c r="AM60" s="283"/>
+      <c r="AH60" s="280">
+        <v>43707</v>
+      </c>
+      <c r="AI60" s="280">
+        <v>43767</v>
+      </c>
+      <c r="AJ60" s="280">
+        <v>43745</v>
+      </c>
+      <c r="AK60" s="280"/>
+      <c r="AL60" s="280"/>
+      <c r="AM60" s="280"/>
       <c r="AN60" s="280"/>
-      <c r="AO60" s="284"/>
-      <c r="AP60" s="285"/>
-      <c r="AQ60" s="285"/>
-      <c r="AR60" s="285"/>
-      <c r="AS60" s="285"/>
+      <c r="AO60" s="281"/>
+      <c r="AP60" s="282"/>
+      <c r="AQ60" s="282"/>
+      <c r="AR60" s="282"/>
+      <c r="AS60" s="282"/>
     </row>
     <row r="61" spans="1:45" s="57" customFormat="1" ht="15" customHeight="1">
       <c r="A61" s="32"/>
@@ -13604,8 +13774,9 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A1:A5"/>
+    <mergeCell ref="AH32:AO34"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="AP8:AS65">
@@ -14489,7 +14660,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="2" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A1" s="318" t="s">
+      <c r="A1" s="312" t="s">
         <v>132</v>
       </c>
       <c r="B1" s="1"/>
@@ -14500,7 +14671,7 @@
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:16" s="2" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A2" s="319"/>
+      <c r="A2" s="313"/>
       <c r="B2" s="3" t="s">
         <v>15</v>
       </c>
@@ -14511,18 +14682,18 @@
       <c r="G2" s="4"/>
     </row>
     <row r="3" spans="1:16" s="6" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A3" s="319"/>
+      <c r="A3" s="313"/>
       <c r="G3" s="81"/>
     </row>
     <row r="4" spans="1:16" s="6" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A4" s="319"/>
+      <c r="A4" s="313"/>
       <c r="B4" s="7" t="s">
         <v>16</v>
       </c>
       <c r="G4" s="81"/>
     </row>
     <row r="5" spans="1:16" s="10" customFormat="1" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A5" s="320"/>
+      <c r="A5" s="314"/>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
@@ -14537,15 +14708,15 @@
       <c r="B6" s="95" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="332" t="s">
+      <c r="C6" s="346" t="s">
         <v>300</v>
       </c>
-      <c r="D6" s="333"/>
-      <c r="E6" s="334" t="s">
+      <c r="D6" s="347"/>
+      <c r="E6" s="348" t="s">
         <v>126</v>
       </c>
-      <c r="F6" s="335"/>
-      <c r="G6" s="336"/>
+      <c r="F6" s="349"/>
+      <c r="G6" s="350"/>
       <c r="H6" s="82" t="s">
         <v>14</v>
       </c>
@@ -14684,8 +14855,8 @@
       <c r="B15" s="83"/>
       <c r="C15" s="212"/>
       <c r="D15" s="212"/>
-      <c r="E15" s="337"/>
-      <c r="F15" s="337"/>
+      <c r="E15" s="351"/>
+      <c r="F15" s="351"/>
       <c r="G15" s="212"/>
       <c r="H15" s="212"/>
       <c r="I15" s="212"/>
@@ -14700,8 +14871,8 @@
       <c r="B16" s="83"/>
       <c r="C16" s="149"/>
       <c r="D16" s="212"/>
-      <c r="E16" s="338"/>
-      <c r="F16" s="338"/>
+      <c r="E16" s="352"/>
+      <c r="F16" s="352"/>
       <c r="G16" s="150"/>
       <c r="H16" s="150"/>
       <c r="I16" s="151"/>
@@ -14718,8 +14889,8 @@
       <c r="B17" s="83"/>
       <c r="C17" s="149"/>
       <c r="D17" s="212"/>
-      <c r="E17" s="339"/>
-      <c r="F17" s="339"/>
+      <c r="E17" s="353"/>
+      <c r="F17" s="353"/>
       <c r="G17" s="230"/>
       <c r="H17" s="230"/>
       <c r="I17" s="231"/>
@@ -15145,7 +15316,7 @@
       <c r="B40" s="83"/>
       <c r="C40" s="149"/>
       <c r="D40" s="212"/>
-      <c r="E40" s="317" t="s">
+      <c r="E40" s="311" t="s">
         <v>398</v>
       </c>
       <c r="F40" s="211"/>
@@ -15201,7 +15372,7 @@
       <c r="B43" s="83"/>
       <c r="C43" s="149"/>
       <c r="D43" s="212"/>
-      <c r="E43" s="317" t="s">
+      <c r="E43" s="311" t="s">
         <v>399</v>
       </c>
       <c r="F43" s="238"/>
@@ -15257,7 +15428,7 @@
       <c r="B46" s="83"/>
       <c r="C46" s="149"/>
       <c r="D46" s="212"/>
-      <c r="E46" s="317" t="s">
+      <c r="E46" s="311" t="s">
         <v>400</v>
       </c>
       <c r="F46" s="238"/>
@@ -15313,10 +15484,10 @@
       <c r="B49" s="83"/>
       <c r="C49" s="149"/>
       <c r="D49" s="212"/>
-      <c r="E49" s="322" t="s">
+      <c r="E49" s="336" t="s">
         <v>401</v>
       </c>
-      <c r="F49" s="323"/>
+      <c r="F49" s="337"/>
       <c r="G49" s="150"/>
       <c r="H49" s="150"/>
       <c r="I49" s="151"/>
@@ -15333,8 +15504,8 @@
       <c r="B50" s="83"/>
       <c r="C50" s="150"/>
       <c r="D50" s="150"/>
-      <c r="E50" s="324"/>
-      <c r="F50" s="325"/>
+      <c r="E50" s="338"/>
+      <c r="F50" s="339"/>
       <c r="G50" s="244"/>
       <c r="H50" s="227"/>
       <c r="I50" s="151"/>
@@ -15445,10 +15616,10 @@
       <c r="F57" s="241"/>
       <c r="G57" s="16"/>
       <c r="H57" s="31"/>
-      <c r="I57" s="328" t="s">
+      <c r="I57" s="342" t="s">
         <v>284</v>
       </c>
-      <c r="J57" s="329"/>
+      <c r="J57" s="343"/>
       <c r="K57" s="16"/>
       <c r="L57" s="16"/>
       <c r="M57" s="144"/>
@@ -15462,8 +15633,8 @@
       <c r="F58" s="241"/>
       <c r="G58" s="16"/>
       <c r="H58" s="31"/>
-      <c r="I58" s="330"/>
-      <c r="J58" s="331"/>
+      <c r="I58" s="344"/>
+      <c r="J58" s="345"/>
       <c r="K58" s="16"/>
       <c r="L58" s="16"/>
       <c r="M58" s="144"/>
@@ -15550,17 +15721,17 @@
       <c r="B64" s="164" t="s">
         <v>43</v>
       </c>
-      <c r="C64" s="326"/>
-      <c r="D64" s="327"/>
-      <c r="E64" s="327"/>
-      <c r="F64" s="327"/>
-      <c r="G64" s="327"/>
-      <c r="H64" s="327"/>
-      <c r="I64" s="327"/>
-      <c r="J64" s="327"/>
-      <c r="K64" s="327"/>
-      <c r="L64" s="327"/>
-      <c r="M64" s="327"/>
+      <c r="C64" s="340"/>
+      <c r="D64" s="341"/>
+      <c r="E64" s="341"/>
+      <c r="F64" s="341"/>
+      <c r="G64" s="341"/>
+      <c r="H64" s="341"/>
+      <c r="I64" s="341"/>
+      <c r="J64" s="341"/>
+      <c r="K64" s="341"/>
+      <c r="L64" s="341"/>
+      <c r="M64" s="341"/>
     </row>
     <row r="65" spans="1:13" ht="16.5" customHeight="1">
       <c r="A65" s="13"/>
@@ -15702,13 +15873,13 @@
       <c r="B74" s="168" t="s">
         <v>309</v>
       </c>
-      <c r="C74" s="348" t="s">
+      <c r="C74" s="319" t="s">
         <v>310</v>
       </c>
-      <c r="D74" s="349"/>
-      <c r="E74" s="349"/>
-      <c r="F74" s="349"/>
-      <c r="G74" s="350"/>
+      <c r="D74" s="320"/>
+      <c r="E74" s="320"/>
+      <c r="F74" s="320"/>
+      <c r="G74" s="321"/>
       <c r="H74" s="251" t="s">
         <v>19</v>
       </c>
@@ -15728,13 +15899,13 @@
       <c r="B75" s="168" t="s">
         <v>304</v>
       </c>
-      <c r="C75" s="348" t="s">
+      <c r="C75" s="319" t="s">
         <v>311</v>
       </c>
-      <c r="D75" s="349"/>
-      <c r="E75" s="349"/>
-      <c r="F75" s="349"/>
-      <c r="G75" s="350"/>
+      <c r="D75" s="320"/>
+      <c r="E75" s="320"/>
+      <c r="F75" s="320"/>
+      <c r="G75" s="321"/>
       <c r="H75" s="251" t="s">
         <v>19</v>
       </c>
@@ -15755,13 +15926,13 @@
       <c r="B76" s="66" t="s">
         <v>289</v>
       </c>
-      <c r="C76" s="348" t="s">
+      <c r="C76" s="319" t="s">
         <v>312</v>
       </c>
-      <c r="D76" s="349"/>
-      <c r="E76" s="349"/>
-      <c r="F76" s="349"/>
-      <c r="G76" s="350"/>
+      <c r="D76" s="320"/>
+      <c r="E76" s="320"/>
+      <c r="F76" s="320"/>
+      <c r="G76" s="321"/>
       <c r="H76" s="12" t="s">
         <v>19</v>
       </c>
@@ -15781,13 +15952,13 @@
       <c r="B77" s="168" t="s">
         <v>290</v>
       </c>
-      <c r="C77" s="348" t="s">
+      <c r="C77" s="319" t="s">
         <v>313</v>
       </c>
-      <c r="D77" s="349"/>
-      <c r="E77" s="349"/>
-      <c r="F77" s="349"/>
-      <c r="G77" s="350"/>
+      <c r="D77" s="320"/>
+      <c r="E77" s="320"/>
+      <c r="F77" s="320"/>
+      <c r="G77" s="321"/>
       <c r="H77" s="12" t="s">
         <v>19</v>
       </c>
@@ -15808,13 +15979,13 @@
       <c r="B78" s="66" t="s">
         <v>305</v>
       </c>
-      <c r="C78" s="348" t="s">
+      <c r="C78" s="319" t="s">
         <v>314</v>
       </c>
-      <c r="D78" s="349"/>
-      <c r="E78" s="349"/>
-      <c r="F78" s="349"/>
-      <c r="G78" s="350"/>
+      <c r="D78" s="320"/>
+      <c r="E78" s="320"/>
+      <c r="F78" s="320"/>
+      <c r="G78" s="321"/>
       <c r="H78" s="12" t="s">
         <v>19</v>
       </c>
@@ -15835,17 +16006,17 @@
       <c r="B79" s="66" t="s">
         <v>291</v>
       </c>
-      <c r="C79" s="348" t="s">
+      <c r="C79" s="319" t="s">
         <v>315</v>
       </c>
-      <c r="D79" s="349"/>
-      <c r="E79" s="349"/>
-      <c r="F79" s="349"/>
-      <c r="G79" s="350"/>
+      <c r="D79" s="320"/>
+      <c r="E79" s="320"/>
+      <c r="F79" s="320"/>
+      <c r="G79" s="321"/>
       <c r="H79" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="I79" s="316" t="s">
+      <c r="I79" s="310" t="s">
         <v>59</v>
       </c>
       <c r="J79" s="12" t="s">
@@ -15862,17 +16033,17 @@
       <c r="B80" s="66" t="s">
         <v>292</v>
       </c>
-      <c r="C80" s="348" t="s">
+      <c r="C80" s="319" t="s">
         <v>316</v>
       </c>
-      <c r="D80" s="349"/>
-      <c r="E80" s="349"/>
-      <c r="F80" s="349"/>
-      <c r="G80" s="350"/>
+      <c r="D80" s="320"/>
+      <c r="E80" s="320"/>
+      <c r="F80" s="320"/>
+      <c r="G80" s="321"/>
       <c r="H80" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="I80" s="316" t="s">
+      <c r="I80" s="310" t="s">
         <v>59</v>
       </c>
       <c r="J80" s="12" t="s">
@@ -15889,17 +16060,17 @@
       <c r="B81" s="66" t="s">
         <v>293</v>
       </c>
-      <c r="C81" s="348" t="s">
+      <c r="C81" s="319" t="s">
         <v>317</v>
       </c>
-      <c r="D81" s="349"/>
-      <c r="E81" s="349"/>
-      <c r="F81" s="349"/>
-      <c r="G81" s="350"/>
+      <c r="D81" s="320"/>
+      <c r="E81" s="320"/>
+      <c r="F81" s="320"/>
+      <c r="G81" s="321"/>
       <c r="H81" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="I81" s="316" t="s">
+      <c r="I81" s="310" t="s">
         <v>59</v>
       </c>
       <c r="J81" s="12" t="s">
@@ -15916,17 +16087,17 @@
       <c r="B82" s="66" t="s">
         <v>294</v>
       </c>
-      <c r="C82" s="351" t="s">
+      <c r="C82" s="316" t="s">
         <v>318</v>
       </c>
-      <c r="D82" s="352"/>
-      <c r="E82" s="352"/>
-      <c r="F82" s="352"/>
-      <c r="G82" s="353"/>
+      <c r="D82" s="317"/>
+      <c r="E82" s="317"/>
+      <c r="F82" s="317"/>
+      <c r="G82" s="318"/>
       <c r="H82" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="I82" s="316" t="s">
+      <c r="I82" s="310" t="s">
         <v>59</v>
       </c>
       <c r="J82" s="12" t="s">
@@ -15943,13 +16114,13 @@
       <c r="B83" s="66" t="s">
         <v>295</v>
       </c>
-      <c r="C83" s="351" t="s">
+      <c r="C83" s="316" t="s">
         <v>319</v>
       </c>
-      <c r="D83" s="352"/>
-      <c r="E83" s="352"/>
-      <c r="F83" s="352"/>
-      <c r="G83" s="353"/>
+      <c r="D83" s="317"/>
+      <c r="E83" s="317"/>
+      <c r="F83" s="317"/>
+      <c r="G83" s="318"/>
       <c r="H83" s="12" t="s">
         <v>19</v>
       </c>
@@ -15968,11 +16139,11 @@
     <row r="84" spans="1:13" ht="16.5" customHeight="1">
       <c r="A84" s="13"/>
       <c r="B84" s="66"/>
-      <c r="C84" s="348"/>
-      <c r="D84" s="349"/>
-      <c r="E84" s="349"/>
-      <c r="F84" s="349"/>
-      <c r="G84" s="350"/>
+      <c r="C84" s="319"/>
+      <c r="D84" s="320"/>
+      <c r="E84" s="320"/>
+      <c r="F84" s="320"/>
+      <c r="G84" s="321"/>
       <c r="H84" s="12" t="s">
         <v>19</v>
       </c>
@@ -16032,22 +16203,22 @@
       <c r="C88" s="204" t="s">
         <v>320</v>
       </c>
-      <c r="D88" s="342" t="s">
+      <c r="D88" s="322" t="s">
         <v>307</v>
       </c>
-      <c r="E88" s="344"/>
-      <c r="F88" s="344"/>
-      <c r="G88" s="344"/>
-      <c r="H88" s="344"/>
-      <c r="I88" s="345"/>
-      <c r="J88" s="340" t="s">
+      <c r="E88" s="327"/>
+      <c r="F88" s="327"/>
+      <c r="G88" s="327"/>
+      <c r="H88" s="327"/>
+      <c r="I88" s="328"/>
+      <c r="J88" s="332" t="s">
         <v>330</v>
       </c>
-      <c r="K88" s="341"/>
-      <c r="L88" s="342" t="s">
+      <c r="K88" s="333"/>
+      <c r="L88" s="322" t="s">
         <v>327</v>
       </c>
-      <c r="M88" s="343"/>
+      <c r="M88" s="330"/>
     </row>
     <row r="89" spans="1:13" ht="16.5" customHeight="1">
       <c r="A89" s="13"/>
@@ -16057,14 +16228,14 @@
       <c r="C89" s="204" t="s">
         <v>322</v>
       </c>
-      <c r="D89" s="348" t="s">
+      <c r="D89" s="319" t="s">
         <v>323</v>
       </c>
-      <c r="E89" s="349"/>
-      <c r="F89" s="349"/>
-      <c r="G89" s="349"/>
-      <c r="H89" s="349"/>
-      <c r="I89" s="350"/>
+      <c r="E89" s="320"/>
+      <c r="F89" s="320"/>
+      <c r="G89" s="320"/>
+      <c r="H89" s="320"/>
+      <c r="I89" s="321"/>
       <c r="J89" s="204" t="s">
         <v>329</v>
       </c>
@@ -16082,16 +16253,16 @@
       <c r="C90" s="204" t="s">
         <v>283</v>
       </c>
-      <c r="D90" s="342" t="s">
+      <c r="D90" s="322" t="s">
         <v>324</v>
       </c>
-      <c r="E90" s="344"/>
-      <c r="F90" s="344"/>
-      <c r="G90" s="344"/>
-      <c r="H90" s="344"/>
-      <c r="I90" s="345"/>
-      <c r="J90" s="346"/>
-      <c r="K90" s="347"/>
+      <c r="E90" s="327"/>
+      <c r="F90" s="327"/>
+      <c r="G90" s="327"/>
+      <c r="H90" s="327"/>
+      <c r="I90" s="328"/>
+      <c r="J90" s="334"/>
+      <c r="K90" s="335"/>
       <c r="L90" s="204" t="s">
         <v>326</v>
       </c>
@@ -16105,22 +16276,22 @@
       <c r="C91" s="204" t="s">
         <v>325</v>
       </c>
-      <c r="D91" s="348" t="s">
+      <c r="D91" s="319" t="s">
         <v>340</v>
       </c>
-      <c r="E91" s="349"/>
-      <c r="F91" s="349"/>
-      <c r="G91" s="349"/>
-      <c r="H91" s="349"/>
-      <c r="I91" s="350"/>
-      <c r="J91" s="342" t="s">
+      <c r="E91" s="320"/>
+      <c r="F91" s="320"/>
+      <c r="G91" s="320"/>
+      <c r="H91" s="320"/>
+      <c r="I91" s="321"/>
+      <c r="J91" s="322" t="s">
         <v>356</v>
       </c>
-      <c r="K91" s="343"/>
-      <c r="L91" s="342" t="s">
+      <c r="K91" s="330"/>
+      <c r="L91" s="322" t="s">
         <v>328</v>
       </c>
-      <c r="M91" s="355"/>
+      <c r="M91" s="331"/>
     </row>
     <row r="92" spans="1:13" ht="16.5" customHeight="1">
       <c r="A92" s="13"/>
@@ -16130,29 +16301,29 @@
       <c r="C92" s="204" t="s">
         <v>284</v>
       </c>
-      <c r="D92" s="348" t="s">
+      <c r="D92" s="319" t="s">
         <v>285</v>
       </c>
-      <c r="E92" s="349"/>
-      <c r="F92" s="349"/>
-      <c r="G92" s="349"/>
-      <c r="H92" s="349"/>
-      <c r="I92" s="350"/>
-      <c r="J92" s="354"/>
-      <c r="K92" s="343"/>
-      <c r="L92" s="342"/>
-      <c r="M92" s="355"/>
+      <c r="E92" s="320"/>
+      <c r="F92" s="320"/>
+      <c r="G92" s="320"/>
+      <c r="H92" s="320"/>
+      <c r="I92" s="321"/>
+      <c r="J92" s="329"/>
+      <c r="K92" s="330"/>
+      <c r="L92" s="322"/>
+      <c r="M92" s="331"/>
     </row>
     <row r="93" spans="1:13" ht="27" customHeight="1">
       <c r="A93" s="13"/>
       <c r="B93" s="80"/>
       <c r="C93" s="204"/>
-      <c r="D93" s="342"/>
-      <c r="E93" s="359"/>
-      <c r="F93" s="359"/>
-      <c r="G93" s="359"/>
-      <c r="H93" s="359"/>
-      <c r="I93" s="358"/>
+      <c r="D93" s="322"/>
+      <c r="E93" s="323"/>
+      <c r="F93" s="323"/>
+      <c r="G93" s="323"/>
+      <c r="H93" s="323"/>
+      <c r="I93" s="324"/>
       <c r="J93" s="204"/>
       <c r="K93" s="205"/>
       <c r="L93" s="206"/>
@@ -16162,72 +16333,72 @@
       <c r="A94" s="13"/>
       <c r="B94" s="80"/>
       <c r="C94" s="204"/>
-      <c r="D94" s="342"/>
-      <c r="E94" s="357"/>
-      <c r="F94" s="357"/>
-      <c r="G94" s="357"/>
-      <c r="H94" s="357"/>
-      <c r="I94" s="356"/>
+      <c r="D94" s="322"/>
+      <c r="E94" s="325"/>
+      <c r="F94" s="325"/>
+      <c r="G94" s="325"/>
+      <c r="H94" s="325"/>
+      <c r="I94" s="326"/>
       <c r="J94" s="204"/>
       <c r="K94" s="205"/>
-      <c r="L94" s="348"/>
-      <c r="M94" s="350"/>
+      <c r="L94" s="319"/>
+      <c r="M94" s="321"/>
     </row>
     <row r="95" spans="1:13" ht="47.25" customHeight="1">
       <c r="A95" s="13"/>
       <c r="B95" s="80"/>
       <c r="C95" s="204"/>
-      <c r="D95" s="342"/>
-      <c r="E95" s="344"/>
-      <c r="F95" s="344"/>
-      <c r="G95" s="344"/>
-      <c r="H95" s="344"/>
-      <c r="I95" s="345"/>
-      <c r="J95" s="354"/>
-      <c r="K95" s="345"/>
-      <c r="L95" s="354"/>
-      <c r="M95" s="345"/>
+      <c r="D95" s="322"/>
+      <c r="E95" s="327"/>
+      <c r="F95" s="327"/>
+      <c r="G95" s="327"/>
+      <c r="H95" s="327"/>
+      <c r="I95" s="328"/>
+      <c r="J95" s="329"/>
+      <c r="K95" s="328"/>
+      <c r="L95" s="329"/>
+      <c r="M95" s="328"/>
     </row>
     <row r="96" spans="1:13" ht="97.5" customHeight="1">
       <c r="A96" s="13"/>
       <c r="B96" s="80"/>
       <c r="C96" s="204"/>
-      <c r="D96" s="342"/>
-      <c r="E96" s="357"/>
-      <c r="F96" s="357"/>
-      <c r="G96" s="357"/>
-      <c r="H96" s="357"/>
-      <c r="I96" s="356"/>
-      <c r="J96" s="354"/>
-      <c r="K96" s="358"/>
-      <c r="L96" s="342"/>
-      <c r="M96" s="355"/>
+      <c r="D96" s="322"/>
+      <c r="E96" s="325"/>
+      <c r="F96" s="325"/>
+      <c r="G96" s="325"/>
+      <c r="H96" s="325"/>
+      <c r="I96" s="326"/>
+      <c r="J96" s="329"/>
+      <c r="K96" s="324"/>
+      <c r="L96" s="322"/>
+      <c r="M96" s="331"/>
     </row>
     <row r="97" spans="1:15" ht="92.25" customHeight="1">
       <c r="A97" s="13"/>
       <c r="B97" s="80"/>
       <c r="C97" s="204"/>
-      <c r="D97" s="342"/>
-      <c r="E97" s="357"/>
-      <c r="F97" s="357"/>
-      <c r="G97" s="357"/>
-      <c r="H97" s="357"/>
-      <c r="I97" s="356"/>
-      <c r="J97" s="354"/>
-      <c r="K97" s="358"/>
-      <c r="L97" s="354"/>
-      <c r="M97" s="358"/>
+      <c r="D97" s="322"/>
+      <c r="E97" s="325"/>
+      <c r="F97" s="325"/>
+      <c r="G97" s="325"/>
+      <c r="H97" s="325"/>
+      <c r="I97" s="326"/>
+      <c r="J97" s="329"/>
+      <c r="K97" s="324"/>
+      <c r="L97" s="329"/>
+      <c r="M97" s="324"/>
     </row>
     <row r="98" spans="1:15" ht="27" customHeight="1">
       <c r="A98" s="13"/>
       <c r="B98" s="80"/>
       <c r="C98" s="204"/>
-      <c r="D98" s="348"/>
-      <c r="E98" s="349"/>
-      <c r="F98" s="349"/>
-      <c r="G98" s="349"/>
-      <c r="H98" s="349"/>
-      <c r="I98" s="350"/>
+      <c r="D98" s="319"/>
+      <c r="E98" s="320"/>
+      <c r="F98" s="320"/>
+      <c r="G98" s="320"/>
+      <c r="H98" s="320"/>
+      <c r="I98" s="321"/>
       <c r="J98" s="204"/>
       <c r="K98" s="210"/>
       <c r="L98" s="204"/>
@@ -16237,12 +16408,12 @@
       <c r="A99" s="13"/>
       <c r="B99" s="80"/>
       <c r="C99" s="204"/>
-      <c r="D99" s="348"/>
-      <c r="E99" s="349"/>
-      <c r="F99" s="349"/>
-      <c r="G99" s="349"/>
-      <c r="H99" s="349"/>
-      <c r="I99" s="350"/>
+      <c r="D99" s="319"/>
+      <c r="E99" s="320"/>
+      <c r="F99" s="320"/>
+      <c r="G99" s="320"/>
+      <c r="H99" s="320"/>
+      <c r="I99" s="321"/>
       <c r="J99" s="204"/>
       <c r="K99" s="210"/>
       <c r="L99" s="204"/>
@@ -16252,16 +16423,16 @@
       <c r="A100" s="13"/>
       <c r="B100" s="80"/>
       <c r="C100" s="206"/>
-      <c r="D100" s="342"/>
-      <c r="E100" s="359"/>
-      <c r="F100" s="359"/>
-      <c r="G100" s="359"/>
-      <c r="H100" s="359"/>
-      <c r="I100" s="358"/>
-      <c r="J100" s="354"/>
-      <c r="K100" s="343"/>
-      <c r="L100" s="342"/>
-      <c r="M100" s="356"/>
+      <c r="D100" s="322"/>
+      <c r="E100" s="323"/>
+      <c r="F100" s="323"/>
+      <c r="G100" s="323"/>
+      <c r="H100" s="323"/>
+      <c r="I100" s="324"/>
+      <c r="J100" s="329"/>
+      <c r="K100" s="330"/>
+      <c r="L100" s="322"/>
+      <c r="M100" s="326"/>
     </row>
     <row r="101" spans="1:15" s="165" customFormat="1" ht="16.5" customHeight="1"/>
     <row r="102" spans="1:15" ht="16.5" customHeight="1">
@@ -16507,13 +16678,13 @@
     <row r="116" spans="1:15" ht="16.5" customHeight="1">
       <c r="A116" s="13"/>
       <c r="B116" s="66"/>
-      <c r="C116" s="351"/>
-      <c r="D116" s="352"/>
-      <c r="E116" s="352"/>
-      <c r="F116" s="352"/>
-      <c r="G116" s="352"/>
-      <c r="H116" s="352"/>
-      <c r="I116" s="353"/>
+      <c r="C116" s="316"/>
+      <c r="D116" s="317"/>
+      <c r="E116" s="317"/>
+      <c r="F116" s="317"/>
+      <c r="G116" s="317"/>
+      <c r="H116" s="317"/>
+      <c r="I116" s="318"/>
       <c r="J116" s="66"/>
       <c r="K116" s="80"/>
       <c r="L116" s="80"/>
@@ -16524,13 +16695,13 @@
     <row r="117" spans="1:15" ht="16.5" customHeight="1">
       <c r="A117" s="13"/>
       <c r="B117" s="66"/>
-      <c r="C117" s="351"/>
-      <c r="D117" s="352"/>
-      <c r="E117" s="352"/>
-      <c r="F117" s="352"/>
-      <c r="G117" s="352"/>
-      <c r="H117" s="352"/>
-      <c r="I117" s="353"/>
+      <c r="C117" s="316"/>
+      <c r="D117" s="317"/>
+      <c r="E117" s="317"/>
+      <c r="F117" s="317"/>
+      <c r="G117" s="317"/>
+      <c r="H117" s="317"/>
+      <c r="I117" s="318"/>
       <c r="J117" s="66"/>
       <c r="K117" s="80"/>
       <c r="L117" s="80"/>
@@ -16950,6 +17121,43 @@
     </row>
   </sheetData>
   <mergeCells count="52">
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="C64:M64"/>
+    <mergeCell ref="I57:J58"/>
+    <mergeCell ref="A1:A5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="J88:K88"/>
+    <mergeCell ref="L88:M88"/>
+    <mergeCell ref="D90:I90"/>
+    <mergeCell ref="J90:K90"/>
+    <mergeCell ref="C80:G80"/>
+    <mergeCell ref="C81:G81"/>
+    <mergeCell ref="C82:G82"/>
+    <mergeCell ref="C83:G83"/>
+    <mergeCell ref="L94:M94"/>
+    <mergeCell ref="D95:I95"/>
+    <mergeCell ref="J95:K95"/>
+    <mergeCell ref="L95:M95"/>
+    <mergeCell ref="D91:I91"/>
+    <mergeCell ref="J91:K91"/>
+    <mergeCell ref="L91:M91"/>
+    <mergeCell ref="D92:I92"/>
+    <mergeCell ref="J92:K92"/>
+    <mergeCell ref="L92:M92"/>
+    <mergeCell ref="J100:K100"/>
+    <mergeCell ref="L100:M100"/>
+    <mergeCell ref="C116:I116"/>
+    <mergeCell ref="D96:I96"/>
+    <mergeCell ref="J96:K96"/>
+    <mergeCell ref="L96:M96"/>
+    <mergeCell ref="D97:I97"/>
+    <mergeCell ref="J97:K97"/>
+    <mergeCell ref="L97:M97"/>
     <mergeCell ref="C117:I117"/>
     <mergeCell ref="C77:G77"/>
     <mergeCell ref="C74:G74"/>
@@ -16965,43 +17173,6 @@
     <mergeCell ref="D93:I93"/>
     <mergeCell ref="D94:I94"/>
     <mergeCell ref="D88:I88"/>
-    <mergeCell ref="J100:K100"/>
-    <mergeCell ref="L100:M100"/>
-    <mergeCell ref="C116:I116"/>
-    <mergeCell ref="D96:I96"/>
-    <mergeCell ref="J96:K96"/>
-    <mergeCell ref="L96:M96"/>
-    <mergeCell ref="D97:I97"/>
-    <mergeCell ref="J97:K97"/>
-    <mergeCell ref="L97:M97"/>
-    <mergeCell ref="L94:M94"/>
-    <mergeCell ref="D95:I95"/>
-    <mergeCell ref="J95:K95"/>
-    <mergeCell ref="L95:M95"/>
-    <mergeCell ref="D91:I91"/>
-    <mergeCell ref="J91:K91"/>
-    <mergeCell ref="L91:M91"/>
-    <mergeCell ref="D92:I92"/>
-    <mergeCell ref="J92:K92"/>
-    <mergeCell ref="L92:M92"/>
-    <mergeCell ref="J88:K88"/>
-    <mergeCell ref="L88:M88"/>
-    <mergeCell ref="D90:I90"/>
-    <mergeCell ref="J90:K90"/>
-    <mergeCell ref="C80:G80"/>
-    <mergeCell ref="C81:G81"/>
-    <mergeCell ref="C82:G82"/>
-    <mergeCell ref="C83:G83"/>
-    <mergeCell ref="E49:F49"/>
-    <mergeCell ref="E50:F50"/>
-    <mergeCell ref="C64:M64"/>
-    <mergeCell ref="I57:J58"/>
-    <mergeCell ref="A1:A5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E17:F17"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="1">
@@ -17864,7 +18035,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="2" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A1" s="318" t="s">
+      <c r="A1" s="312" t="s">
         <v>132</v>
       </c>
       <c r="B1" s="1"/>
@@ -17875,7 +18046,7 @@
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:16" s="2" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A2" s="319"/>
+      <c r="A2" s="313"/>
       <c r="B2" s="3" t="s">
         <v>15</v>
       </c>
@@ -17886,18 +18057,18 @@
       <c r="G2" s="4"/>
     </row>
     <row r="3" spans="1:16" s="6" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A3" s="319"/>
+      <c r="A3" s="313"/>
       <c r="G3" s="81"/>
     </row>
     <row r="4" spans="1:16" s="6" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A4" s="319"/>
+      <c r="A4" s="313"/>
       <c r="B4" s="7" t="s">
         <v>16</v>
       </c>
       <c r="G4" s="81"/>
     </row>
     <row r="5" spans="1:16" s="10" customFormat="1" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A5" s="320"/>
+      <c r="A5" s="314"/>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
@@ -17912,15 +18083,15 @@
       <c r="B6" s="95" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="332" t="s">
+      <c r="C6" s="346" t="s">
         <v>341</v>
       </c>
-      <c r="D6" s="333"/>
-      <c r="E6" s="334" t="s">
+      <c r="D6" s="347"/>
+      <c r="E6" s="348" t="s">
         <v>331</v>
       </c>
-      <c r="F6" s="335"/>
-      <c r="G6" s="336"/>
+      <c r="F6" s="349"/>
+      <c r="G6" s="350"/>
       <c r="H6" s="82" t="s">
         <v>14</v>
       </c>
@@ -17969,10 +18140,10 @@
       <c r="B9" s="83"/>
       <c r="C9" s="146"/>
       <c r="D9" s="16"/>
-      <c r="E9" s="360" t="s">
+      <c r="E9" s="357" t="s">
         <v>332</v>
       </c>
-      <c r="F9" s="360"/>
+      <c r="F9" s="357"/>
       <c r="G9" s="16"/>
       <c r="H9" s="16"/>
       <c r="I9" s="16"/>
@@ -17986,8 +18157,8 @@
       <c r="B10" s="83"/>
       <c r="C10" s="212"/>
       <c r="D10" s="212"/>
-      <c r="E10" s="360"/>
-      <c r="F10" s="360"/>
+      <c r="E10" s="357"/>
+      <c r="F10" s="357"/>
       <c r="G10" s="212"/>
       <c r="H10" s="212"/>
       <c r="I10" s="212"/>
@@ -18002,8 +18173,8 @@
       <c r="B11" s="83"/>
       <c r="C11" s="149"/>
       <c r="D11" s="212"/>
-      <c r="E11" s="338"/>
-      <c r="F11" s="338"/>
+      <c r="E11" s="352"/>
+      <c r="F11" s="352"/>
       <c r="G11" s="150"/>
       <c r="H11" s="150"/>
       <c r="I11" s="151"/>
@@ -18020,8 +18191,8 @@
       <c r="B12" s="83"/>
       <c r="C12" s="149"/>
       <c r="D12" s="212"/>
-      <c r="E12" s="339"/>
-      <c r="F12" s="339"/>
+      <c r="E12" s="353"/>
+      <c r="F12" s="353"/>
       <c r="G12" s="230"/>
       <c r="H12" s="230"/>
       <c r="I12" s="231"/>
@@ -18447,7 +18618,7 @@
       <c r="B35" s="83"/>
       <c r="C35" s="149"/>
       <c r="D35" s="212"/>
-      <c r="E35" s="317" t="s">
+      <c r="E35" s="311" t="s">
         <v>398</v>
       </c>
       <c r="F35" s="211"/>
@@ -18503,7 +18674,7 @@
       <c r="B38" s="83"/>
       <c r="C38" s="149"/>
       <c r="D38" s="212"/>
-      <c r="E38" s="317" t="s">
+      <c r="E38" s="311" t="s">
         <v>399</v>
       </c>
       <c r="F38" s="238"/>
@@ -18559,7 +18730,7 @@
       <c r="B41" s="83"/>
       <c r="C41" s="149"/>
       <c r="D41" s="212"/>
-      <c r="E41" s="317" t="s">
+      <c r="E41" s="311" t="s">
         <v>400</v>
       </c>
       <c r="F41" s="238"/>
@@ -18615,10 +18786,10 @@
       <c r="B44" s="83"/>
       <c r="C44" s="149"/>
       <c r="D44" s="212"/>
-      <c r="E44" s="322" t="s">
+      <c r="E44" s="336" t="s">
         <v>401</v>
       </c>
-      <c r="F44" s="323"/>
+      <c r="F44" s="337"/>
       <c r="G44" s="150"/>
       <c r="H44" s="150"/>
       <c r="I44" s="151"/>
@@ -18635,8 +18806,8 @@
       <c r="B45" s="83"/>
       <c r="C45" s="150"/>
       <c r="D45" s="150"/>
-      <c r="E45" s="324"/>
-      <c r="F45" s="325"/>
+      <c r="E45" s="338"/>
+      <c r="F45" s="339"/>
       <c r="G45" s="244"/>
       <c r="H45" s="227"/>
       <c r="I45" s="151"/>
@@ -18743,16 +18914,16 @@
       <c r="B52" s="83"/>
       <c r="C52" s="16"/>
       <c r="D52" s="16"/>
-      <c r="E52" s="328" t="s">
+      <c r="E52" s="342" t="s">
         <v>332</v>
       </c>
-      <c r="F52" s="361"/>
-      <c r="G52" s="329"/>
+      <c r="F52" s="358"/>
+      <c r="G52" s="343"/>
       <c r="H52" s="22"/>
-      <c r="I52" s="328" t="s">
+      <c r="I52" s="342" t="s">
         <v>284</v>
       </c>
-      <c r="J52" s="329"/>
+      <c r="J52" s="343"/>
       <c r="K52" s="16"/>
       <c r="L52" s="16"/>
       <c r="M52" s="144"/>
@@ -18762,12 +18933,12 @@
       <c r="B53" s="83"/>
       <c r="C53" s="16"/>
       <c r="D53" s="16"/>
-      <c r="E53" s="330"/>
-      <c r="F53" s="362"/>
-      <c r="G53" s="331"/>
+      <c r="E53" s="344"/>
+      <c r="F53" s="359"/>
+      <c r="G53" s="345"/>
       <c r="H53" s="22"/>
-      <c r="I53" s="330"/>
-      <c r="J53" s="331"/>
+      <c r="I53" s="344"/>
+      <c r="J53" s="345"/>
       <c r="K53" s="16"/>
       <c r="L53" s="16"/>
       <c r="M53" s="144"/>
@@ -18854,17 +19025,17 @@
       <c r="B59" s="164" t="s">
         <v>43</v>
       </c>
-      <c r="C59" s="326"/>
-      <c r="D59" s="327"/>
-      <c r="E59" s="327"/>
-      <c r="F59" s="327"/>
-      <c r="G59" s="327"/>
-      <c r="H59" s="327"/>
-      <c r="I59" s="327"/>
-      <c r="J59" s="327"/>
-      <c r="K59" s="327"/>
-      <c r="L59" s="327"/>
-      <c r="M59" s="327"/>
+      <c r="C59" s="340"/>
+      <c r="D59" s="341"/>
+      <c r="E59" s="341"/>
+      <c r="F59" s="341"/>
+      <c r="G59" s="341"/>
+      <c r="H59" s="341"/>
+      <c r="I59" s="341"/>
+      <c r="J59" s="341"/>
+      <c r="K59" s="341"/>
+      <c r="L59" s="341"/>
+      <c r="M59" s="341"/>
     </row>
     <row r="60" spans="1:15" ht="16.5" customHeight="1">
       <c r="A60" s="13"/>
@@ -19002,13 +19173,13 @@
       <c r="B69" s="168" t="s">
         <v>309</v>
       </c>
-      <c r="C69" s="348" t="s">
+      <c r="C69" s="319" t="s">
         <v>310</v>
       </c>
-      <c r="D69" s="349"/>
-      <c r="E69" s="349"/>
-      <c r="F69" s="349"/>
-      <c r="G69" s="350"/>
+      <c r="D69" s="320"/>
+      <c r="E69" s="320"/>
+      <c r="F69" s="320"/>
+      <c r="G69" s="321"/>
       <c r="H69" s="251" t="s">
         <v>19</v>
       </c>
@@ -19028,13 +19199,13 @@
       <c r="B70" s="256" t="s">
         <v>304</v>
       </c>
-      <c r="C70" s="363" t="s">
+      <c r="C70" s="354" t="s">
         <v>338</v>
       </c>
-      <c r="D70" s="364"/>
-      <c r="E70" s="364"/>
-      <c r="F70" s="364"/>
-      <c r="G70" s="365"/>
+      <c r="D70" s="355"/>
+      <c r="E70" s="355"/>
+      <c r="F70" s="355"/>
+      <c r="G70" s="356"/>
       <c r="H70" s="257" t="s">
         <v>19</v>
       </c>
@@ -19055,13 +19226,13 @@
       <c r="B71" s="66" t="s">
         <v>289</v>
       </c>
-      <c r="C71" s="348" t="s">
+      <c r="C71" s="319" t="s">
         <v>312</v>
       </c>
-      <c r="D71" s="349"/>
-      <c r="E71" s="349"/>
-      <c r="F71" s="349"/>
-      <c r="G71" s="350"/>
+      <c r="D71" s="320"/>
+      <c r="E71" s="320"/>
+      <c r="F71" s="320"/>
+      <c r="G71" s="321"/>
       <c r="H71" s="12" t="s">
         <v>19</v>
       </c>
@@ -19081,13 +19252,13 @@
       <c r="B72" s="168" t="s">
         <v>290</v>
       </c>
-      <c r="C72" s="348" t="s">
+      <c r="C72" s="319" t="s">
         <v>313</v>
       </c>
-      <c r="D72" s="349"/>
-      <c r="E72" s="349"/>
-      <c r="F72" s="349"/>
-      <c r="G72" s="350"/>
+      <c r="D72" s="320"/>
+      <c r="E72" s="320"/>
+      <c r="F72" s="320"/>
+      <c r="G72" s="321"/>
       <c r="H72" s="12" t="s">
         <v>19</v>
       </c>
@@ -19108,13 +19279,13 @@
       <c r="B73" s="66" t="s">
         <v>305</v>
       </c>
-      <c r="C73" s="348" t="s">
+      <c r="C73" s="319" t="s">
         <v>314</v>
       </c>
-      <c r="D73" s="349"/>
-      <c r="E73" s="349"/>
-      <c r="F73" s="349"/>
-      <c r="G73" s="350"/>
+      <c r="D73" s="320"/>
+      <c r="E73" s="320"/>
+      <c r="F73" s="320"/>
+      <c r="G73" s="321"/>
       <c r="H73" s="12" t="s">
         <v>19</v>
       </c>
@@ -19135,17 +19306,17 @@
       <c r="B74" s="66" t="s">
         <v>291</v>
       </c>
-      <c r="C74" s="348" t="s">
+      <c r="C74" s="319" t="s">
         <v>315</v>
       </c>
-      <c r="D74" s="349"/>
-      <c r="E74" s="349"/>
-      <c r="F74" s="349"/>
-      <c r="G74" s="350"/>
+      <c r="D74" s="320"/>
+      <c r="E74" s="320"/>
+      <c r="F74" s="320"/>
+      <c r="G74" s="321"/>
       <c r="H74" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="I74" s="316" t="s">
+      <c r="I74" s="310" t="s">
         <v>59</v>
       </c>
       <c r="J74" s="12" t="s">
@@ -19162,17 +19333,17 @@
       <c r="B75" s="66" t="s">
         <v>292</v>
       </c>
-      <c r="C75" s="348" t="s">
+      <c r="C75" s="319" t="s">
         <v>316</v>
       </c>
-      <c r="D75" s="349"/>
-      <c r="E75" s="349"/>
-      <c r="F75" s="349"/>
-      <c r="G75" s="350"/>
+      <c r="D75" s="320"/>
+      <c r="E75" s="320"/>
+      <c r="F75" s="320"/>
+      <c r="G75" s="321"/>
       <c r="H75" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="I75" s="316" t="s">
+      <c r="I75" s="310" t="s">
         <v>59</v>
       </c>
       <c r="J75" s="12" t="s">
@@ -19189,17 +19360,17 @@
       <c r="B76" s="66" t="s">
         <v>293</v>
       </c>
-      <c r="C76" s="348" t="s">
+      <c r="C76" s="319" t="s">
         <v>317</v>
       </c>
-      <c r="D76" s="349"/>
-      <c r="E76" s="349"/>
-      <c r="F76" s="349"/>
-      <c r="G76" s="350"/>
+      <c r="D76" s="320"/>
+      <c r="E76" s="320"/>
+      <c r="F76" s="320"/>
+      <c r="G76" s="321"/>
       <c r="H76" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="I76" s="316" t="s">
+      <c r="I76" s="310" t="s">
         <v>59</v>
       </c>
       <c r="J76" s="12" t="s">
@@ -19216,17 +19387,17 @@
       <c r="B77" s="66" t="s">
         <v>294</v>
       </c>
-      <c r="C77" s="351" t="s">
+      <c r="C77" s="316" t="s">
         <v>318</v>
       </c>
-      <c r="D77" s="352"/>
-      <c r="E77" s="352"/>
-      <c r="F77" s="352"/>
-      <c r="G77" s="353"/>
+      <c r="D77" s="317"/>
+      <c r="E77" s="317"/>
+      <c r="F77" s="317"/>
+      <c r="G77" s="318"/>
       <c r="H77" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="I77" s="316" t="s">
+      <c r="I77" s="310" t="s">
         <v>59</v>
       </c>
       <c r="J77" s="12" t="s">
@@ -19243,13 +19414,13 @@
       <c r="B78" s="66" t="s">
         <v>295</v>
       </c>
-      <c r="C78" s="351" t="s">
+      <c r="C78" s="316" t="s">
         <v>319</v>
       </c>
-      <c r="D78" s="352"/>
-      <c r="E78" s="352"/>
-      <c r="F78" s="352"/>
-      <c r="G78" s="353"/>
+      <c r="D78" s="317"/>
+      <c r="E78" s="317"/>
+      <c r="F78" s="317"/>
+      <c r="G78" s="318"/>
       <c r="H78" s="12" t="s">
         <v>19</v>
       </c>
@@ -19268,11 +19439,11 @@
     <row r="79" spans="1:13" ht="16.5" customHeight="1">
       <c r="A79" s="13"/>
       <c r="B79" s="66"/>
-      <c r="C79" s="348"/>
-      <c r="D79" s="349"/>
-      <c r="E79" s="349"/>
-      <c r="F79" s="349"/>
-      <c r="G79" s="350"/>
+      <c r="C79" s="319"/>
+      <c r="D79" s="320"/>
+      <c r="E79" s="320"/>
+      <c r="F79" s="320"/>
+      <c r="G79" s="321"/>
       <c r="H79" s="12" t="s">
         <v>19</v>
       </c>
@@ -19332,14 +19503,14 @@
       <c r="C83" s="204" t="s">
         <v>322</v>
       </c>
-      <c r="D83" s="348" t="s">
+      <c r="D83" s="319" t="s">
         <v>323</v>
       </c>
-      <c r="E83" s="349"/>
-      <c r="F83" s="349"/>
-      <c r="G83" s="349"/>
-      <c r="H83" s="349"/>
-      <c r="I83" s="350"/>
+      <c r="E83" s="320"/>
+      <c r="F83" s="320"/>
+      <c r="G83" s="320"/>
+      <c r="H83" s="320"/>
+      <c r="I83" s="321"/>
       <c r="J83" s="204" t="s">
         <v>329</v>
       </c>
@@ -19357,22 +19528,22 @@
       <c r="C84" s="216" t="s">
         <v>335</v>
       </c>
-      <c r="D84" s="348" t="s">
+      <c r="D84" s="319" t="s">
         <v>339</v>
       </c>
-      <c r="E84" s="349"/>
-      <c r="F84" s="349"/>
-      <c r="G84" s="349"/>
-      <c r="H84" s="349"/>
-      <c r="I84" s="350"/>
-      <c r="J84" s="342" t="s">
+      <c r="E84" s="320"/>
+      <c r="F84" s="320"/>
+      <c r="G84" s="320"/>
+      <c r="H84" s="320"/>
+      <c r="I84" s="321"/>
+      <c r="J84" s="322" t="s">
         <v>357</v>
       </c>
-      <c r="K84" s="343"/>
-      <c r="L84" s="342" t="s">
+      <c r="K84" s="330"/>
+      <c r="L84" s="322" t="s">
         <v>342</v>
       </c>
-      <c r="M84" s="355"/>
+      <c r="M84" s="331"/>
     </row>
     <row r="85" spans="1:15" ht="16.5" customHeight="1">
       <c r="A85" s="13"/>
@@ -19382,29 +19553,29 @@
       <c r="C85" s="204" t="s">
         <v>284</v>
       </c>
-      <c r="D85" s="348" t="s">
+      <c r="D85" s="319" t="s">
         <v>336</v>
       </c>
-      <c r="E85" s="349"/>
-      <c r="F85" s="349"/>
-      <c r="G85" s="349"/>
-      <c r="H85" s="349"/>
-      <c r="I85" s="350"/>
-      <c r="J85" s="354"/>
-      <c r="K85" s="343"/>
-      <c r="L85" s="342"/>
-      <c r="M85" s="355"/>
+      <c r="E85" s="320"/>
+      <c r="F85" s="320"/>
+      <c r="G85" s="320"/>
+      <c r="H85" s="320"/>
+      <c r="I85" s="321"/>
+      <c r="J85" s="329"/>
+      <c r="K85" s="330"/>
+      <c r="L85" s="322"/>
+      <c r="M85" s="331"/>
     </row>
     <row r="86" spans="1:15" ht="27" customHeight="1">
       <c r="A86" s="13"/>
       <c r="B86" s="80"/>
       <c r="C86" s="204"/>
-      <c r="D86" s="342"/>
-      <c r="E86" s="359"/>
-      <c r="F86" s="359"/>
-      <c r="G86" s="359"/>
-      <c r="H86" s="359"/>
-      <c r="I86" s="358"/>
+      <c r="D86" s="322"/>
+      <c r="E86" s="323"/>
+      <c r="F86" s="323"/>
+      <c r="G86" s="323"/>
+      <c r="H86" s="323"/>
+      <c r="I86" s="324"/>
       <c r="J86" s="204"/>
       <c r="K86" s="205"/>
       <c r="L86" s="206"/>
@@ -19414,72 +19585,72 @@
       <c r="A87" s="13"/>
       <c r="B87" s="80"/>
       <c r="C87" s="204"/>
-      <c r="D87" s="342"/>
-      <c r="E87" s="357"/>
-      <c r="F87" s="357"/>
-      <c r="G87" s="357"/>
-      <c r="H87" s="357"/>
-      <c r="I87" s="356"/>
+      <c r="D87" s="322"/>
+      <c r="E87" s="325"/>
+      <c r="F87" s="325"/>
+      <c r="G87" s="325"/>
+      <c r="H87" s="325"/>
+      <c r="I87" s="326"/>
       <c r="J87" s="204"/>
       <c r="K87" s="205"/>
-      <c r="L87" s="348"/>
-      <c r="M87" s="350"/>
+      <c r="L87" s="319"/>
+      <c r="M87" s="321"/>
     </row>
     <row r="88" spans="1:15" ht="47.25" customHeight="1">
       <c r="A88" s="13"/>
       <c r="B88" s="80"/>
       <c r="C88" s="204"/>
-      <c r="D88" s="342"/>
-      <c r="E88" s="344"/>
-      <c r="F88" s="344"/>
-      <c r="G88" s="344"/>
-      <c r="H88" s="344"/>
-      <c r="I88" s="345"/>
-      <c r="J88" s="354"/>
-      <c r="K88" s="345"/>
-      <c r="L88" s="354"/>
-      <c r="M88" s="345"/>
+      <c r="D88" s="322"/>
+      <c r="E88" s="327"/>
+      <c r="F88" s="327"/>
+      <c r="G88" s="327"/>
+      <c r="H88" s="327"/>
+      <c r="I88" s="328"/>
+      <c r="J88" s="329"/>
+      <c r="K88" s="328"/>
+      <c r="L88" s="329"/>
+      <c r="M88" s="328"/>
     </row>
     <row r="89" spans="1:15" ht="97.5" customHeight="1">
       <c r="A89" s="13"/>
       <c r="B89" s="80"/>
       <c r="C89" s="204"/>
-      <c r="D89" s="342"/>
-      <c r="E89" s="357"/>
-      <c r="F89" s="357"/>
-      <c r="G89" s="357"/>
-      <c r="H89" s="357"/>
-      <c r="I89" s="356"/>
-      <c r="J89" s="354"/>
-      <c r="K89" s="358"/>
-      <c r="L89" s="342"/>
-      <c r="M89" s="355"/>
+      <c r="D89" s="322"/>
+      <c r="E89" s="325"/>
+      <c r="F89" s="325"/>
+      <c r="G89" s="325"/>
+      <c r="H89" s="325"/>
+      <c r="I89" s="326"/>
+      <c r="J89" s="329"/>
+      <c r="K89" s="324"/>
+      <c r="L89" s="322"/>
+      <c r="M89" s="331"/>
     </row>
     <row r="90" spans="1:15" ht="92.25" customHeight="1">
       <c r="A90" s="13"/>
       <c r="B90" s="80"/>
       <c r="C90" s="204"/>
-      <c r="D90" s="342"/>
-      <c r="E90" s="357"/>
-      <c r="F90" s="357"/>
-      <c r="G90" s="357"/>
-      <c r="H90" s="357"/>
-      <c r="I90" s="356"/>
-      <c r="J90" s="354"/>
-      <c r="K90" s="358"/>
-      <c r="L90" s="354"/>
-      <c r="M90" s="358"/>
+      <c r="D90" s="322"/>
+      <c r="E90" s="325"/>
+      <c r="F90" s="325"/>
+      <c r="G90" s="325"/>
+      <c r="H90" s="325"/>
+      <c r="I90" s="326"/>
+      <c r="J90" s="329"/>
+      <c r="K90" s="324"/>
+      <c r="L90" s="329"/>
+      <c r="M90" s="324"/>
     </row>
     <row r="91" spans="1:15" ht="27" customHeight="1">
       <c r="A91" s="13"/>
       <c r="B91" s="80"/>
       <c r="C91" s="204"/>
-      <c r="D91" s="348"/>
-      <c r="E91" s="349"/>
-      <c r="F91" s="349"/>
-      <c r="G91" s="349"/>
-      <c r="H91" s="349"/>
-      <c r="I91" s="350"/>
+      <c r="D91" s="319"/>
+      <c r="E91" s="320"/>
+      <c r="F91" s="320"/>
+      <c r="G91" s="320"/>
+      <c r="H91" s="320"/>
+      <c r="I91" s="321"/>
       <c r="J91" s="204"/>
       <c r="K91" s="210"/>
       <c r="L91" s="204"/>
@@ -19489,12 +19660,12 @@
       <c r="A92" s="13"/>
       <c r="B92" s="80"/>
       <c r="C92" s="204"/>
-      <c r="D92" s="348"/>
-      <c r="E92" s="349"/>
-      <c r="F92" s="349"/>
-      <c r="G92" s="349"/>
-      <c r="H92" s="349"/>
-      <c r="I92" s="350"/>
+      <c r="D92" s="319"/>
+      <c r="E92" s="320"/>
+      <c r="F92" s="320"/>
+      <c r="G92" s="320"/>
+      <c r="H92" s="320"/>
+      <c r="I92" s="321"/>
       <c r="J92" s="204"/>
       <c r="K92" s="210"/>
       <c r="L92" s="204"/>
@@ -19504,16 +19675,16 @@
       <c r="A93" s="13"/>
       <c r="B93" s="80"/>
       <c r="C93" s="206"/>
-      <c r="D93" s="342"/>
-      <c r="E93" s="359"/>
-      <c r="F93" s="359"/>
-      <c r="G93" s="359"/>
-      <c r="H93" s="359"/>
-      <c r="I93" s="358"/>
-      <c r="J93" s="354"/>
-      <c r="K93" s="343"/>
-      <c r="L93" s="342"/>
-      <c r="M93" s="356"/>
+      <c r="D93" s="322"/>
+      <c r="E93" s="323"/>
+      <c r="F93" s="323"/>
+      <c r="G93" s="323"/>
+      <c r="H93" s="323"/>
+      <c r="I93" s="324"/>
+      <c r="J93" s="329"/>
+      <c r="K93" s="330"/>
+      <c r="L93" s="322"/>
+      <c r="M93" s="326"/>
     </row>
     <row r="94" spans="1:15" s="165" customFormat="1" ht="16.5" customHeight="1"/>
     <row r="95" spans="1:15" ht="16.5" customHeight="1">
@@ -19759,13 +19930,13 @@
     <row r="109" spans="1:15" ht="16.5" customHeight="1">
       <c r="A109" s="13"/>
       <c r="B109" s="66"/>
-      <c r="C109" s="351"/>
-      <c r="D109" s="352"/>
-      <c r="E109" s="352"/>
-      <c r="F109" s="352"/>
-      <c r="G109" s="352"/>
-      <c r="H109" s="352"/>
-      <c r="I109" s="353"/>
+      <c r="C109" s="316"/>
+      <c r="D109" s="317"/>
+      <c r="E109" s="317"/>
+      <c r="F109" s="317"/>
+      <c r="G109" s="317"/>
+      <c r="H109" s="317"/>
+      <c r="I109" s="318"/>
       <c r="J109" s="66"/>
       <c r="K109" s="80"/>
       <c r="L109" s="80"/>
@@ -19776,13 +19947,13 @@
     <row r="110" spans="1:15" ht="16.5" customHeight="1">
       <c r="A110" s="13"/>
       <c r="B110" s="66"/>
-      <c r="C110" s="351"/>
-      <c r="D110" s="352"/>
-      <c r="E110" s="352"/>
-      <c r="F110" s="352"/>
-      <c r="G110" s="352"/>
-      <c r="H110" s="352"/>
-      <c r="I110" s="353"/>
+      <c r="C110" s="316"/>
+      <c r="D110" s="317"/>
+      <c r="E110" s="317"/>
+      <c r="F110" s="317"/>
+      <c r="G110" s="317"/>
+      <c r="H110" s="317"/>
+      <c r="I110" s="318"/>
       <c r="J110" s="66"/>
       <c r="K110" s="80"/>
       <c r="L110" s="80"/>
@@ -20202,35 +20373,13 @@
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="C109:I109"/>
-    <mergeCell ref="C110:I110"/>
-    <mergeCell ref="D90:I90"/>
-    <mergeCell ref="J90:K90"/>
-    <mergeCell ref="L90:M90"/>
-    <mergeCell ref="D91:I91"/>
-    <mergeCell ref="D92:I92"/>
-    <mergeCell ref="D93:I93"/>
-    <mergeCell ref="J93:K93"/>
-    <mergeCell ref="L93:M93"/>
-    <mergeCell ref="D88:I88"/>
-    <mergeCell ref="J88:K88"/>
-    <mergeCell ref="L88:M88"/>
-    <mergeCell ref="D89:I89"/>
-    <mergeCell ref="J89:K89"/>
-    <mergeCell ref="L89:M89"/>
-    <mergeCell ref="D85:I85"/>
-    <mergeCell ref="J85:K85"/>
-    <mergeCell ref="L85:M85"/>
-    <mergeCell ref="D86:I86"/>
-    <mergeCell ref="D87:I87"/>
-    <mergeCell ref="L87:M87"/>
-    <mergeCell ref="L84:M84"/>
-    <mergeCell ref="C77:G77"/>
-    <mergeCell ref="C78:G78"/>
-    <mergeCell ref="C79:G79"/>
-    <mergeCell ref="D83:I83"/>
-    <mergeCell ref="D84:I84"/>
-    <mergeCell ref="J84:K84"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E9:F10"/>
+    <mergeCell ref="E52:G53"/>
+    <mergeCell ref="A1:A5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="E11:F11"/>
     <mergeCell ref="C76:G76"/>
     <mergeCell ref="E44:F44"/>
     <mergeCell ref="E45:F45"/>
@@ -20243,13 +20392,35 @@
     <mergeCell ref="C73:G73"/>
     <mergeCell ref="C74:G74"/>
     <mergeCell ref="C75:G75"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E9:F10"/>
-    <mergeCell ref="E52:G53"/>
-    <mergeCell ref="A1:A5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="L84:M84"/>
+    <mergeCell ref="C77:G77"/>
+    <mergeCell ref="C78:G78"/>
+    <mergeCell ref="C79:G79"/>
+    <mergeCell ref="D83:I83"/>
+    <mergeCell ref="D84:I84"/>
+    <mergeCell ref="J84:K84"/>
+    <mergeCell ref="D85:I85"/>
+    <mergeCell ref="J85:K85"/>
+    <mergeCell ref="L85:M85"/>
+    <mergeCell ref="D86:I86"/>
+    <mergeCell ref="D87:I87"/>
+    <mergeCell ref="L87:M87"/>
+    <mergeCell ref="D88:I88"/>
+    <mergeCell ref="J88:K88"/>
+    <mergeCell ref="L88:M88"/>
+    <mergeCell ref="D89:I89"/>
+    <mergeCell ref="J89:K89"/>
+    <mergeCell ref="L89:M89"/>
+    <mergeCell ref="C109:I109"/>
+    <mergeCell ref="C110:I110"/>
+    <mergeCell ref="D90:I90"/>
+    <mergeCell ref="J90:K90"/>
+    <mergeCell ref="L90:M90"/>
+    <mergeCell ref="D91:I91"/>
+    <mergeCell ref="D92:I92"/>
+    <mergeCell ref="D93:I93"/>
+    <mergeCell ref="J93:K93"/>
+    <mergeCell ref="L93:M93"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="1">
@@ -21112,7 +21283,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="2" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A1" s="318" t="s">
+      <c r="A1" s="312" t="s">
         <v>4</v>
       </c>
       <c r="B1" s="1"/>
@@ -21123,7 +21294,7 @@
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:16" s="2" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A2" s="319"/>
+      <c r="A2" s="313"/>
       <c r="B2" s="3" t="s">
         <v>15</v>
       </c>
@@ -21134,18 +21305,18 @@
       <c r="G2" s="4"/>
     </row>
     <row r="3" spans="1:16" s="6" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A3" s="319"/>
+      <c r="A3" s="313"/>
       <c r="G3" s="81"/>
     </row>
     <row r="4" spans="1:16" s="6" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A4" s="319"/>
+      <c r="A4" s="313"/>
       <c r="B4" s="7" t="s">
         <v>16</v>
       </c>
       <c r="G4" s="81"/>
     </row>
     <row r="5" spans="1:16" s="10" customFormat="1" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A5" s="320"/>
+      <c r="A5" s="314"/>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
@@ -21160,15 +21331,15 @@
       <c r="B6" s="95" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="332" t="s">
+      <c r="C6" s="346" t="s">
         <v>344</v>
       </c>
-      <c r="D6" s="333"/>
-      <c r="E6" s="334" t="s">
+      <c r="D6" s="347"/>
+      <c r="E6" s="348" t="s">
         <v>123</v>
       </c>
-      <c r="F6" s="335"/>
-      <c r="G6" s="336"/>
+      <c r="F6" s="349"/>
+      <c r="G6" s="350"/>
       <c r="H6" s="82" t="s">
         <v>1</v>
       </c>
@@ -21265,10 +21436,10 @@
       <c r="D12" s="16"/>
       <c r="E12" s="16"/>
       <c r="F12" s="16"/>
-      <c r="G12" s="366" t="s">
+      <c r="G12" s="360" t="s">
         <v>345</v>
       </c>
-      <c r="H12" s="366"/>
+      <c r="H12" s="360"/>
       <c r="I12" s="16"/>
       <c r="J12" s="16"/>
       <c r="K12" s="16"/>
@@ -21282,8 +21453,8 @@
       <c r="D13" s="16"/>
       <c r="E13" s="16"/>
       <c r="F13" s="16"/>
-      <c r="G13" s="366"/>
-      <c r="H13" s="366"/>
+      <c r="G13" s="360"/>
+      <c r="H13" s="360"/>
       <c r="I13" s="16"/>
       <c r="J13" s="16"/>
       <c r="K13" s="16"/>
@@ -21296,8 +21467,8 @@
       <c r="D14" s="16"/>
       <c r="E14" s="16"/>
       <c r="F14" s="16"/>
-      <c r="G14" s="366"/>
-      <c r="H14" s="366"/>
+      <c r="G14" s="360"/>
+      <c r="H14" s="360"/>
       <c r="I14" s="16"/>
       <c r="J14" s="16"/>
       <c r="K14" s="31"/>
@@ -21309,8 +21480,8 @@
       <c r="B15" s="83"/>
       <c r="C15" s="225"/>
       <c r="D15" s="225"/>
-      <c r="E15" s="337"/>
-      <c r="F15" s="337"/>
+      <c r="E15" s="351"/>
+      <c r="F15" s="351"/>
       <c r="G15" s="225"/>
       <c r="H15" s="225"/>
       <c r="I15" s="225"/>
@@ -21325,8 +21496,8 @@
       <c r="B16" s="83"/>
       <c r="C16" s="149"/>
       <c r="D16" s="225"/>
-      <c r="E16" s="338"/>
-      <c r="F16" s="338"/>
+      <c r="E16" s="352"/>
+      <c r="F16" s="352"/>
       <c r="G16" s="150"/>
       <c r="H16" s="150"/>
       <c r="I16" s="151"/>
@@ -21343,8 +21514,8 @@
       <c r="B17" s="83"/>
       <c r="C17" s="149"/>
       <c r="D17" s="225"/>
-      <c r="E17" s="339"/>
-      <c r="F17" s="339"/>
+      <c r="E17" s="353"/>
+      <c r="F17" s="353"/>
       <c r="G17" s="230"/>
       <c r="H17" s="230"/>
       <c r="I17" s="231"/>
@@ -21560,14 +21731,14 @@
       <c r="C29" s="149"/>
       <c r="D29" s="225"/>
       <c r="E29" s="224"/>
-      <c r="F29" s="367" t="s">
+      <c r="F29" s="361" t="s">
         <v>346</v>
       </c>
-      <c r="G29" s="367"/>
-      <c r="H29" s="368" t="s">
+      <c r="G29" s="361"/>
+      <c r="H29" s="362" t="s">
         <v>126</v>
       </c>
-      <c r="I29" s="368"/>
+      <c r="I29" s="362"/>
       <c r="J29" s="152"/>
       <c r="K29" s="151"/>
       <c r="L29" s="151"/>
@@ -21733,17 +21904,17 @@
       <c r="B39" s="164" t="s">
         <v>43</v>
       </c>
-      <c r="C39" s="326"/>
-      <c r="D39" s="327"/>
-      <c r="E39" s="327"/>
-      <c r="F39" s="327"/>
-      <c r="G39" s="327"/>
-      <c r="H39" s="327"/>
-      <c r="I39" s="327"/>
-      <c r="J39" s="327"/>
-      <c r="K39" s="327"/>
-      <c r="L39" s="327"/>
-      <c r="M39" s="327"/>
+      <c r="C39" s="340"/>
+      <c r="D39" s="341"/>
+      <c r="E39" s="341"/>
+      <c r="F39" s="341"/>
+      <c r="G39" s="341"/>
+      <c r="H39" s="341"/>
+      <c r="I39" s="341"/>
+      <c r="J39" s="341"/>
+      <c r="K39" s="341"/>
+      <c r="L39" s="341"/>
+      <c r="M39" s="341"/>
     </row>
     <row r="40" spans="1:16" ht="16.5" customHeight="1">
       <c r="A40" s="13"/>
@@ -21881,13 +22052,13 @@
       <c r="B49" s="168" t="s">
         <v>133</v>
       </c>
-      <c r="C49" s="348" t="s">
+      <c r="C49" s="319" t="s">
         <v>364</v>
       </c>
-      <c r="D49" s="349"/>
-      <c r="E49" s="349"/>
-      <c r="F49" s="349"/>
-      <c r="G49" s="350"/>
+      <c r="D49" s="320"/>
+      <c r="E49" s="320"/>
+      <c r="F49" s="320"/>
+      <c r="G49" s="321"/>
       <c r="H49" s="251" t="s">
         <v>19</v>
       </c>
@@ -21908,13 +22079,13 @@
       <c r="B50" s="66" t="s">
         <v>289</v>
       </c>
-      <c r="C50" s="348" t="s">
+      <c r="C50" s="319" t="s">
         <v>348</v>
       </c>
-      <c r="D50" s="349"/>
-      <c r="E50" s="349"/>
-      <c r="F50" s="349"/>
-      <c r="G50" s="350"/>
+      <c r="D50" s="320"/>
+      <c r="E50" s="320"/>
+      <c r="F50" s="320"/>
+      <c r="G50" s="321"/>
       <c r="H50" s="12" t="s">
         <v>19</v>
       </c>
@@ -21932,11 +22103,11 @@
     </row>
     <row r="51" spans="1:13" s="250" customFormat="1" ht="16.5" customHeight="1">
       <c r="B51" s="168"/>
-      <c r="C51" s="348"/>
-      <c r="D51" s="349"/>
-      <c r="E51" s="349"/>
-      <c r="F51" s="349"/>
-      <c r="G51" s="350"/>
+      <c r="C51" s="319"/>
+      <c r="D51" s="320"/>
+      <c r="E51" s="320"/>
+      <c r="F51" s="320"/>
+      <c r="G51" s="321"/>
       <c r="H51" s="12" t="s">
         <v>19</v>
       </c>
@@ -21951,11 +22122,11 @@
     <row r="52" spans="1:13" ht="16.5" customHeight="1">
       <c r="A52" s="13"/>
       <c r="B52" s="66"/>
-      <c r="C52" s="348"/>
-      <c r="D52" s="349"/>
-      <c r="E52" s="349"/>
-      <c r="F52" s="349"/>
-      <c r="G52" s="350"/>
+      <c r="C52" s="319"/>
+      <c r="D52" s="320"/>
+      <c r="E52" s="320"/>
+      <c r="F52" s="320"/>
+      <c r="G52" s="321"/>
       <c r="H52" s="12" t="s">
         <v>19</v>
       </c>
@@ -21970,11 +22141,11 @@
     <row r="53" spans="1:13" ht="16.5" customHeight="1">
       <c r="A53" s="13"/>
       <c r="B53" s="66"/>
-      <c r="C53" s="348"/>
-      <c r="D53" s="349"/>
-      <c r="E53" s="349"/>
-      <c r="F53" s="349"/>
-      <c r="G53" s="350"/>
+      <c r="C53" s="319"/>
+      <c r="D53" s="320"/>
+      <c r="E53" s="320"/>
+      <c r="F53" s="320"/>
+      <c r="G53" s="321"/>
       <c r="H53" s="12" t="s">
         <v>19</v>
       </c>
@@ -21989,11 +22160,11 @@
     <row r="54" spans="1:13" ht="16.5" customHeight="1">
       <c r="A54" s="13"/>
       <c r="B54" s="66"/>
-      <c r="C54" s="348"/>
-      <c r="D54" s="349"/>
-      <c r="E54" s="349"/>
-      <c r="F54" s="349"/>
-      <c r="G54" s="350"/>
+      <c r="C54" s="319"/>
+      <c r="D54" s="320"/>
+      <c r="E54" s="320"/>
+      <c r="F54" s="320"/>
+      <c r="G54" s="321"/>
       <c r="H54" s="12" t="s">
         <v>19</v>
       </c>
@@ -22053,22 +22224,22 @@
       <c r="C58" s="216" t="s">
         <v>123</v>
       </c>
-      <c r="D58" s="342" t="s">
+      <c r="D58" s="322" t="s">
         <v>349</v>
       </c>
-      <c r="E58" s="344"/>
-      <c r="F58" s="344"/>
-      <c r="G58" s="344"/>
-      <c r="H58" s="344"/>
-      <c r="I58" s="345"/>
-      <c r="J58" s="354" t="s">
+      <c r="E58" s="327"/>
+      <c r="F58" s="327"/>
+      <c r="G58" s="327"/>
+      <c r="H58" s="327"/>
+      <c r="I58" s="328"/>
+      <c r="J58" s="329" t="s">
         <v>350</v>
       </c>
-      <c r="K58" s="341"/>
-      <c r="L58" s="342" t="s">
+      <c r="K58" s="333"/>
+      <c r="L58" s="322" t="s">
         <v>355</v>
       </c>
-      <c r="M58" s="343"/>
+      <c r="M58" s="330"/>
     </row>
     <row r="59" spans="1:13" ht="36.75" customHeight="1">
       <c r="A59" s="13"/>
@@ -22078,14 +22249,14 @@
       <c r="C59" s="219" t="s">
         <v>351</v>
       </c>
-      <c r="D59" s="348" t="s">
+      <c r="D59" s="319" t="s">
         <v>361</v>
       </c>
-      <c r="E59" s="349"/>
-      <c r="F59" s="349"/>
-      <c r="G59" s="349"/>
-      <c r="H59" s="349"/>
-      <c r="I59" s="350"/>
+      <c r="E59" s="320"/>
+      <c r="F59" s="320"/>
+      <c r="G59" s="320"/>
+      <c r="H59" s="320"/>
+      <c r="I59" s="321"/>
       <c r="J59" s="216"/>
       <c r="K59" s="254"/>
       <c r="L59" s="219"/>
@@ -22099,14 +22270,14 @@
       <c r="C60" s="219" t="s">
         <v>325</v>
       </c>
-      <c r="D60" s="348" t="s">
+      <c r="D60" s="319" t="s">
         <v>352</v>
       </c>
-      <c r="E60" s="349"/>
-      <c r="F60" s="349"/>
-      <c r="G60" s="349"/>
-      <c r="H60" s="349"/>
-      <c r="I60" s="350"/>
+      <c r="E60" s="320"/>
+      <c r="F60" s="320"/>
+      <c r="G60" s="320"/>
+      <c r="H60" s="320"/>
+      <c r="I60" s="321"/>
       <c r="J60" s="216"/>
       <c r="K60" s="254"/>
       <c r="L60" s="219"/>
@@ -22120,29 +22291,29 @@
       <c r="C61" s="216" t="s">
         <v>353</v>
       </c>
-      <c r="D61" s="342" t="s">
+      <c r="D61" s="322" t="s">
         <v>354</v>
       </c>
-      <c r="E61" s="344"/>
-      <c r="F61" s="344"/>
-      <c r="G61" s="344"/>
-      <c r="H61" s="344"/>
-      <c r="I61" s="345"/>
-      <c r="J61" s="340"/>
-      <c r="K61" s="341"/>
-      <c r="L61" s="342"/>
-      <c r="M61" s="343"/>
+      <c r="E61" s="327"/>
+      <c r="F61" s="327"/>
+      <c r="G61" s="327"/>
+      <c r="H61" s="327"/>
+      <c r="I61" s="328"/>
+      <c r="J61" s="332"/>
+      <c r="K61" s="333"/>
+      <c r="L61" s="322"/>
+      <c r="M61" s="330"/>
     </row>
     <row r="62" spans="1:13" ht="16.5" customHeight="1">
       <c r="A62" s="13"/>
       <c r="B62" s="80"/>
       <c r="C62" s="216"/>
-      <c r="D62" s="342"/>
-      <c r="E62" s="359"/>
-      <c r="F62" s="359"/>
-      <c r="G62" s="359"/>
-      <c r="H62" s="359"/>
-      <c r="I62" s="358"/>
+      <c r="D62" s="322"/>
+      <c r="E62" s="323"/>
+      <c r="F62" s="323"/>
+      <c r="G62" s="323"/>
+      <c r="H62" s="323"/>
+      <c r="I62" s="324"/>
       <c r="J62" s="216"/>
       <c r="K62" s="218"/>
       <c r="L62" s="219"/>
@@ -22152,72 +22323,72 @@
       <c r="A63" s="13"/>
       <c r="B63" s="80"/>
       <c r="C63" s="216"/>
-      <c r="D63" s="342"/>
-      <c r="E63" s="357"/>
-      <c r="F63" s="357"/>
-      <c r="G63" s="357"/>
-      <c r="H63" s="357"/>
-      <c r="I63" s="356"/>
+      <c r="D63" s="322"/>
+      <c r="E63" s="325"/>
+      <c r="F63" s="325"/>
+      <c r="G63" s="325"/>
+      <c r="H63" s="325"/>
+      <c r="I63" s="326"/>
       <c r="J63" s="216"/>
       <c r="K63" s="218"/>
-      <c r="L63" s="348"/>
-      <c r="M63" s="350"/>
+      <c r="L63" s="319"/>
+      <c r="M63" s="321"/>
     </row>
     <row r="64" spans="1:13" ht="16.5" customHeight="1">
       <c r="A64" s="13"/>
       <c r="B64" s="80"/>
       <c r="C64" s="216"/>
-      <c r="D64" s="342"/>
-      <c r="E64" s="344"/>
-      <c r="F64" s="344"/>
-      <c r="G64" s="344"/>
-      <c r="H64" s="344"/>
-      <c r="I64" s="345"/>
-      <c r="J64" s="354"/>
-      <c r="K64" s="345"/>
-      <c r="L64" s="354"/>
-      <c r="M64" s="345"/>
+      <c r="D64" s="322"/>
+      <c r="E64" s="327"/>
+      <c r="F64" s="327"/>
+      <c r="G64" s="327"/>
+      <c r="H64" s="327"/>
+      <c r="I64" s="328"/>
+      <c r="J64" s="329"/>
+      <c r="K64" s="328"/>
+      <c r="L64" s="329"/>
+      <c r="M64" s="328"/>
     </row>
     <row r="65" spans="1:15" ht="16.5" customHeight="1">
       <c r="A65" s="13"/>
       <c r="B65" s="80"/>
       <c r="C65" s="216"/>
-      <c r="D65" s="342"/>
-      <c r="E65" s="357"/>
-      <c r="F65" s="357"/>
-      <c r="G65" s="357"/>
-      <c r="H65" s="357"/>
-      <c r="I65" s="356"/>
-      <c r="J65" s="354"/>
-      <c r="K65" s="358"/>
-      <c r="L65" s="342"/>
-      <c r="M65" s="355"/>
+      <c r="D65" s="322"/>
+      <c r="E65" s="325"/>
+      <c r="F65" s="325"/>
+      <c r="G65" s="325"/>
+      <c r="H65" s="325"/>
+      <c r="I65" s="326"/>
+      <c r="J65" s="329"/>
+      <c r="K65" s="324"/>
+      <c r="L65" s="322"/>
+      <c r="M65" s="331"/>
     </row>
     <row r="66" spans="1:15" ht="16.5" customHeight="1">
       <c r="A66" s="13"/>
       <c r="B66" s="80"/>
       <c r="C66" s="216"/>
-      <c r="D66" s="342"/>
-      <c r="E66" s="357"/>
-      <c r="F66" s="357"/>
-      <c r="G66" s="357"/>
-      <c r="H66" s="357"/>
-      <c r="I66" s="356"/>
-      <c r="J66" s="354"/>
-      <c r="K66" s="358"/>
-      <c r="L66" s="354"/>
-      <c r="M66" s="358"/>
+      <c r="D66" s="322"/>
+      <c r="E66" s="325"/>
+      <c r="F66" s="325"/>
+      <c r="G66" s="325"/>
+      <c r="H66" s="325"/>
+      <c r="I66" s="326"/>
+      <c r="J66" s="329"/>
+      <c r="K66" s="324"/>
+      <c r="L66" s="329"/>
+      <c r="M66" s="324"/>
     </row>
     <row r="67" spans="1:15" ht="16.5" customHeight="1">
       <c r="A67" s="13"/>
       <c r="B67" s="80"/>
       <c r="C67" s="216"/>
-      <c r="D67" s="348"/>
-      <c r="E67" s="349"/>
-      <c r="F67" s="349"/>
-      <c r="G67" s="349"/>
-      <c r="H67" s="349"/>
-      <c r="I67" s="350"/>
+      <c r="D67" s="319"/>
+      <c r="E67" s="320"/>
+      <c r="F67" s="320"/>
+      <c r="G67" s="320"/>
+      <c r="H67" s="320"/>
+      <c r="I67" s="321"/>
       <c r="J67" s="216"/>
       <c r="K67" s="217"/>
       <c r="L67" s="216"/>
@@ -22227,12 +22398,12 @@
       <c r="A68" s="13"/>
       <c r="B68" s="80"/>
       <c r="C68" s="216"/>
-      <c r="D68" s="348"/>
-      <c r="E68" s="349"/>
-      <c r="F68" s="349"/>
-      <c r="G68" s="349"/>
-      <c r="H68" s="349"/>
-      <c r="I68" s="350"/>
+      <c r="D68" s="319"/>
+      <c r="E68" s="320"/>
+      <c r="F68" s="320"/>
+      <c r="G68" s="320"/>
+      <c r="H68" s="320"/>
+      <c r="I68" s="321"/>
       <c r="J68" s="216"/>
       <c r="K68" s="217"/>
       <c r="L68" s="216"/>
@@ -22242,16 +22413,16 @@
       <c r="A69" s="13"/>
       <c r="B69" s="80"/>
       <c r="C69" s="219"/>
-      <c r="D69" s="342"/>
-      <c r="E69" s="359"/>
-      <c r="F69" s="359"/>
-      <c r="G69" s="359"/>
-      <c r="H69" s="359"/>
-      <c r="I69" s="358"/>
-      <c r="J69" s="354"/>
-      <c r="K69" s="343"/>
-      <c r="L69" s="342"/>
-      <c r="M69" s="356"/>
+      <c r="D69" s="322"/>
+      <c r="E69" s="323"/>
+      <c r="F69" s="323"/>
+      <c r="G69" s="323"/>
+      <c r="H69" s="323"/>
+      <c r="I69" s="324"/>
+      <c r="J69" s="329"/>
+      <c r="K69" s="330"/>
+      <c r="L69" s="322"/>
+      <c r="M69" s="326"/>
     </row>
     <row r="70" spans="1:15" s="165" customFormat="1" ht="16.5" customHeight="1"/>
     <row r="71" spans="1:15" ht="16.5" customHeight="1">
@@ -22497,13 +22668,13 @@
     <row r="85" spans="1:15" ht="16.5" customHeight="1">
       <c r="A85" s="13"/>
       <c r="B85" s="66"/>
-      <c r="C85" s="351"/>
-      <c r="D85" s="352"/>
-      <c r="E85" s="352"/>
-      <c r="F85" s="352"/>
-      <c r="G85" s="352"/>
-      <c r="H85" s="352"/>
-      <c r="I85" s="353"/>
+      <c r="C85" s="316"/>
+      <c r="D85" s="317"/>
+      <c r="E85" s="317"/>
+      <c r="F85" s="317"/>
+      <c r="G85" s="317"/>
+      <c r="H85" s="317"/>
+      <c r="I85" s="318"/>
       <c r="J85" s="66"/>
       <c r="K85" s="80"/>
       <c r="L85" s="80"/>
@@ -22514,13 +22685,13 @@
     <row r="86" spans="1:15" ht="16.5" customHeight="1">
       <c r="A86" s="13"/>
       <c r="B86" s="66"/>
-      <c r="C86" s="351"/>
-      <c r="D86" s="352"/>
-      <c r="E86" s="352"/>
-      <c r="F86" s="352"/>
-      <c r="G86" s="352"/>
-      <c r="H86" s="352"/>
-      <c r="I86" s="353"/>
+      <c r="C86" s="316"/>
+      <c r="D86" s="317"/>
+      <c r="E86" s="317"/>
+      <c r="F86" s="317"/>
+      <c r="G86" s="317"/>
+      <c r="H86" s="317"/>
+      <c r="I86" s="318"/>
       <c r="J86" s="66"/>
       <c r="K86" s="80"/>
       <c r="L86" s="80"/>
@@ -22940,33 +23111,6 @@
     </row>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="A1:A5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="L63:M63"/>
-    <mergeCell ref="D61:I61"/>
-    <mergeCell ref="L61:M61"/>
-    <mergeCell ref="J61:K61"/>
-    <mergeCell ref="C54:G54"/>
-    <mergeCell ref="D58:I58"/>
-    <mergeCell ref="J58:K58"/>
-    <mergeCell ref="L58:M58"/>
-    <mergeCell ref="D60:I60"/>
-    <mergeCell ref="J64:K64"/>
-    <mergeCell ref="L64:M64"/>
-    <mergeCell ref="D65:I65"/>
-    <mergeCell ref="J65:K65"/>
-    <mergeCell ref="L65:M65"/>
-    <mergeCell ref="J66:K66"/>
-    <mergeCell ref="L66:M66"/>
-    <mergeCell ref="D67:I67"/>
-    <mergeCell ref="D68:I68"/>
-    <mergeCell ref="D69:I69"/>
-    <mergeCell ref="J69:K69"/>
-    <mergeCell ref="L69:M69"/>
     <mergeCell ref="C85:I85"/>
     <mergeCell ref="C86:I86"/>
     <mergeCell ref="G12:H14"/>
@@ -22983,6 +23127,33 @@
     <mergeCell ref="C51:G51"/>
     <mergeCell ref="C39:M39"/>
     <mergeCell ref="C49:G49"/>
+    <mergeCell ref="J66:K66"/>
+    <mergeCell ref="L66:M66"/>
+    <mergeCell ref="D67:I67"/>
+    <mergeCell ref="D68:I68"/>
+    <mergeCell ref="D69:I69"/>
+    <mergeCell ref="J69:K69"/>
+    <mergeCell ref="L69:M69"/>
+    <mergeCell ref="J64:K64"/>
+    <mergeCell ref="L64:M64"/>
+    <mergeCell ref="D65:I65"/>
+    <mergeCell ref="J65:K65"/>
+    <mergeCell ref="L65:M65"/>
+    <mergeCell ref="L63:M63"/>
+    <mergeCell ref="D61:I61"/>
+    <mergeCell ref="L61:M61"/>
+    <mergeCell ref="J61:K61"/>
+    <mergeCell ref="C54:G54"/>
+    <mergeCell ref="D58:I58"/>
+    <mergeCell ref="J58:K58"/>
+    <mergeCell ref="L58:M58"/>
+    <mergeCell ref="D60:I60"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="A1:A5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E16:F16"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="1">
@@ -23845,7 +24016,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="2" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A1" s="318" t="s">
+      <c r="A1" s="312" t="s">
         <v>4</v>
       </c>
       <c r="B1" s="1"/>
@@ -23856,7 +24027,7 @@
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:16" s="2" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A2" s="319"/>
+      <c r="A2" s="313"/>
       <c r="B2" s="3" t="s">
         <v>15</v>
       </c>
@@ -23867,18 +24038,18 @@
       <c r="G2" s="4"/>
     </row>
     <row r="3" spans="1:16" s="6" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A3" s="319"/>
+      <c r="A3" s="313"/>
       <c r="G3" s="81"/>
     </row>
     <row r="4" spans="1:16" s="6" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A4" s="319"/>
+      <c r="A4" s="313"/>
       <c r="B4" s="7" t="s">
         <v>16</v>
       </c>
       <c r="G4" s="81"/>
     </row>
     <row r="5" spans="1:16" s="10" customFormat="1" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A5" s="320"/>
+      <c r="A5" s="314"/>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
@@ -23893,15 +24064,15 @@
       <c r="B6" s="95" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="332" t="s">
+      <c r="C6" s="346" t="s">
         <v>358</v>
       </c>
-      <c r="D6" s="333"/>
-      <c r="E6" s="334" t="s">
+      <c r="D6" s="347"/>
+      <c r="E6" s="348" t="s">
         <v>359</v>
       </c>
-      <c r="F6" s="335"/>
-      <c r="G6" s="336"/>
+      <c r="F6" s="349"/>
+      <c r="G6" s="350"/>
       <c r="H6" s="82" t="s">
         <v>1</v>
       </c>
@@ -23998,10 +24169,10 @@
       <c r="D12" s="16"/>
       <c r="E12" s="16"/>
       <c r="F12" s="16"/>
-      <c r="G12" s="366" t="s">
+      <c r="G12" s="360" t="s">
         <v>345</v>
       </c>
-      <c r="H12" s="366"/>
+      <c r="H12" s="360"/>
       <c r="I12" s="16"/>
       <c r="J12" s="16"/>
       <c r="K12" s="16"/>
@@ -24015,8 +24186,8 @@
       <c r="D13" s="16"/>
       <c r="E13" s="16"/>
       <c r="F13" s="16"/>
-      <c r="G13" s="366"/>
-      <c r="H13" s="366"/>
+      <c r="G13" s="360"/>
+      <c r="H13" s="360"/>
       <c r="I13" s="16"/>
       <c r="J13" s="16"/>
       <c r="K13" s="16"/>
@@ -24029,8 +24200,8 @@
       <c r="D14" s="16"/>
       <c r="E14" s="16"/>
       <c r="F14" s="16"/>
-      <c r="G14" s="366"/>
-      <c r="H14" s="366"/>
+      <c r="G14" s="360"/>
+      <c r="H14" s="360"/>
       <c r="I14" s="16"/>
       <c r="J14" s="16"/>
       <c r="K14" s="31"/>
@@ -24042,8 +24213,8 @@
       <c r="B15" s="83"/>
       <c r="C15" s="225"/>
       <c r="D15" s="225"/>
-      <c r="E15" s="337"/>
-      <c r="F15" s="337"/>
+      <c r="E15" s="351"/>
+      <c r="F15" s="351"/>
       <c r="G15" s="225"/>
       <c r="H15" s="225"/>
       <c r="I15" s="225"/>
@@ -24058,8 +24229,8 @@
       <c r="B16" s="83"/>
       <c r="C16" s="149"/>
       <c r="D16" s="225"/>
-      <c r="E16" s="338"/>
-      <c r="F16" s="338"/>
+      <c r="E16" s="352"/>
+      <c r="F16" s="352"/>
       <c r="G16" s="150"/>
       <c r="H16" s="150"/>
       <c r="I16" s="151"/>
@@ -24076,8 +24247,8 @@
       <c r="B17" s="83"/>
       <c r="C17" s="149"/>
       <c r="D17" s="225"/>
-      <c r="E17" s="339"/>
-      <c r="F17" s="339"/>
+      <c r="E17" s="353"/>
+      <c r="F17" s="353"/>
       <c r="G17" s="230"/>
       <c r="H17" s="230"/>
       <c r="I17" s="231"/>
@@ -24372,17 +24543,17 @@
       <c r="B34" s="164" t="s">
         <v>43</v>
       </c>
-      <c r="C34" s="326"/>
-      <c r="D34" s="327"/>
-      <c r="E34" s="327"/>
-      <c r="F34" s="327"/>
-      <c r="G34" s="327"/>
-      <c r="H34" s="327"/>
-      <c r="I34" s="327"/>
-      <c r="J34" s="327"/>
-      <c r="K34" s="327"/>
-      <c r="L34" s="327"/>
-      <c r="M34" s="327"/>
+      <c r="C34" s="340"/>
+      <c r="D34" s="341"/>
+      <c r="E34" s="341"/>
+      <c r="F34" s="341"/>
+      <c r="G34" s="341"/>
+      <c r="H34" s="341"/>
+      <c r="I34" s="341"/>
+      <c r="J34" s="341"/>
+      <c r="K34" s="341"/>
+      <c r="L34" s="341"/>
+      <c r="M34" s="341"/>
     </row>
     <row r="35" spans="1:13" ht="16.5" customHeight="1">
       <c r="A35" s="13"/>
@@ -24520,13 +24691,13 @@
       <c r="B44" s="168" t="s">
         <v>133</v>
       </c>
-      <c r="C44" s="348" t="s">
+      <c r="C44" s="319" t="s">
         <v>347</v>
       </c>
-      <c r="D44" s="349"/>
-      <c r="E44" s="349"/>
-      <c r="F44" s="349"/>
-      <c r="G44" s="350"/>
+      <c r="D44" s="320"/>
+      <c r="E44" s="320"/>
+      <c r="F44" s="320"/>
+      <c r="G44" s="321"/>
       <c r="H44" s="251" t="s">
         <v>19</v>
       </c>
@@ -24545,11 +24716,11 @@
     <row r="45" spans="1:13" ht="16.5" customHeight="1">
       <c r="A45" s="13"/>
       <c r="B45" s="66"/>
-      <c r="C45" s="348"/>
-      <c r="D45" s="349"/>
-      <c r="E45" s="349"/>
-      <c r="F45" s="349"/>
-      <c r="G45" s="350"/>
+      <c r="C45" s="319"/>
+      <c r="D45" s="320"/>
+      <c r="E45" s="320"/>
+      <c r="F45" s="320"/>
+      <c r="G45" s="321"/>
       <c r="H45" s="12" t="s">
         <v>19</v>
       </c>
@@ -24563,11 +24734,11 @@
     </row>
     <row r="46" spans="1:13" s="250" customFormat="1" ht="16.5" customHeight="1">
       <c r="B46" s="168"/>
-      <c r="C46" s="348"/>
-      <c r="D46" s="349"/>
-      <c r="E46" s="349"/>
-      <c r="F46" s="349"/>
-      <c r="G46" s="350"/>
+      <c r="C46" s="319"/>
+      <c r="D46" s="320"/>
+      <c r="E46" s="320"/>
+      <c r="F46" s="320"/>
+      <c r="G46" s="321"/>
       <c r="H46" s="12" t="s">
         <v>19</v>
       </c>
@@ -24582,11 +24753,11 @@
     <row r="47" spans="1:13" ht="16.5" customHeight="1">
       <c r="A47" s="13"/>
       <c r="B47" s="66"/>
-      <c r="C47" s="348"/>
-      <c r="D47" s="349"/>
-      <c r="E47" s="349"/>
-      <c r="F47" s="349"/>
-      <c r="G47" s="350"/>
+      <c r="C47" s="319"/>
+      <c r="D47" s="320"/>
+      <c r="E47" s="320"/>
+      <c r="F47" s="320"/>
+      <c r="G47" s="321"/>
       <c r="H47" s="12" t="s">
         <v>19</v>
       </c>
@@ -24601,11 +24772,11 @@
     <row r="48" spans="1:13" ht="16.5" customHeight="1">
       <c r="A48" s="13"/>
       <c r="B48" s="66"/>
-      <c r="C48" s="348"/>
-      <c r="D48" s="349"/>
-      <c r="E48" s="349"/>
-      <c r="F48" s="349"/>
-      <c r="G48" s="350"/>
+      <c r="C48" s="319"/>
+      <c r="D48" s="320"/>
+      <c r="E48" s="320"/>
+      <c r="F48" s="320"/>
+      <c r="G48" s="321"/>
       <c r="H48" s="12" t="s">
         <v>19</v>
       </c>
@@ -24620,11 +24791,11 @@
     <row r="49" spans="1:13" ht="16.5" customHeight="1">
       <c r="A49" s="13"/>
       <c r="B49" s="66"/>
-      <c r="C49" s="348"/>
-      <c r="D49" s="349"/>
-      <c r="E49" s="349"/>
-      <c r="F49" s="349"/>
-      <c r="G49" s="350"/>
+      <c r="C49" s="319"/>
+      <c r="D49" s="320"/>
+      <c r="E49" s="320"/>
+      <c r="F49" s="320"/>
+      <c r="G49" s="321"/>
       <c r="H49" s="12" t="s">
         <v>19</v>
       </c>
@@ -24684,33 +24855,33 @@
       <c r="C53" s="216" t="s">
         <v>362</v>
       </c>
-      <c r="D53" s="342" t="s">
+      <c r="D53" s="322" t="s">
         <v>366</v>
       </c>
-      <c r="E53" s="344"/>
-      <c r="F53" s="344"/>
-      <c r="G53" s="344"/>
-      <c r="H53" s="344"/>
-      <c r="I53" s="345"/>
-      <c r="J53" s="354" t="s">
+      <c r="E53" s="327"/>
+      <c r="F53" s="327"/>
+      <c r="G53" s="327"/>
+      <c r="H53" s="327"/>
+      <c r="I53" s="328"/>
+      <c r="J53" s="329" t="s">
         <v>363</v>
       </c>
-      <c r="K53" s="341"/>
-      <c r="L53" s="342" t="s">
+      <c r="K53" s="333"/>
+      <c r="L53" s="322" t="s">
         <v>365</v>
       </c>
-      <c r="M53" s="343"/>
+      <c r="M53" s="330"/>
     </row>
     <row r="54" spans="1:13" ht="16.5" customHeight="1">
       <c r="A54" s="13"/>
       <c r="B54" s="80"/>
       <c r="C54" s="219"/>
-      <c r="D54" s="348"/>
-      <c r="E54" s="349"/>
-      <c r="F54" s="349"/>
-      <c r="G54" s="349"/>
-      <c r="H54" s="349"/>
-      <c r="I54" s="350"/>
+      <c r="D54" s="319"/>
+      <c r="E54" s="320"/>
+      <c r="F54" s="320"/>
+      <c r="G54" s="320"/>
+      <c r="H54" s="320"/>
+      <c r="I54" s="321"/>
       <c r="J54" s="216"/>
       <c r="K54" s="254"/>
       <c r="L54" s="219"/>
@@ -24720,12 +24891,12 @@
       <c r="A55" s="13"/>
       <c r="B55" s="80"/>
       <c r="C55" s="219"/>
-      <c r="D55" s="348"/>
-      <c r="E55" s="349"/>
-      <c r="F55" s="349"/>
-      <c r="G55" s="349"/>
-      <c r="H55" s="349"/>
-      <c r="I55" s="350"/>
+      <c r="D55" s="319"/>
+      <c r="E55" s="320"/>
+      <c r="F55" s="320"/>
+      <c r="G55" s="320"/>
+      <c r="H55" s="320"/>
+      <c r="I55" s="321"/>
       <c r="J55" s="216"/>
       <c r="K55" s="254"/>
       <c r="L55" s="219"/>
@@ -24735,27 +24906,27 @@
       <c r="A56" s="13"/>
       <c r="B56" s="80"/>
       <c r="C56" s="216"/>
-      <c r="D56" s="342"/>
-      <c r="E56" s="344"/>
-      <c r="F56" s="344"/>
-      <c r="G56" s="344"/>
-      <c r="H56" s="344"/>
-      <c r="I56" s="345"/>
-      <c r="J56" s="340"/>
-      <c r="K56" s="341"/>
-      <c r="L56" s="342"/>
-      <c r="M56" s="343"/>
+      <c r="D56" s="322"/>
+      <c r="E56" s="327"/>
+      <c r="F56" s="327"/>
+      <c r="G56" s="327"/>
+      <c r="H56" s="327"/>
+      <c r="I56" s="328"/>
+      <c r="J56" s="332"/>
+      <c r="K56" s="333"/>
+      <c r="L56" s="322"/>
+      <c r="M56" s="330"/>
     </row>
     <row r="57" spans="1:13" ht="16.5" customHeight="1">
       <c r="A57" s="13"/>
       <c r="B57" s="80"/>
       <c r="C57" s="216"/>
-      <c r="D57" s="342"/>
-      <c r="E57" s="359"/>
-      <c r="F57" s="359"/>
-      <c r="G57" s="359"/>
-      <c r="H57" s="359"/>
-      <c r="I57" s="358"/>
+      <c r="D57" s="322"/>
+      <c r="E57" s="323"/>
+      <c r="F57" s="323"/>
+      <c r="G57" s="323"/>
+      <c r="H57" s="323"/>
+      <c r="I57" s="324"/>
       <c r="J57" s="216"/>
       <c r="K57" s="218"/>
       <c r="L57" s="219"/>
@@ -24765,72 +24936,72 @@
       <c r="A58" s="13"/>
       <c r="B58" s="80"/>
       <c r="C58" s="216"/>
-      <c r="D58" s="342"/>
-      <c r="E58" s="357"/>
-      <c r="F58" s="357"/>
-      <c r="G58" s="357"/>
-      <c r="H58" s="357"/>
-      <c r="I58" s="356"/>
+      <c r="D58" s="322"/>
+      <c r="E58" s="325"/>
+      <c r="F58" s="325"/>
+      <c r="G58" s="325"/>
+      <c r="H58" s="325"/>
+      <c r="I58" s="326"/>
       <c r="J58" s="216"/>
       <c r="K58" s="218"/>
-      <c r="L58" s="348"/>
-      <c r="M58" s="350"/>
+      <c r="L58" s="319"/>
+      <c r="M58" s="321"/>
     </row>
     <row r="59" spans="1:13" ht="16.5" customHeight="1">
       <c r="A59" s="13"/>
       <c r="B59" s="80"/>
       <c r="C59" s="216"/>
-      <c r="D59" s="342"/>
-      <c r="E59" s="344"/>
-      <c r="F59" s="344"/>
-      <c r="G59" s="344"/>
-      <c r="H59" s="344"/>
-      <c r="I59" s="345"/>
-      <c r="J59" s="354"/>
-      <c r="K59" s="345"/>
-      <c r="L59" s="354"/>
-      <c r="M59" s="345"/>
+      <c r="D59" s="322"/>
+      <c r="E59" s="327"/>
+      <c r="F59" s="327"/>
+      <c r="G59" s="327"/>
+      <c r="H59" s="327"/>
+      <c r="I59" s="328"/>
+      <c r="J59" s="329"/>
+      <c r="K59" s="328"/>
+      <c r="L59" s="329"/>
+      <c r="M59" s="328"/>
     </row>
     <row r="60" spans="1:13" ht="16.5" customHeight="1">
       <c r="A60" s="13"/>
       <c r="B60" s="80"/>
       <c r="C60" s="216"/>
-      <c r="D60" s="342"/>
-      <c r="E60" s="357"/>
-      <c r="F60" s="357"/>
-      <c r="G60" s="357"/>
-      <c r="H60" s="357"/>
-      <c r="I60" s="356"/>
-      <c r="J60" s="354"/>
-      <c r="K60" s="358"/>
-      <c r="L60" s="342"/>
-      <c r="M60" s="355"/>
+      <c r="D60" s="322"/>
+      <c r="E60" s="325"/>
+      <c r="F60" s="325"/>
+      <c r="G60" s="325"/>
+      <c r="H60" s="325"/>
+      <c r="I60" s="326"/>
+      <c r="J60" s="329"/>
+      <c r="K60" s="324"/>
+      <c r="L60" s="322"/>
+      <c r="M60" s="331"/>
     </row>
     <row r="61" spans="1:13" ht="16.5" customHeight="1">
       <c r="A61" s="13"/>
       <c r="B61" s="80"/>
       <c r="C61" s="216"/>
-      <c r="D61" s="342"/>
-      <c r="E61" s="357"/>
-      <c r="F61" s="357"/>
-      <c r="G61" s="357"/>
-      <c r="H61" s="357"/>
-      <c r="I61" s="356"/>
-      <c r="J61" s="354"/>
-      <c r="K61" s="358"/>
-      <c r="L61" s="354"/>
-      <c r="M61" s="358"/>
+      <c r="D61" s="322"/>
+      <c r="E61" s="325"/>
+      <c r="F61" s="325"/>
+      <c r="G61" s="325"/>
+      <c r="H61" s="325"/>
+      <c r="I61" s="326"/>
+      <c r="J61" s="329"/>
+      <c r="K61" s="324"/>
+      <c r="L61" s="329"/>
+      <c r="M61" s="324"/>
     </row>
     <row r="62" spans="1:13" ht="16.5" customHeight="1">
       <c r="A62" s="13"/>
       <c r="B62" s="80"/>
       <c r="C62" s="216"/>
-      <c r="D62" s="348"/>
-      <c r="E62" s="349"/>
-      <c r="F62" s="349"/>
-      <c r="G62" s="349"/>
-      <c r="H62" s="349"/>
-      <c r="I62" s="350"/>
+      <c r="D62" s="319"/>
+      <c r="E62" s="320"/>
+      <c r="F62" s="320"/>
+      <c r="G62" s="320"/>
+      <c r="H62" s="320"/>
+      <c r="I62" s="321"/>
       <c r="J62" s="216"/>
       <c r="K62" s="217"/>
       <c r="L62" s="216"/>
@@ -24840,12 +25011,12 @@
       <c r="A63" s="13"/>
       <c r="B63" s="80"/>
       <c r="C63" s="216"/>
-      <c r="D63" s="348"/>
-      <c r="E63" s="349"/>
-      <c r="F63" s="349"/>
-      <c r="G63" s="349"/>
-      <c r="H63" s="349"/>
-      <c r="I63" s="350"/>
+      <c r="D63" s="319"/>
+      <c r="E63" s="320"/>
+      <c r="F63" s="320"/>
+      <c r="G63" s="320"/>
+      <c r="H63" s="320"/>
+      <c r="I63" s="321"/>
       <c r="J63" s="216"/>
       <c r="K63" s="217"/>
       <c r="L63" s="216"/>
@@ -24855,16 +25026,16 @@
       <c r="A64" s="13"/>
       <c r="B64" s="80"/>
       <c r="C64" s="219"/>
-      <c r="D64" s="342"/>
-      <c r="E64" s="359"/>
-      <c r="F64" s="359"/>
-      <c r="G64" s="359"/>
-      <c r="H64" s="359"/>
-      <c r="I64" s="358"/>
-      <c r="J64" s="354"/>
-      <c r="K64" s="343"/>
-      <c r="L64" s="342"/>
-      <c r="M64" s="356"/>
+      <c r="D64" s="322"/>
+      <c r="E64" s="323"/>
+      <c r="F64" s="323"/>
+      <c r="G64" s="323"/>
+      <c r="H64" s="323"/>
+      <c r="I64" s="324"/>
+      <c r="J64" s="329"/>
+      <c r="K64" s="330"/>
+      <c r="L64" s="322"/>
+      <c r="M64" s="326"/>
     </row>
     <row r="65" spans="1:15" s="165" customFormat="1" ht="16.5" customHeight="1"/>
     <row r="66" spans="1:15" ht="16.5" customHeight="1">
@@ -25110,13 +25281,13 @@
     <row r="80" spans="1:15" ht="16.5" customHeight="1">
       <c r="A80" s="13"/>
       <c r="B80" s="66"/>
-      <c r="C80" s="351"/>
-      <c r="D80" s="352"/>
-      <c r="E80" s="352"/>
-      <c r="F80" s="352"/>
-      <c r="G80" s="352"/>
-      <c r="H80" s="352"/>
-      <c r="I80" s="353"/>
+      <c r="C80" s="316"/>
+      <c r="D80" s="317"/>
+      <c r="E80" s="317"/>
+      <c r="F80" s="317"/>
+      <c r="G80" s="317"/>
+      <c r="H80" s="317"/>
+      <c r="I80" s="318"/>
       <c r="J80" s="66"/>
       <c r="K80" s="80"/>
       <c r="L80" s="80"/>
@@ -25127,13 +25298,13 @@
     <row r="81" spans="1:15" ht="16.5" customHeight="1">
       <c r="A81" s="13"/>
       <c r="B81" s="66"/>
-      <c r="C81" s="351"/>
-      <c r="D81" s="352"/>
-      <c r="E81" s="352"/>
-      <c r="F81" s="352"/>
-      <c r="G81" s="352"/>
-      <c r="H81" s="352"/>
-      <c r="I81" s="353"/>
+      <c r="C81" s="316"/>
+      <c r="D81" s="317"/>
+      <c r="E81" s="317"/>
+      <c r="F81" s="317"/>
+      <c r="G81" s="317"/>
+      <c r="H81" s="317"/>
+      <c r="I81" s="318"/>
       <c r="J81" s="66"/>
       <c r="K81" s="80"/>
       <c r="L81" s="80"/>
@@ -25553,6 +25724,37 @@
     </row>
   </sheetData>
   <mergeCells count="41">
+    <mergeCell ref="C81:I81"/>
+    <mergeCell ref="D62:I62"/>
+    <mergeCell ref="D63:I63"/>
+    <mergeCell ref="D64:I64"/>
+    <mergeCell ref="J64:K64"/>
+    <mergeCell ref="L64:M64"/>
+    <mergeCell ref="C80:I80"/>
+    <mergeCell ref="D60:I60"/>
+    <mergeCell ref="J60:K60"/>
+    <mergeCell ref="L60:M60"/>
+    <mergeCell ref="D61:I61"/>
+    <mergeCell ref="J61:K61"/>
+    <mergeCell ref="L61:M61"/>
+    <mergeCell ref="D57:I57"/>
+    <mergeCell ref="D58:I58"/>
+    <mergeCell ref="L58:M58"/>
+    <mergeCell ref="D59:I59"/>
+    <mergeCell ref="J59:K59"/>
+    <mergeCell ref="L59:M59"/>
+    <mergeCell ref="L53:M53"/>
+    <mergeCell ref="D54:I54"/>
+    <mergeCell ref="D55:I55"/>
+    <mergeCell ref="D56:I56"/>
+    <mergeCell ref="J56:K56"/>
+    <mergeCell ref="L56:M56"/>
+    <mergeCell ref="J53:K53"/>
+    <mergeCell ref="C46:G46"/>
+    <mergeCell ref="C47:G47"/>
+    <mergeCell ref="C48:G48"/>
+    <mergeCell ref="C49:G49"/>
+    <mergeCell ref="D53:I53"/>
     <mergeCell ref="E17:F17"/>
     <mergeCell ref="C34:M34"/>
     <mergeCell ref="C44:G44"/>
@@ -25563,37 +25765,6 @@
     <mergeCell ref="G12:H14"/>
     <mergeCell ref="E15:F15"/>
     <mergeCell ref="E16:F16"/>
-    <mergeCell ref="C46:G46"/>
-    <mergeCell ref="C47:G47"/>
-    <mergeCell ref="C48:G48"/>
-    <mergeCell ref="C49:G49"/>
-    <mergeCell ref="D53:I53"/>
-    <mergeCell ref="L53:M53"/>
-    <mergeCell ref="D54:I54"/>
-    <mergeCell ref="D55:I55"/>
-    <mergeCell ref="D56:I56"/>
-    <mergeCell ref="J56:K56"/>
-    <mergeCell ref="L56:M56"/>
-    <mergeCell ref="J53:K53"/>
-    <mergeCell ref="D57:I57"/>
-    <mergeCell ref="D58:I58"/>
-    <mergeCell ref="L58:M58"/>
-    <mergeCell ref="D59:I59"/>
-    <mergeCell ref="J59:K59"/>
-    <mergeCell ref="L59:M59"/>
-    <mergeCell ref="L64:M64"/>
-    <mergeCell ref="C80:I80"/>
-    <mergeCell ref="D60:I60"/>
-    <mergeCell ref="J60:K60"/>
-    <mergeCell ref="L60:M60"/>
-    <mergeCell ref="D61:I61"/>
-    <mergeCell ref="J61:K61"/>
-    <mergeCell ref="L61:M61"/>
-    <mergeCell ref="C81:I81"/>
-    <mergeCell ref="D62:I62"/>
-    <mergeCell ref="D63:I63"/>
-    <mergeCell ref="D64:I64"/>
-    <mergeCell ref="J64:K64"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="1">
@@ -26456,7 +26627,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="2" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A1" s="318" t="s">
+      <c r="A1" s="312" t="s">
         <v>4</v>
       </c>
       <c r="B1" s="1"/>
@@ -26467,7 +26638,7 @@
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:16" s="2" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A2" s="319"/>
+      <c r="A2" s="313"/>
       <c r="B2" s="3" t="s">
         <v>15</v>
       </c>
@@ -26478,18 +26649,18 @@
       <c r="G2" s="4"/>
     </row>
     <row r="3" spans="1:16" s="6" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A3" s="319"/>
+      <c r="A3" s="313"/>
       <c r="G3" s="81"/>
     </row>
     <row r="4" spans="1:16" s="6" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A4" s="319"/>
+      <c r="A4" s="313"/>
       <c r="B4" s="7" t="s">
         <v>16</v>
       </c>
       <c r="G4" s="81"/>
     </row>
     <row r="5" spans="1:16" s="10" customFormat="1" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A5" s="320"/>
+      <c r="A5" s="314"/>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
@@ -26504,15 +26675,15 @@
       <c r="B6" s="95" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="375" t="s">
+      <c r="C6" s="365" t="s">
         <v>367</v>
       </c>
-      <c r="D6" s="376"/>
-      <c r="E6" s="377" t="s">
+      <c r="D6" s="366"/>
+      <c r="E6" s="367" t="s">
         <v>251</v>
       </c>
-      <c r="F6" s="378"/>
-      <c r="G6" s="379"/>
+      <c r="F6" s="368"/>
+      <c r="G6" s="369"/>
       <c r="H6" s="82" t="s">
         <v>1</v>
       </c>
@@ -26529,7 +26700,7 @@
       <c r="M6" s="140"/>
     </row>
     <row r="7" spans="1:16" ht="15" customHeight="1">
-      <c r="B7" s="309"/>
+      <c r="B7" s="303"/>
       <c r="C7" s="75"/>
       <c r="D7" s="75"/>
       <c r="E7" s="75"/>
@@ -26555,43 +26726,43 @@
       <c r="J8" s="16"/>
       <c r="K8" s="31"/>
       <c r="L8" s="16"/>
-      <c r="M8" s="299"/>
+      <c r="M8" s="293"/>
     </row>
     <row r="9" spans="1:16" ht="15" customHeight="1">
       <c r="A9" s="13"/>
       <c r="B9" s="71"/>
-      <c r="C9" s="369" t="s">
+      <c r="C9" s="370" t="s">
         <v>368</v>
       </c>
-      <c r="D9" s="370" t="s">
+      <c r="D9" s="371" t="s">
         <v>373</v>
       </c>
-      <c r="E9" s="369" t="s">
+      <c r="E9" s="370" t="s">
         <v>374</v>
       </c>
-      <c r="F9" s="369"/>
+      <c r="F9" s="370"/>
       <c r="G9" s="16"/>
       <c r="H9" s="16"/>
       <c r="I9" s="16"/>
       <c r="J9" s="16"/>
       <c r="K9" s="16"/>
       <c r="L9" s="16"/>
-      <c r="M9" s="299"/>
+      <c r="M9" s="293"/>
     </row>
     <row r="10" spans="1:16" ht="15" customHeight="1">
       <c r="A10" s="13"/>
       <c r="B10" s="71"/>
-      <c r="C10" s="369"/>
-      <c r="D10" s="370"/>
-      <c r="E10" s="369"/>
-      <c r="F10" s="369"/>
+      <c r="C10" s="370"/>
+      <c r="D10" s="371"/>
+      <c r="E10" s="370"/>
+      <c r="F10" s="370"/>
       <c r="G10" s="16"/>
       <c r="H10" s="16"/>
       <c r="I10" s="16"/>
       <c r="J10" s="16"/>
       <c r="K10" s="16"/>
       <c r="L10" s="16"/>
-      <c r="M10" s="299"/>
+      <c r="M10" s="293"/>
     </row>
     <row r="11" spans="1:16" ht="15" customHeight="1">
       <c r="A11" s="13"/>
@@ -26606,7 +26777,7 @@
       <c r="J11" s="73"/>
       <c r="K11" s="73"/>
       <c r="L11" s="73"/>
-      <c r="M11" s="310"/>
+      <c r="M11" s="304"/>
     </row>
     <row r="12" spans="1:16" ht="15" customHeight="1">
       <c r="A12" s="13"/>
@@ -26614,9 +26785,9 @@
       <c r="C12" s="16"/>
       <c r="D12" s="16"/>
       <c r="E12" s="16"/>
-      <c r="F12" s="293"/>
-      <c r="G12" s="293"/>
-      <c r="H12" s="293"/>
+      <c r="F12" s="287"/>
+      <c r="G12" s="287"/>
+      <c r="H12" s="287"/>
       <c r="I12" s="16"/>
       <c r="J12" s="16"/>
       <c r="K12" s="16"/>
@@ -26629,9 +26800,9 @@
       <c r="C13" s="189"/>
       <c r="D13" s="190"/>
       <c r="E13" s="190"/>
-      <c r="F13" s="298"/>
-      <c r="G13" s="298"/>
-      <c r="H13" s="298"/>
+      <c r="F13" s="292"/>
+      <c r="G13" s="292"/>
+      <c r="H13" s="292"/>
       <c r="I13" s="191"/>
       <c r="J13" s="16"/>
       <c r="K13" s="189"/>
@@ -26643,13 +26814,13 @@
       <c r="C14" s="192"/>
       <c r="D14" s="16"/>
       <c r="E14" s="16"/>
-      <c r="F14" s="293"/>
-      <c r="G14" s="293"/>
-      <c r="H14" s="293"/>
-      <c r="I14" s="299"/>
+      <c r="F14" s="287"/>
+      <c r="G14" s="287"/>
+      <c r="H14" s="287"/>
+      <c r="I14" s="293"/>
       <c r="J14" s="16"/>
-      <c r="K14" s="304"/>
-      <c r="L14" s="299"/>
+      <c r="K14" s="298"/>
+      <c r="L14" s="293"/>
       <c r="M14" s="144"/>
     </row>
     <row r="15" spans="1:16" ht="15" customHeight="1">
@@ -26661,10 +26832,10 @@
       <c r="F15" s="255"/>
       <c r="G15" s="225"/>
       <c r="H15" s="225"/>
-      <c r="I15" s="300"/>
+      <c r="I15" s="294"/>
       <c r="J15" s="225"/>
       <c r="K15" s="193"/>
-      <c r="L15" s="300"/>
+      <c r="L15" s="294"/>
       <c r="M15" s="147"/>
       <c r="N15" s="148"/>
     </row>
@@ -26673,14 +26844,14 @@
       <c r="B16" s="83"/>
       <c r="C16" s="194"/>
       <c r="D16" s="225"/>
-      <c r="E16" s="294"/>
-      <c r="F16" s="294"/>
+      <c r="E16" s="288"/>
+      <c r="F16" s="288"/>
       <c r="G16" s="150"/>
       <c r="H16" s="150"/>
-      <c r="I16" s="301"/>
+      <c r="I16" s="295"/>
       <c r="J16" s="152"/>
-      <c r="K16" s="305"/>
-      <c r="L16" s="301"/>
+      <c r="K16" s="299"/>
+      <c r="L16" s="295"/>
       <c r="M16" s="137"/>
       <c r="N16" s="153"/>
       <c r="O16" s="223"/>
@@ -26691,14 +26862,14 @@
       <c r="B17" s="83"/>
       <c r="C17" s="194"/>
       <c r="D17" s="225"/>
-      <c r="E17" s="294"/>
-      <c r="F17" s="294"/>
+      <c r="E17" s="288"/>
+      <c r="F17" s="288"/>
       <c r="G17" s="150"/>
       <c r="H17" s="150"/>
-      <c r="I17" s="301"/>
+      <c r="I17" s="295"/>
       <c r="J17" s="152"/>
-      <c r="K17" s="305"/>
-      <c r="L17" s="301"/>
+      <c r="K17" s="299"/>
+      <c r="L17" s="295"/>
       <c r="M17" s="137"/>
       <c r="N17" s="153"/>
       <c r="O17" s="223"/>
@@ -26711,20 +26882,20 @@
         <v>370</v>
       </c>
       <c r="D18" s="225"/>
-      <c r="E18" s="371" t="s">
+      <c r="E18" s="372" t="s">
         <v>369</v>
       </c>
-      <c r="F18" s="371"/>
+      <c r="F18" s="372"/>
       <c r="G18" s="150"/>
       <c r="H18" s="150"/>
-      <c r="I18" s="301" t="s">
+      <c r="I18" s="295" t="s">
         <v>371</v>
       </c>
       <c r="J18" s="152"/>
-      <c r="K18" s="373" t="s">
+      <c r="K18" s="363" t="s">
         <v>372</v>
       </c>
-      <c r="L18" s="374"/>
+      <c r="L18" s="364"/>
       <c r="M18" s="137"/>
       <c r="N18" s="153"/>
       <c r="O18" s="223"/>
@@ -26739,12 +26910,12 @@
       <c r="F19" s="224"/>
       <c r="G19" s="150"/>
       <c r="H19" s="150"/>
-      <c r="I19" s="301"/>
+      <c r="I19" s="295"/>
       <c r="J19" s="152"/>
-      <c r="K19" s="307" t="s">
+      <c r="K19" s="301" t="s">
         <v>370</v>
       </c>
-      <c r="L19" s="308" t="s">
+      <c r="L19" s="302" t="s">
         <v>371</v>
       </c>
       <c r="M19" s="137"/>
@@ -26761,10 +26932,10 @@
       <c r="F20" s="224"/>
       <c r="G20" s="150"/>
       <c r="H20" s="150"/>
-      <c r="I20" s="301"/>
+      <c r="I20" s="295"/>
       <c r="J20" s="152"/>
-      <c r="K20" s="305"/>
-      <c r="L20" s="301"/>
+      <c r="K20" s="299"/>
+      <c r="L20" s="295"/>
       <c r="M20" s="137"/>
       <c r="N20" s="153"/>
       <c r="O20" s="223"/>
@@ -26779,10 +26950,10 @@
       <c r="F21" s="224"/>
       <c r="G21" s="150"/>
       <c r="H21" s="150"/>
-      <c r="I21" s="301"/>
+      <c r="I21" s="295"/>
       <c r="J21" s="152"/>
-      <c r="K21" s="305"/>
-      <c r="L21" s="301"/>
+      <c r="K21" s="299"/>
+      <c r="L21" s="295"/>
       <c r="M21" s="137"/>
       <c r="N21" s="153"/>
       <c r="O21" s="223"/>
@@ -26797,10 +26968,10 @@
       <c r="F22" s="224"/>
       <c r="G22" s="150"/>
       <c r="H22" s="150"/>
-      <c r="I22" s="301"/>
+      <c r="I22" s="295"/>
       <c r="J22" s="152"/>
-      <c r="K22" s="305"/>
-      <c r="L22" s="301"/>
+      <c r="K22" s="299"/>
+      <c r="L22" s="295"/>
       <c r="M22" s="137"/>
       <c r="N22" s="153"/>
       <c r="O22" s="223"/>
@@ -26815,10 +26986,10 @@
       <c r="F23" s="224"/>
       <c r="G23" s="150"/>
       <c r="H23" s="150"/>
-      <c r="I23" s="301"/>
+      <c r="I23" s="295"/>
       <c r="J23" s="152"/>
-      <c r="K23" s="305"/>
-      <c r="L23" s="301"/>
+      <c r="K23" s="299"/>
+      <c r="L23" s="295"/>
       <c r="M23" s="137"/>
       <c r="N23" s="153"/>
       <c r="O23" s="223"/>
@@ -26827,16 +26998,16 @@
     <row r="24" spans="1:16" ht="15" customHeight="1">
       <c r="A24" s="13"/>
       <c r="B24" s="83"/>
-      <c r="C24" s="295"/>
-      <c r="D24" s="296"/>
-      <c r="E24" s="297"/>
-      <c r="F24" s="297"/>
-      <c r="G24" s="302"/>
-      <c r="H24" s="302"/>
-      <c r="I24" s="303"/>
+      <c r="C24" s="289"/>
+      <c r="D24" s="290"/>
+      <c r="E24" s="291"/>
+      <c r="F24" s="291"/>
+      <c r="G24" s="296"/>
+      <c r="H24" s="296"/>
+      <c r="I24" s="297"/>
       <c r="J24" s="152"/>
-      <c r="K24" s="306"/>
-      <c r="L24" s="303"/>
+      <c r="K24" s="300"/>
+      <c r="L24" s="297"/>
       <c r="M24" s="137"/>
       <c r="N24" s="153"/>
       <c r="O24" s="223"/>
@@ -26917,8 +27088,8 @@
     <row r="29" spans="1:16" ht="15" customHeight="1">
       <c r="A29" s="13"/>
       <c r="B29" s="83"/>
-      <c r="C29" s="372"/>
-      <c r="D29" s="372"/>
+      <c r="C29" s="373"/>
+      <c r="D29" s="373"/>
       <c r="E29" s="224"/>
       <c r="F29" s="224"/>
       <c r="G29" s="150"/>
@@ -27694,10 +27865,10 @@
       <c r="C72" s="149"/>
       <c r="D72" s="225"/>
       <c r="E72" s="224"/>
-      <c r="F72" s="367"/>
-      <c r="G72" s="367"/>
-      <c r="H72" s="368"/>
-      <c r="I72" s="368"/>
+      <c r="F72" s="361"/>
+      <c r="G72" s="361"/>
+      <c r="H72" s="362"/>
+      <c r="I72" s="362"/>
       <c r="J72" s="152"/>
       <c r="K72" s="151"/>
       <c r="L72" s="151"/>
@@ -27798,9 +27969,9 @@
     </row>
     <row r="78" spans="1:16" ht="15" customHeight="1">
       <c r="A78" s="13"/>
-      <c r="B78" s="311"/>
-      <c r="C78" s="312"/>
-      <c r="D78" s="313"/>
+      <c r="B78" s="305"/>
+      <c r="C78" s="306"/>
+      <c r="D78" s="307"/>
       <c r="E78" s="229"/>
       <c r="F78" s="229"/>
       <c r="G78" s="230"/>
@@ -27809,7 +27980,7 @@
       <c r="J78" s="232"/>
       <c r="K78" s="231"/>
       <c r="L78" s="231"/>
-      <c r="M78" s="314"/>
+      <c r="M78" s="308"/>
       <c r="N78" s="153"/>
       <c r="O78" s="223"/>
       <c r="P78" s="223"/>
@@ -27935,17 +28106,17 @@
       <c r="B86" s="164" t="s">
         <v>43</v>
       </c>
-      <c r="C86" s="326"/>
-      <c r="D86" s="327"/>
-      <c r="E86" s="327"/>
-      <c r="F86" s="327"/>
-      <c r="G86" s="327"/>
-      <c r="H86" s="327"/>
-      <c r="I86" s="327"/>
-      <c r="J86" s="327"/>
-      <c r="K86" s="327"/>
-      <c r="L86" s="327"/>
-      <c r="M86" s="327"/>
+      <c r="C86" s="340"/>
+      <c r="D86" s="341"/>
+      <c r="E86" s="341"/>
+      <c r="F86" s="341"/>
+      <c r="G86" s="341"/>
+      <c r="H86" s="341"/>
+      <c r="I86" s="341"/>
+      <c r="J86" s="341"/>
+      <c r="K86" s="341"/>
+      <c r="L86" s="341"/>
+      <c r="M86" s="341"/>
     </row>
     <row r="87" spans="1:16" ht="16.5" customHeight="1">
       <c r="A87" s="13"/>
@@ -28068,7 +28239,7 @@
       <c r="M94" s="166"/>
     </row>
     <row r="95" spans="1:16" ht="16.5" customHeight="1">
-      <c r="B95" s="315" t="s">
+      <c r="B95" s="309" t="s">
         <v>17</v>
       </c>
       <c r="C95" s="91" t="s">
@@ -28077,11 +28248,11 @@
     </row>
     <row r="96" spans="1:16" s="250" customFormat="1" ht="16.5" customHeight="1">
       <c r="B96" s="168"/>
-      <c r="C96" s="348"/>
-      <c r="D96" s="349"/>
-      <c r="E96" s="349"/>
-      <c r="F96" s="349"/>
-      <c r="G96" s="350"/>
+      <c r="C96" s="319"/>
+      <c r="D96" s="320"/>
+      <c r="E96" s="320"/>
+      <c r="F96" s="320"/>
+      <c r="G96" s="321"/>
       <c r="H96" s="251" t="s">
         <v>19</v>
       </c>
@@ -28096,11 +28267,11 @@
     <row r="97" spans="1:13" ht="16.5" customHeight="1">
       <c r="A97" s="13"/>
       <c r="B97" s="66"/>
-      <c r="C97" s="348"/>
-      <c r="D97" s="349"/>
-      <c r="E97" s="349"/>
-      <c r="F97" s="349"/>
-      <c r="G97" s="350"/>
+      <c r="C97" s="319"/>
+      <c r="D97" s="320"/>
+      <c r="E97" s="320"/>
+      <c r="F97" s="320"/>
+      <c r="G97" s="321"/>
       <c r="H97" s="12" t="s">
         <v>19</v>
       </c>
@@ -28114,11 +28285,11 @@
     </row>
     <row r="98" spans="1:13" s="250" customFormat="1" ht="16.5" customHeight="1">
       <c r="B98" s="168"/>
-      <c r="C98" s="348"/>
-      <c r="D98" s="349"/>
-      <c r="E98" s="349"/>
-      <c r="F98" s="349"/>
-      <c r="G98" s="350"/>
+      <c r="C98" s="319"/>
+      <c r="D98" s="320"/>
+      <c r="E98" s="320"/>
+      <c r="F98" s="320"/>
+      <c r="G98" s="321"/>
       <c r="H98" s="12" t="s">
         <v>19</v>
       </c>
@@ -28133,11 +28304,11 @@
     <row r="99" spans="1:13" ht="16.5" customHeight="1">
       <c r="A99" s="13"/>
       <c r="B99" s="66"/>
-      <c r="C99" s="348"/>
-      <c r="D99" s="349"/>
-      <c r="E99" s="349"/>
-      <c r="F99" s="349"/>
-      <c r="G99" s="350"/>
+      <c r="C99" s="319"/>
+      <c r="D99" s="320"/>
+      <c r="E99" s="320"/>
+      <c r="F99" s="320"/>
+      <c r="G99" s="321"/>
       <c r="H99" s="12" t="s">
         <v>19</v>
       </c>
@@ -28152,11 +28323,11 @@
     <row r="100" spans="1:13" ht="16.5" customHeight="1">
       <c r="A100" s="13"/>
       <c r="B100" s="66"/>
-      <c r="C100" s="348"/>
-      <c r="D100" s="349"/>
-      <c r="E100" s="349"/>
-      <c r="F100" s="349"/>
-      <c r="G100" s="350"/>
+      <c r="C100" s="319"/>
+      <c r="D100" s="320"/>
+      <c r="E100" s="320"/>
+      <c r="F100" s="320"/>
+      <c r="G100" s="321"/>
       <c r="H100" s="12" t="s">
         <v>19</v>
       </c>
@@ -28171,11 +28342,11 @@
     <row r="101" spans="1:13" ht="16.5" customHeight="1">
       <c r="A101" s="13"/>
       <c r="B101" s="66"/>
-      <c r="C101" s="348"/>
-      <c r="D101" s="349"/>
-      <c r="E101" s="349"/>
-      <c r="F101" s="349"/>
-      <c r="G101" s="350"/>
+      <c r="C101" s="319"/>
+      <c r="D101" s="320"/>
+      <c r="E101" s="320"/>
+      <c r="F101" s="320"/>
+      <c r="G101" s="321"/>
       <c r="H101" s="12" t="s">
         <v>19</v>
       </c>
@@ -28235,18 +28406,18 @@
       <c r="C105" s="216" t="s">
         <v>375</v>
       </c>
-      <c r="D105" s="342" t="s">
+      <c r="D105" s="322" t="s">
         <v>376</v>
       </c>
-      <c r="E105" s="344"/>
-      <c r="F105" s="344"/>
-      <c r="G105" s="344"/>
-      <c r="H105" s="344"/>
-      <c r="I105" s="345"/>
-      <c r="J105" s="354"/>
-      <c r="K105" s="341"/>
-      <c r="L105" s="342"/>
-      <c r="M105" s="343"/>
+      <c r="E105" s="327"/>
+      <c r="F105" s="327"/>
+      <c r="G105" s="327"/>
+      <c r="H105" s="327"/>
+      <c r="I105" s="328"/>
+      <c r="J105" s="329"/>
+      <c r="K105" s="333"/>
+      <c r="L105" s="322"/>
+      <c r="M105" s="330"/>
     </row>
     <row r="106" spans="1:13" ht="16.5" customHeight="1">
       <c r="A106" s="13"/>
@@ -28256,14 +28427,14 @@
       <c r="C106" s="216" t="s">
         <v>377</v>
       </c>
-      <c r="D106" s="348" t="s">
+      <c r="D106" s="319" t="s">
         <v>378</v>
       </c>
-      <c r="E106" s="349"/>
-      <c r="F106" s="349"/>
-      <c r="G106" s="349"/>
-      <c r="H106" s="349"/>
-      <c r="I106" s="350"/>
+      <c r="E106" s="320"/>
+      <c r="F106" s="320"/>
+      <c r="G106" s="320"/>
+      <c r="H106" s="320"/>
+      <c r="I106" s="321"/>
       <c r="J106" s="216"/>
       <c r="K106" s="254"/>
       <c r="L106" s="219"/>
@@ -28277,14 +28448,14 @@
       <c r="C107" s="216" t="s">
         <v>379</v>
       </c>
-      <c r="D107" s="348" t="s">
+      <c r="D107" s="319" t="s">
         <v>381</v>
       </c>
-      <c r="E107" s="349"/>
-      <c r="F107" s="349"/>
-      <c r="G107" s="349"/>
-      <c r="H107" s="349"/>
-      <c r="I107" s="350"/>
+      <c r="E107" s="320"/>
+      <c r="F107" s="320"/>
+      <c r="G107" s="320"/>
+      <c r="H107" s="320"/>
+      <c r="I107" s="321"/>
       <c r="J107" s="216"/>
       <c r="K107" s="254"/>
       <c r="L107" s="219"/>
@@ -28298,14 +28469,14 @@
       <c r="C108" s="216" t="s">
         <v>380</v>
       </c>
-      <c r="D108" s="348" t="s">
+      <c r="D108" s="319" t="s">
         <v>382</v>
       </c>
-      <c r="E108" s="349"/>
-      <c r="F108" s="349"/>
-      <c r="G108" s="349"/>
-      <c r="H108" s="349"/>
-      <c r="I108" s="350"/>
+      <c r="E108" s="320"/>
+      <c r="F108" s="320"/>
+      <c r="G108" s="320"/>
+      <c r="H108" s="320"/>
+      <c r="I108" s="321"/>
       <c r="J108" s="216"/>
       <c r="K108" s="254"/>
       <c r="L108" s="219"/>
@@ -28319,14 +28490,14 @@
       <c r="C109" s="216" t="s">
         <v>383</v>
       </c>
-      <c r="D109" s="348" t="s">
+      <c r="D109" s="319" t="s">
         <v>384</v>
       </c>
-      <c r="E109" s="349"/>
-      <c r="F109" s="349"/>
-      <c r="G109" s="349"/>
-      <c r="H109" s="349"/>
-      <c r="I109" s="350"/>
+      <c r="E109" s="320"/>
+      <c r="F109" s="320"/>
+      <c r="G109" s="320"/>
+      <c r="H109" s="320"/>
+      <c r="I109" s="321"/>
       <c r="J109" s="216"/>
       <c r="K109" s="254"/>
       <c r="L109" s="219"/>
@@ -28340,14 +28511,14 @@
       <c r="C110" s="216" t="s">
         <v>385</v>
       </c>
-      <c r="D110" s="348" t="s">
+      <c r="D110" s="319" t="s">
         <v>386</v>
       </c>
-      <c r="E110" s="349"/>
-      <c r="F110" s="349"/>
-      <c r="G110" s="349"/>
-      <c r="H110" s="349"/>
-      <c r="I110" s="350"/>
+      <c r="E110" s="320"/>
+      <c r="F110" s="320"/>
+      <c r="G110" s="320"/>
+      <c r="H110" s="320"/>
+      <c r="I110" s="321"/>
       <c r="J110" s="216"/>
       <c r="K110" s="254"/>
       <c r="L110" s="219"/>
@@ -28361,22 +28532,22 @@
       <c r="C111" s="216" t="s">
         <v>387</v>
       </c>
-      <c r="D111" s="348" t="s">
+      <c r="D111" s="319" t="s">
         <v>388</v>
       </c>
-      <c r="E111" s="349"/>
-      <c r="F111" s="349"/>
-      <c r="G111" s="349"/>
-      <c r="H111" s="349"/>
-      <c r="I111" s="350"/>
-      <c r="J111" s="351" t="s">
+      <c r="E111" s="320"/>
+      <c r="F111" s="320"/>
+      <c r="G111" s="320"/>
+      <c r="H111" s="320"/>
+      <c r="I111" s="321"/>
+      <c r="J111" s="316" t="s">
         <v>134</v>
       </c>
-      <c r="K111" s="353"/>
-      <c r="L111" s="348" t="s">
+      <c r="K111" s="318"/>
+      <c r="L111" s="319" t="s">
         <v>392</v>
       </c>
-      <c r="M111" s="350"/>
+      <c r="M111" s="321"/>
     </row>
     <row r="112" spans="1:13" ht="16.5" customHeight="1">
       <c r="A112" s="13"/>
@@ -28386,14 +28557,14 @@
       <c r="C112" s="216" t="s">
         <v>389</v>
       </c>
-      <c r="D112" s="348" t="s">
+      <c r="D112" s="319" t="s">
         <v>390</v>
       </c>
-      <c r="E112" s="349"/>
-      <c r="F112" s="349"/>
-      <c r="G112" s="349"/>
-      <c r="H112" s="349"/>
-      <c r="I112" s="350"/>
+      <c r="E112" s="320"/>
+      <c r="F112" s="320"/>
+      <c r="G112" s="320"/>
+      <c r="H112" s="320"/>
+      <c r="I112" s="321"/>
       <c r="J112" s="216"/>
       <c r="K112" s="254"/>
       <c r="L112" s="219"/>
@@ -28403,12 +28574,12 @@
       <c r="A113" s="13"/>
       <c r="B113" s="80"/>
       <c r="C113" s="216"/>
-      <c r="D113" s="348"/>
-      <c r="E113" s="349"/>
-      <c r="F113" s="349"/>
-      <c r="G113" s="349"/>
-      <c r="H113" s="349"/>
-      <c r="I113" s="350"/>
+      <c r="D113" s="319"/>
+      <c r="E113" s="320"/>
+      <c r="F113" s="320"/>
+      <c r="G113" s="320"/>
+      <c r="H113" s="320"/>
+      <c r="I113" s="321"/>
       <c r="J113" s="216"/>
       <c r="K113" s="254"/>
       <c r="L113" s="219"/>
@@ -28418,12 +28589,12 @@
       <c r="A114" s="13"/>
       <c r="B114" s="80"/>
       <c r="C114" s="216"/>
-      <c r="D114" s="348"/>
-      <c r="E114" s="349"/>
-      <c r="F114" s="349"/>
-      <c r="G114" s="349"/>
-      <c r="H114" s="349"/>
-      <c r="I114" s="350"/>
+      <c r="D114" s="319"/>
+      <c r="E114" s="320"/>
+      <c r="F114" s="320"/>
+      <c r="G114" s="320"/>
+      <c r="H114" s="320"/>
+      <c r="I114" s="321"/>
       <c r="J114" s="216"/>
       <c r="K114" s="217"/>
       <c r="L114" s="216"/>
@@ -28433,16 +28604,16 @@
       <c r="A115" s="13"/>
       <c r="B115" s="80"/>
       <c r="C115" s="219"/>
-      <c r="D115" s="342"/>
-      <c r="E115" s="359"/>
-      <c r="F115" s="359"/>
-      <c r="G115" s="359"/>
-      <c r="H115" s="359"/>
-      <c r="I115" s="358"/>
-      <c r="J115" s="354"/>
-      <c r="K115" s="343"/>
-      <c r="L115" s="342"/>
-      <c r="M115" s="356"/>
+      <c r="D115" s="322"/>
+      <c r="E115" s="323"/>
+      <c r="F115" s="323"/>
+      <c r="G115" s="323"/>
+      <c r="H115" s="323"/>
+      <c r="I115" s="324"/>
+      <c r="J115" s="329"/>
+      <c r="K115" s="330"/>
+      <c r="L115" s="322"/>
+      <c r="M115" s="326"/>
     </row>
     <row r="116" spans="1:15" s="165" customFormat="1" ht="16.5" customHeight="1"/>
     <row r="117" spans="1:15" ht="16.5" customHeight="1">
@@ -28484,13 +28655,13 @@
       <c r="B119" s="66" t="s">
         <v>393</v>
       </c>
-      <c r="C119" s="348"/>
-      <c r="D119" s="352"/>
-      <c r="E119" s="352"/>
-      <c r="F119" s="352"/>
-      <c r="G119" s="352"/>
-      <c r="H119" s="352"/>
-      <c r="I119" s="353"/>
+      <c r="C119" s="319"/>
+      <c r="D119" s="317"/>
+      <c r="E119" s="317"/>
+      <c r="F119" s="317"/>
+      <c r="G119" s="317"/>
+      <c r="H119" s="317"/>
+      <c r="I119" s="318"/>
       <c r="J119" s="66"/>
       <c r="K119" s="80"/>
       <c r="L119" s="80" t="s">
@@ -28708,13 +28879,13 @@
     <row r="131" spans="1:15" ht="16.5" customHeight="1">
       <c r="A131" s="13"/>
       <c r="B131" s="66"/>
-      <c r="C131" s="351"/>
-      <c r="D131" s="352"/>
-      <c r="E131" s="352"/>
-      <c r="F131" s="352"/>
-      <c r="G131" s="352"/>
-      <c r="H131" s="352"/>
-      <c r="I131" s="353"/>
+      <c r="C131" s="316"/>
+      <c r="D131" s="317"/>
+      <c r="E131" s="317"/>
+      <c r="F131" s="317"/>
+      <c r="G131" s="317"/>
+      <c r="H131" s="317"/>
+      <c r="I131" s="318"/>
       <c r="J131" s="66"/>
       <c r="K131" s="80"/>
       <c r="L131" s="80"/>
@@ -28725,13 +28896,13 @@
     <row r="132" spans="1:15" ht="16.5" customHeight="1">
       <c r="A132" s="13"/>
       <c r="B132" s="66"/>
-      <c r="C132" s="351"/>
-      <c r="D132" s="352"/>
-      <c r="E132" s="352"/>
-      <c r="F132" s="352"/>
-      <c r="G132" s="352"/>
-      <c r="H132" s="352"/>
-      <c r="I132" s="353"/>
+      <c r="C132" s="316"/>
+      <c r="D132" s="317"/>
+      <c r="E132" s="317"/>
+      <c r="F132" s="317"/>
+      <c r="G132" s="317"/>
+      <c r="H132" s="317"/>
+      <c r="I132" s="318"/>
       <c r="J132" s="66"/>
       <c r="K132" s="80"/>
       <c r="L132" s="80"/>
@@ -29151,19 +29322,15 @@
     </row>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="A1:A5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="L105:M105"/>
-    <mergeCell ref="J105:K105"/>
-    <mergeCell ref="D108:I108"/>
-    <mergeCell ref="D109:I109"/>
-    <mergeCell ref="C98:G98"/>
-    <mergeCell ref="C99:G99"/>
-    <mergeCell ref="C100:G100"/>
-    <mergeCell ref="C101:G101"/>
-    <mergeCell ref="D105:I105"/>
+    <mergeCell ref="L111:M111"/>
+    <mergeCell ref="J111:K111"/>
+    <mergeCell ref="C119:I119"/>
+    <mergeCell ref="D110:I110"/>
+    <mergeCell ref="D111:I111"/>
+    <mergeCell ref="D112:I112"/>
+    <mergeCell ref="D113:I113"/>
+    <mergeCell ref="J115:K115"/>
+    <mergeCell ref="L115:M115"/>
     <mergeCell ref="C132:I132"/>
     <mergeCell ref="C9:C10"/>
     <mergeCell ref="D9:D10"/>
@@ -29180,15 +29347,19 @@
     <mergeCell ref="C86:M86"/>
     <mergeCell ref="C96:G96"/>
     <mergeCell ref="C97:G97"/>
-    <mergeCell ref="L111:M111"/>
-    <mergeCell ref="J111:K111"/>
-    <mergeCell ref="C119:I119"/>
-    <mergeCell ref="D110:I110"/>
-    <mergeCell ref="D111:I111"/>
-    <mergeCell ref="D112:I112"/>
-    <mergeCell ref="D113:I113"/>
-    <mergeCell ref="J115:K115"/>
-    <mergeCell ref="L115:M115"/>
+    <mergeCell ref="D108:I108"/>
+    <mergeCell ref="D109:I109"/>
+    <mergeCell ref="C98:G98"/>
+    <mergeCell ref="C99:G99"/>
+    <mergeCell ref="C100:G100"/>
+    <mergeCell ref="C101:G101"/>
+    <mergeCell ref="D105:I105"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="A1:A5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="L105:M105"/>
+    <mergeCell ref="J105:K105"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="1">
